--- a/chemistry_recommendations/Recommendations.xlsx
+++ b/chemistry_recommendations/Recommendations.xlsx
@@ -5,63 +5,65 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syngenta-my.sharepoint.com/personal/edouard_godineau_syngenta_com/Documents/Documents/GitHub/recommendations/Chemistry_recommendations/Utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://syngenta-my.sharepoint.com/personal/edouard_godineau_syngenta_com/Documents/Documents/GitHub/recommendation_app/chemistry_recommendations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="14_{6C43EE42-BFF3-45EF-997B-4B8B046255E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD9D6099-807B-4139-8E95-7F49831E31E4}"/>
+  <xr:revisionPtr revIDLastSave="387" documentId="14_{6C43EE42-BFF3-45EF-997B-4B8B046255E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F166554C-E5E0-4FFB-B7CD-2E1047E3C7A6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="774" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="774" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Green Solvents" sheetId="20" r:id="rId1"/>
     <sheet name="Amide coupling" sheetId="2" r:id="rId2"/>
-    <sheet name="Amide_coupling_App" sheetId="34" r:id="rId3"/>
-    <sheet name="Amide_coupling_App_" sheetId="38" r:id="rId4"/>
-    <sheet name="Amide_coupling_tree" sheetId="36" r:id="rId5"/>
-    <sheet name="Amide_coupling_tree_results" sheetId="37" r:id="rId6"/>
-    <sheet name="Buchwald" sheetId="18" r:id="rId7"/>
-    <sheet name="Chan-Lam" sheetId="19" r:id="rId8"/>
-    <sheet name="Cyanation" sheetId="21" r:id="rId9"/>
-    <sheet name="Cyanation_App" sheetId="33" r:id="rId10"/>
-    <sheet name="Cyanation_App_" sheetId="40" r:id="rId11"/>
-    <sheet name="Mitsunobu" sheetId="22" r:id="rId12"/>
-    <sheet name="Negishi" sheetId="23" r:id="rId13"/>
-    <sheet name="SNAr" sheetId="24" r:id="rId14"/>
-    <sheet name="Sonogashira" sheetId="25" r:id="rId15"/>
-    <sheet name="Suzuki" sheetId="26" r:id="rId16"/>
-    <sheet name="Suzuki_App" sheetId="35" r:id="rId17"/>
-    <sheet name="Suzuki_App_" sheetId="39" r:id="rId18"/>
-    <sheet name="Suzuki_troubleshooting" sheetId="31" r:id="rId19"/>
-    <sheet name="Suzuki_general_tips" sheetId="32" r:id="rId20"/>
-    <sheet name="Stille" sheetId="27" r:id="rId21"/>
-    <sheet name="Ullmann" sheetId="28" r:id="rId22"/>
-    <sheet name="Summary Ma's ligands" sheetId="29" r:id="rId23"/>
-    <sheet name="Ma's ligands - list" sheetId="30" r:id="rId24"/>
+    <sheet name="Amide_tips_" sheetId="41" r:id="rId3"/>
+    <sheet name="Amide_coupling_App" sheetId="34" r:id="rId4"/>
+    <sheet name="Amide_coupling_App_" sheetId="38" r:id="rId5"/>
+    <sheet name="Amide_coupling_tree" sheetId="36" r:id="rId6"/>
+    <sheet name="Amide_coupling_tree_results" sheetId="37" r:id="rId7"/>
+    <sheet name="Buchwald" sheetId="18" r:id="rId8"/>
+    <sheet name="Chan-Lam" sheetId="19" r:id="rId9"/>
+    <sheet name="Cyanation" sheetId="21" r:id="rId10"/>
+    <sheet name="Cyanation_App" sheetId="33" r:id="rId11"/>
+    <sheet name="Cyanation_App_" sheetId="40" r:id="rId12"/>
+    <sheet name="Mitsunobu" sheetId="22" r:id="rId13"/>
+    <sheet name="Negishi" sheetId="23" r:id="rId14"/>
+    <sheet name="SNAr" sheetId="24" r:id="rId15"/>
+    <sheet name="Sonogashira" sheetId="25" r:id="rId16"/>
+    <sheet name="Suzuki" sheetId="26" r:id="rId17"/>
+    <sheet name="Suzuki_App" sheetId="35" r:id="rId18"/>
+    <sheet name="Suzuki_App_" sheetId="39" r:id="rId19"/>
+    <sheet name="Suzuki_troubleshooting" sheetId="31" r:id="rId20"/>
+    <sheet name="Suzuki_general_tips" sheetId="32" r:id="rId21"/>
+    <sheet name="Stille" sheetId="27" r:id="rId22"/>
+    <sheet name="Ullmann" sheetId="28" r:id="rId23"/>
+    <sheet name="Summary Ma's ligands" sheetId="29" r:id="rId24"/>
+    <sheet name="Ma's ligands - list" sheetId="30" r:id="rId25"/>
   </sheets>
   <definedNames>
     <definedName name="ixlNextC" localSheetId="1" hidden="1">4</definedName>
-    <definedName name="ixlNextC" localSheetId="2" hidden="1">4</definedName>
     <definedName name="ixlNextC" localSheetId="3" hidden="1">4</definedName>
     <definedName name="ixlNextC" localSheetId="4" hidden="1">4</definedName>
     <definedName name="ixlNextC" localSheetId="5" hidden="1">4</definedName>
     <definedName name="ixlNextC" localSheetId="6" hidden="1">4</definedName>
+    <definedName name="ixlNextC" localSheetId="2" hidden="1">4</definedName>
     <definedName name="ixlNextC" localSheetId="7" hidden="1">4</definedName>
     <definedName name="ixlNextC" localSheetId="8" hidden="1">4</definedName>
     <definedName name="ixlNextC" localSheetId="9" hidden="1">4</definedName>
     <definedName name="ixlNextC" localSheetId="10" hidden="1">4</definedName>
+    <definedName name="ixlNextC" localSheetId="11" hidden="1">4</definedName>
     <definedName name="ixlNextC" localSheetId="0" hidden="1">13</definedName>
-    <definedName name="ixlNextC" localSheetId="23" hidden="1">25</definedName>
-    <definedName name="ixlNextC" localSheetId="11" hidden="1">7</definedName>
-    <definedName name="ixlNextC" localSheetId="12" hidden="1">4</definedName>
+    <definedName name="ixlNextC" localSheetId="24" hidden="1">25</definedName>
+    <definedName name="ixlNextC" localSheetId="12" hidden="1">7</definedName>
     <definedName name="ixlNextC" localSheetId="13" hidden="1">4</definedName>
-    <definedName name="ixlNextC" localSheetId="14" hidden="1">6</definedName>
-    <definedName name="ixlNextC" localSheetId="20" hidden="1">4</definedName>
-    <definedName name="ixlNextC" localSheetId="15" hidden="1">4</definedName>
+    <definedName name="ixlNextC" localSheetId="14" hidden="1">4</definedName>
+    <definedName name="ixlNextC" localSheetId="15" hidden="1">6</definedName>
+    <definedName name="ixlNextC" localSheetId="21" hidden="1">4</definedName>
     <definedName name="ixlNextC" localSheetId="16" hidden="1">4</definedName>
     <definedName name="ixlNextC" localSheetId="17" hidden="1">4</definedName>
+    <definedName name="ixlNextC" localSheetId="18" hidden="1">4</definedName>
+    <definedName name="ixlNextC" localSheetId="20" hidden="1">4</definedName>
     <definedName name="ixlNextC" localSheetId="19" hidden="1">4</definedName>
-    <definedName name="ixlNextC" localSheetId="18" hidden="1">4</definedName>
-    <definedName name="ixlNextC" localSheetId="21" hidden="1">4</definedName>
+    <definedName name="ixlNextC" localSheetId="22" hidden="1">4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -99,7 +101,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000005R0316611500S00000041P00504LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhggAAAA/AQA/AACAAAAAAAA8L8CAAAAAABAHEACjnVxGw1gGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSVB5AAltCPujZLBjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKjAbwFElQeQAKCc0aU9sYVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8Cayv2l90zIEACObTIdr5fGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AnbgnBGlPSFAAltCPujZLBjAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLOqs/VViwaQAKTGARWDi0YwAAAAAAUAAQEAAAAAAAABAgIAAAAAAAABAwEAAAAAAAADBAEAAAAAAAAABQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00004C0000005R0143031093S00000041P00504LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhggAAAA/AQA/AACAAAAAAAA8L8CAAAAAABAHEACjnVxGw1gGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSVB5AAltCPujZLBjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKjAbwFElQeQAKCc0aU9sYVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8Cayv2l90zIEACObTIdr5fGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AnbgnBGlPSFAAltCPujZLBjAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLOqs/VViwaQAKTGARWDi0YwAAAAAAUAAQEAAAAAAAABAgIAAAAAAAABAwEAAAAAAAADBAEAAAAAAAAABQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -112,7 +114,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000006R0316611500S00000043P00584LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwBEAAAAPwEAPwAAgAAAAAAAPC/ApMYBFYOzSVAAu58PzVeuhXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKEDU+vlMUmQAJPr5RliCMXwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CLbKd76dmJkACQBNhw9NrGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Avp+arx0MyVAAkATYcPTaxnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKjI7n8h9QkQAJPr5RliCMXwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CtMh2vp+aJkACqFfKMsTxE8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AnNoke18/yRAAqhXyjLE8RPAAAAAABwABAQABAAAAAAECAQABAAAAAAIDAQABAAAAAAMEAQABAAAAAAQAAQABAAAAAAAFAgAAAAAAAAAGAgAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000006R0143031093S00000043P00584LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwBEAAAAPwEAPwAAgAAAAAAAPC/ApMYBFYOzSVAAu58PzVeuhXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKEDU+vlMUmQAJPr5RliCMXwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CLbKd76dmJkACQBNhw9NrGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Avp+arx0MyVAAkATYcPTaxnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKjI7n8h9QkQAJPr5RliCMXwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CtMh2vp+aJkACqFfKMsTxE8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AnNoke18/yRAAqhXyjLE8RPAAAAAABwABAQABAAAAAAECAQABAAAAAAIDAQABAAAAAAMEAQABAAAAAAQAAQABAAAAAAAFAgAAAAAAAAAGAgAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -125,7 +127,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000007R0316611500S00000045P01052LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAjggAAAA/AQA/AACAAAAAAAA8L8CSFD8GHOXGEACIv32deAcD8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmZmZmZmphZAAl+YTBWMSgzAAAAAABgIAAD8BAD8AAIAAAAAAADwvwIVHcnlP2QXQAJ90LNZ9bkHwAAAAAAYDAAA/AQA/AACAAAAAAAA8L8Ce4MvTKbKGUACfdCzWfW5B8AAAAAAGAwAAPwEAPwAAgAAAAAAAPC/Aio6kst/iBpAAl+YTBWMSgzAAAAAABgMAAD8BAD8AAIAAAAAAADwvwKQoPgx5u4cQAJfmEwVjEoMwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CXW3F/rK7G0ACumsJ+aDnBMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aj9XW7G/rB1AAn3Qs1n1uQfAAAAAACAAAAD8BAD8AAIAAAAAAADwvwLy0k1iEFgeQAIRNjy9UhYQwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8Cs+pztRX7FUACufyH9NvXA8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvLSTWIQmBNAAiqpE9BEWATAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJa9bnail0gQAKxv+yePKwPwAAAAAAEAAAA/AQA/AACAAAAAAAA8L8C2PD0SllGG0ACPZtVn6ttEMAAAAAABAAAAPwEAPwAAgAAAAAAAPC/As3MzMzMDBlAApoIG55eKQPAAAAAADwABAQABAAAAAAECAQABAAAAAAIDAQABAAAAAAMEAQABAAAAAAQAAQABAAAAAAYHAQABAAAAAAcFAQABAAAAAAQFAQABAAAAAAMGAQABAAAAAAUIAQQAAAAAAAIJAQUAAAAAAAkKAQAAAAAAAAgLAQAAAAAAAAQMAQUAAAAAAAMNAQUAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000007R0143031093S00000045P01052LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAjggAAAA/AQA/AACAAAAAAAA8L8CSFD8GHOXGEACIv32deAcD8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmZmZmZmphZAAl+YTBWMSgzAAAAAABgIAAD8BAD8AAIAAAAAAADwvwIVHcnlP2QXQAJ90LNZ9bkHwAAAAAAYDAAA/AQA/AACAAAAAAAA8L8Ce4MvTKbKGUACfdCzWfW5B8AAAAAAGAwAAPwEAPwAAgAAAAAAAPC/Aio6kst/iBpAAl+YTBWMSgzAAAAAABgMAAD8BAD8AAIAAAAAAADwvwKQoPgx5u4cQAJfmEwVjEoMwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CXW3F/rK7G0ACumsJ+aDnBMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aj9XW7G/rB1AAn3Qs1n1uQfAAAAAACAAAAD8BAD8AAIAAAAAAADwvwLy0k1iEFgeQAIRNjy9UhYQwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8Cs+pztRX7FUACufyH9NvXA8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvLSTWIQmBNAAiqpE9BEWATAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJa9bnail0gQAKxv+yePKwPwAAAAAAEAAAA/AQA/AACAAAAAAAA8L8C2PD0SllGG0ACPZtVn6ttEMAAAAAABAAAAPwEAPwAAgAAAAAAAPC/As3MzMzMDBlAApoIG55eKQPAAAAAADwABAQABAAAAAAECAQABAAAAAAIDAQABAAAAAAMEAQABAAAAAAQAAQABAAAAAAYHAQABAAAAAAcFAQABAAAAAAQFAQABAAAAAAMGAQABAAAAAAUIAQQAAAAAAAIJAQUAAAAAAAkKAQAAAAAAAAgLAQAAAAAAAAQMAQUAAAAAAAMNAQUAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -138,7 +140,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000008R0316611500S00000047P00452LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhQYAAAA/AQA/AACAAAAAAAA8L8CAAAAAABAIUACJ8KGp1fKE8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Aiv2l92TRyBAAhpR2ht8YRLAAAAAABgAAAD8BAD8AAIAAAAAAADwvwL129eBc6YgQAJhw9MrZRkQwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CCyQofozZIUACYcPTK2UZEMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AtUJaCJsOCJAAhpR2ht8YRLAAAAAABQQAAQABAAAAAAMEAQABAAAAAAIDAQABAAAAAAABAQABAAAAAAECAQABAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000008R0143031093S00000047P00452LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhQYAAAA/AQA/AACAAAAAAAA8L8CAAAAAABAIUACJ8KGp1fKE8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Aiv2l92TRyBAAhpR2ht8YRLAAAAAABgAAAD8BAD8AAIAAAAAAADwvwL129eBc6YgQAJhw9MrZRkQwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CCyQofozZIUACYcPTK2UZEMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AtUJaCJsOCJAAhpR2ht8YRLAAAAAABQQAAQABAAAAAAMEAQABAAAAAAIDAQABAAAAAAABAQABAAAAAAECAQABAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -151,7 +153,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000009R0316611500S00000004P00440LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhQYAAAA/AQA/AACAAAAAAAA8L8CkzoBTYQtIEACfq62Yn+ZH8AAAAAAGAAAAPwMAPwAAgAAAAAAAPC/AnGsi9toYCFAAn6utmJ/mR/AAAAAABwAAAD8DAD8AAIAAAAAAADwvwLek4eFWpMiQAJ+rrZif5kfwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CKxiV1AkoH0ACS1mGONaFHcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlJJnYAmwhxAAktZhjjWhR3AAAAAABAABAQAAAAAAAAECAwAAAAAAAAADAQAAAAAAAAMEAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000009R0143031093S00000004P00440LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhQYAAAA/AQA/AACAAAAAAAA8L8CkzoBTYQtIEACfq62Yn+ZH8AAAAAAGAAAAPwMAPwAAgAAAAAAAPC/AnGsi9toYCFAAn6utmJ/mR/AAAAAABwAAAD8DAD8AAIAAAAAAADwvwLek4eFWpMiQAJ+rrZif5kfwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CKxiV1AkoH0ACS1mGONaFHcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlJJnYAmwhxAAktZhjjWhR3AAAAAABAABAQAAAAAAAAECAwAAAAAAAAADAQAAAAAAAAMEAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -164,7 +166,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000010R0316611500S00000051P00724LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAiQgAAAA/AQA/AACAAAAAAAA8L8COGdEaW9wGUAC8IXJVMEoEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Anh6pSxDXBpAAgu1pnnHaRTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJDrWnecQoYQAIZBFYOLbIVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CZRniWBd3F0ACeAskKH4MGMAAAAAAGAgAAPwEAPwAAgAAAAAAAPC/AjhnRGlvcBlAApCg+DHmrhbAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJEi2zn+2kbQALqlbIMcewZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGQRWDi1yG0AC9+RhodZ0F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aqd5xyk6Uh1AAuPHmLuW0BbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIXSFD8GHMcQAIg0m9fBw4VwAAAAAAoABAEAAQAAAAABAAEAAQAAAAABCAEAAQAAAAACAQEAAQAAAAADAgEAAQAAAAAEAwEFAQAAAAAGBAEAAQAAAAAGBQIAAAAAAAAHBgEAAQAAAAAIBwEAAQAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00004C0000010R0143031093S00000051P00724LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAiQgAAAA/AQA/AACAAAAAAAA8L8COGdEaW9wGUAC8IXJVMEoEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Anh6pSxDXBpAAgu1pnnHaRTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJDrWnecQoYQAIZBFYOLbIVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CZRniWBd3F0ACeAskKH4MGMAAAAAAGAgAAPwEAPwAAgAAAAAAAPC/AjhnRGlvcBlAApCg+DHmrhbAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJEi2zn+2kbQALqlbIMcewZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGQRWDi1yG0AC9+RhodZ0F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aqd5xyk6Uh1AAuPHmLuW0BbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIXSFD8GHMcQAIg0m9fBw4VwAAAAAAoABAEAAQAAAAABAAEAAQAAAAABCAEAAQAAAAACAQEAAQAAAAADAgEAAQAAAAAEAwEFAQAAAAAGBAEAAQAAAAAGBQIAAAAAAAAHBgEAAQAAAAAIBwEAAQAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -177,7 +179,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000011R0316611500S00000053P00572LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwYAAAA/AQA/AACAAAAAAAA8L8CAAAAAAAAI0ACjnVxGw0gGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtIA3gIJCiRAAltCPujZ7BfAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLSAN4CCQokQAKCc0aU9oYVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cayv2l90TJUACObTIdr4fGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmfV52or9iFAApMYBFYO7RfAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJcIEHxY+wgQAKOdXEbDSAZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CZ9Xnaiv2IUACukkMAiuHFcAAAAAAGAAEBAAAAAAAAAQICAAAAAAAAAQMBAAAAAAAAAAQBAAAAAAAABAUBAAAAAAAABAYBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000011R0143031093S00000053P00572LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwYAAAA/AQA/AACAAAAAAAA8L8CAAAAAAAAI0ACjnVxGw0gGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtIA3gIJCiRAAltCPujZ7BfAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLSAN4CCQokQAKCc0aU9oYVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cayv2l90TJUACObTIdr4fGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmfV52or9iFAApMYBFYO7RfAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJcIEHxY+wgQAKOdXEbDSAZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CZ9Xnaiv2IUACukkMAiuHFcAAAAAAGAAEBAAAAAAAAAQICAAAAAAAAAQMBAAAAAAAAAAQBAAAAAAAABAUBAAAAAAAABAYBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -190,7 +192,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000012R0316611500S00000055P00780LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAigYAAAA/AQA/AACAAAAAAAA8L8C9bnaiv2FIkACzczMzMwMGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvW52or9hSJAAjMzMzMzcxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLHuriNBpAjQAJmZmZmZqYcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CmbuWkA+aJEACMzMzMzNzG8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Apm7lpAPmiRAAs3MzMzMDBnAAAAAABgIAAD8BAD8AAIAAAAAAADwvwLHuriNBpAjQAKamZmZmdkXwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cx7q4jQaQI0ACwcqhRbZzFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ai6QoPgxhiJAAuJYF7fRQBTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLSb18HzpkkQALiWBe30UAUwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cx7q4jQaQI0ACPzVeukkMH8AAAAAAKBAUBAAEAAAAAAwQBAAEAAAAAAgMCAgEAAAAAAQIBAAEAAAAAAAEBAAEAAAAAAAUBAAEAAAAABQYBBAAAAAAABgcCAAAAAAAABggBAAAAAAAAAgkBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000012R0143031093S00000055P00780LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAigYAAAA/AQA/AACAAAAAAAA8L8C9bnaiv2FIkACzczMzMwMGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvW52or9hSJAAjMzMzMzcxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLHuriNBpAjQAJmZmZmZqYcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CmbuWkA+aJEACMzMzMzNzG8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Apm7lpAPmiRAAs3MzMzMDBnAAAAAABgIAAD8BAD8AAIAAAAAAADwvwLHuriNBpAjQAKamZmZmdkXwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cx7q4jQaQI0ACwcqhRbZzFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ai6QoPgxhiJAAuJYF7fRQBTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLSb18HzpkkQALiWBe30UAUwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cx7q4jQaQI0ACPzVeukkMH8AAAAAAKBAUBAAEAAAAAAwQBAAEAAAAAAgMCAgEAAAAAAQIBAAEAAAAAAAEBAAEAAAAAAAUBAAEAAAAABQYBBAAAAAAABgcCAAAAAAAABggBAAAAAAAAAgkBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -203,7 +205,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000013R0316611500S00000057P00636LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiAYAAAA/AQA/AACAAAAAAAA8L8CjnVxGw1gH0ACHOviNhrAD8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Apm7lpAPuiBAAraEfNCzWQ3AAAAAACAAAAD8BAD8AAIAAAAAAADwvwKOdXEbDWAfQAJLWYY41kUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXCBB8WNMHUACJzEIrBxaDcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AinLEMe6OBtAAhzr4jYawA/AAAAAACAAAAD8CAD8AAIAAAAAAADwvwJcIEHxY0wdQAJ1kxgEVo4IwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CE2HD0yslGUACJzEIrBxaDcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuELk6mCERdAAhzr4jYawA/AAAAAABwABAQAAAAAAAAACAQAAAAAAAAADAQAAAAAAAAMEAQAAAAAAAAMFAgAAAAAAAAQGAQAAAAAAAAYHAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000013R0143031093S00000057P00636LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiAYAAAA/AQA/AACAAAAAAAA8L8CjnVxGw1gH0ACHOviNhrAD8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Apm7lpAPuiBAAraEfNCzWQ3AAAAAACAAAAD8BAD8AAIAAAAAAADwvwKOdXEbDWAfQAJLWYY41kUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXCBB8WNMHUACJzEIrBxaDcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AinLEMe6OBtAAhzr4jYawA/AAAAAACAAAAD8CAD8AAIAAAAAAADwvwJcIEHxY0wdQAJ1kxgEVo4IwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CE2HD0yslGUACJzEIrBxaDcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuELk6mCERdAAhzr4jYawA/AAAAAABwABAQAAAAAAAAACAQAAAAAAAAADAQAAAAAAAAMEAQAAAAAAAAMFAgAAAAAAAAQGAQAAAAAAAAYHAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -216,7 +218,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000014R0316611500S00000059P00584LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwYAAAA/AQA/AACAAAAAAAA8L8CAAAAAACAHEACJ8KGp1cKEMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlfsL7snjxpAAjSitDf4Qg3AAAAAACAAAAD8BAD8AAIAAAAAAADwvwLpt68D50wbQALChqdXyrIIwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CF0hQ/BizHUACwoanV8qyCMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AqkT0ETYcB5AAjSitDf4Qg3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwIgY+5aQj4YQAKqglFJnYAOwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8C9bnaiv3lHkACXdxGA3iLBMAAAAAAHBAABAAEAAAAAAwQBAAEAAAAAAgMBAAEAAAAAAAEBAAEAAAAAAQIBAAEAAAAAAQUBAAAAAAAAAwYCAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000014R0143031093S00000059P00584LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwYAAAA/AQA/AACAAAAAAAA8L8CAAAAAACAHEACJ8KGp1cKEMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlfsL7snjxpAAjSitDf4Qg3AAAAAACAAAAD8BAD8AAIAAAAAAADwvwLpt68D50wbQALChqdXyrIIwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CF0hQ/BizHUACwoanV8qyCMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AqkT0ETYcB5AAjSitDf4Qg3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwIgY+5aQj4YQAKqglFJnYAOwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8C9bnaiv3lHkACXdxGA3iLBMAAAAAAHBAABAAEAAAAAAwQBAAEAAAAAAgMBAAEAAAAAAAEBAAEAAAAAAQIBAAEAAAAAAQUBAAAAAAAAAwYCAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -229,7 +231,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000018R0316611500S00000125P00584LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwYAAAA/AQA/AACAAAAAAAA8L8CLv8h/fY1LkACzczMzMzMF8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ai7/If32NS5AAjMzMzMzMxrAAAAAACAAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEAvQAJmZmZmZmYbwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CaQBvgQQlMEACMzMzMzMzGsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmkAb4EEJTBAAs3MzMzMzBfAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEAvQAKamZmZmZkWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CAAAAAABAL0ACwcqhRbYzFMAAAAAAHBAUBAAEAAAAAAwQBAAEAAAAAAgMBAAEAAAAAAQIBAAEAAAAAAAEBAAEAAAAAAAUBAAEAAAAABQYBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000018R0143031093S00000125P00584LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAhwYAAAA/AQA/AACAAAAAAAA8L8CLv8h/fY1LkACzczMzMzMF8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ai7/If32NS5AAjMzMzMzMxrAAAAAACAAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEAvQAJmZmZmZmYbwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CaQBvgQQlMEACMzMzMzMzGsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmkAb4EEJTBAAs3MzMzMzBfAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEAvQAKamZmZmZkWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CAAAAAABAL0ACwcqhRbYzFMAAAAAAHBAUBAAEAAAAAAwQBAAEAAAAAAgMBAAEAAAAAAQIBAAEAAAAAAAEBAAEAAAAAAAUBAAEAAAAABQYBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -242,7 +244,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000019R0316611500S00000126P00932LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAgAAAA/AQA/AACAAAAAAAA8L8CVg4tsp1vJEACke18PzXeFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuSDns2qzyRAAr3jFB3JJRnAAAAAACAAAAD8BAD8AAIAAAAAAADwvwKVZYhjXfwlQAL67evAOaMZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CRUdy+Q/JJkAC8BZIUPzYF8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ailcj8L1aCZAAsUgsHJokRXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJ4eqUsQzwlQAKjAbwFEhQVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C6gQ0ETb8J0ACZvfkYaHWF8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AuJYF7fRYCdAAmZmZmZmJhTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwILRiV1AlooQAKvJeSDno0VwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CE/JBz2b1KEACrrZif9k9GcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArAD54wojSlAAkHxY8xdixXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwI+eVioNe0pQAJt5/up8dIXwAAAAAA4EBQEAAQAAAAADBAEAAQAAAAACAwEAAQAAAAABAgEAAQAAAAAAAQEAAQAAAAAABQEAAQAAAAAIBgEAAQAAAAAHCAEAAQAAAAADBgEAAQAAAAAEBwEAAQAAAAALCQEAAQAAAAAKCwEAAQAAAAAGCQEAAQAAAAAICgEAAQAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00004C0000019R0143031093S00000126P00932LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAgAAAA/AQA/AACAAAAAAAA8L8CVg4tsp1vJEACke18PzXeFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuSDns2qzyRAAr3jFB3JJRnAAAAAACAAAAD8BAD8AAIAAAAAAADwvwKVZYhjXfwlQAL67evAOaMZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CRUdy+Q/JJkAC8BZIUPzYF8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ailcj8L1aCZAAsUgsHJokRXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJ4eqUsQzwlQAKjAbwFEhQVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C6gQ0ETb8J0ACZvfkYaHWF8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AuJYF7fRYCdAAmZmZmZmJhTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwILRiV1AlooQAKvJeSDno0VwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CE/JBz2b1KEACrrZif9k9GcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArAD54wojSlAAkHxY8xdixXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwI+eVioNe0pQAJt5/up8dIXwAAAAAA4EBQEAAQAAAAADBAEAAQAAAAACAwEAAQAAAAABAgEAAQAAAAAAAQEAAQAAAAAABQEAAQAAAAAIBgEAAQAAAAAHCAEAAQAAAAADBgEAAQAAAAAEBwEAAQAAAAALCQEAAQAAAAAKCwEAAQAAAAAGCQEAAQAAAAAICgEAAQAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -255,7 +257,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000020R0316611500S00000127P00856LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiwYAAAA/AQA/AACAAAAAAAA8L8CjSjtDb7wEEACS8gHPZvVCcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Asx/SL99HQ5AAuSDns2qzwzAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLi6ZWyDHERQALKw0KtaV4NwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cbef7qfFSE0AC+THmriVkCsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AscpOpLLPxVAAhlz1xLyQQ3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwI9LNSa5l0TQAJ1ApoIGx4QwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CqRPQRNiwEkAC3NeBc0YUB8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ao/k8h/SbxRAApvmHafoyAPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKvlGWIY50VQAK9UpYhjvUIwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CINJvXwfOEUACrthfdk+eAsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AkOtad5xShBAAtzXgXNGFAfAAAAAADAABAQABAAAAAAECAQABAAAAAAADAQABAAAAAAMEAQABAAAAAAQFAQABAAAAAAUCAQABAAAAAAIGAQABAAAAAAYHAQABAAAAAAMHAQABAAAAAAMIAQAAAAAAAAYJAQAAAAAAAAYKAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000020R0143031093S00000127P00856LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiwYAAAA/AQA/AACAAAAAAAA8L8CjSjtDb7wEEACS8gHPZvVCcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Asx/SL99HQ5AAuSDns2qzwzAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLi6ZWyDHERQALKw0KtaV4NwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cbef7qfFSE0AC+THmriVkCsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AscpOpLLPxVAAhlz1xLyQQ3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwI9LNSa5l0TQAJ1ApoIGx4QwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CqRPQRNiwEkAC3NeBc0YUB8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ao/k8h/SbxRAApvmHafoyAPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKvlGWIY50VQAK9UpYhjvUIwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CINJvXwfOEUACrthfdk+eAsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AkOtad5xShBAAtzXgXNGFAfAAAAAADAABAQABAAAAAAECAQABAAAAAAADAQABAAAAAAMEAQABAAAAAAQFAQABAAAAAAUCAQABAAAAAAIGAQABAAAAAAYHAQABAAAAAAMHAQABAAAAAAMIAQAAAAAAAAYJAQAAAAAAAAYKAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -278,7 +280,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00003C0000021R0316611515S00000006P01312LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgESGAAAAPwEAPwAAgAAAAAAAPC/AtDVVuwv+xpAAuhqK/aXHR/AAAAAABgAAAD8BAD8AAIAAAAAAADwvwJTBaOSOsEeQAICmggbnj4gwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CtTf4wmTqIEACnMQgsHLoHcAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjzCFAAsWPMXctYSHAAAAAADwAAAD8BAD8AAIAAAAAAADwvwJ2Tx4Was0iQAK5jQbwFkgfwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CLbKd76cmI0ACMlUwKqlTG8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AjnWxW00ACpAAmB2Tx4WKhbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwItIR/0bHYoQALJ5T+k374YwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CbAn5oGeTJkACrBxaZDtfF8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AtSa5h2nCCRAAkT67evAeRbAAAAAADwAAAD8BAD8AAIAAAAAAADwvwLvycNCrQklQAIVjErqBPQZwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CbAn5oGeTJkACf/s6cM6IHMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AnL5D+m3zyhAAhe30QDe4iTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwItIR/0bHYoQAJGJXUCmugiwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CbAn5oGeTJkACRrbz/dQ4IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AuoENBE2PChAAgKaCBuePiDAAAAAADwAAAD8BAD8AAIAAAAAAADwvwK1pnnHKTomQAICmggbnj4gwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C845TdCRXJEACkX77OnDuIMAAAAAAARIBERAEAAQAAAAABAAEAAAAAAAACAQEAAAAAAAAEAgEAAAAAAAAEAwIAAAAAAAAEBQEAAQAAAAAFCgEAAQAAAAAHBgEAAAAAAAAIBwEAAAAAAAAKCAEAAAAAAAAKCQIAAAAAAAALCgEAAQAAAAAARAsBAAEAAAAADQwBAAAAAAAADg0BAAAAAAAAAEQOAQAAAAAAAABEDwIAAAAAAAAAREBEAQABAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00003C0000021R0143031109S00000006P01312LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgESGAAAAPwEAPwAAgAAAAAAAPC/AtDVVuwv+xpAAuhqK/aXHR/AAAAAABgAAAD8BAD8AAIAAAAAAADwvwJTBaOSOsEeQAICmggbnj4gwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CtTf4wmTqIEACnMQgsHLoHcAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjzCFAAsWPMXctYSHAAAAAADwAAAD8BAD8AAIAAAAAAADwvwJ2Tx4Was0iQAK5jQbwFkgfwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CLbKd76cmI0ACMlUwKqlTG8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AjnWxW00ACpAAmB2Tx4WKhbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwItIR/0bHYoQALJ5T+k374YwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CbAn5oGeTJkACrBxaZDtfF8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AtSa5h2nCCRAAkT67evAeRbAAAAAADwAAAD8BAD8AAIAAAAAAADwvwLvycNCrQklQAIVjErqBPQZwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CbAn5oGeTJkACf/s6cM6IHMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AnL5D+m3zyhAAhe30QDe4iTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwItIR/0bHYoQAJGJXUCmugiwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CbAn5oGeTJkACRrbz/dQ4IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AuoENBE2PChAAgKaCBuePiDAAAAAADwAAAD8BAD8AAIAAAAAAADwvwK1pnnHKTomQAICmggbnj4gwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C845TdCRXJEACkX77OnDuIMAAAAAAARIBERAEAAQAAAAABAAEAAAAAAAACAQEAAAAAAAAEAgEAAAAAAAAEAwIAAAAAAAAEBQEAAQAAAAAFCgEAAQAAAAAHBgEAAAAAAAAIBwEAAAAAAAAKCAEAAAAAAAAKCQIAAAAAAAALCgEAAQAAAAAARAsBAAEAAAAADQwBAAAAAAAADg0BAAAAAAAAAEQOAQAAAAAAAABEDwIAAAAAAAAAREBEAQABAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -291,7 +293,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00005C0000021R0316611515S00000007P01912LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEbJAAAAPwEAPwAAgAAAAAAAPC/AgHeAgmK/y5AApMYBFYObR/AAAAAACQAAAD8BAD8AAIAAAAAAADwvwLMXUvIBx0vQAKVZYhjXdwiwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8C63O1FfurL0AC7nw/NV4aIcAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AvRsVn2u1itAAu58PzVeGiHAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLD9ShcjyItQAIE54wo7Q0jwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CAJF++zowLUAC2ht8YTJVHsAAAAAAPAD8APwEAPwAAgAAAAAAAPC/Ak9AE2HDsy1AAu58PzVeGiHAAAAAABgAAAD8BAD8AAIAAAAAAADwvwICmggbnr4rQALi6ZWyDDEawAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C4XoUrkcBKkACUdobfGEyGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AmgibHh6RShAAp+rrdhfNhrAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJHA3gLJIgmQAIwuycPCzUUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CRwN4CySIJkACD5wzorQ3GMAAAAAAHAAAAPwMAPwAAgAAAAAAAPC/Am+BBMWPUSFAAlg5tMh2PhbAAAAAABgAAAD8DAD8AAIAAAAAAADwvwKsi9toAA8jQALpSC7/IT0YwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CzqrP1VbMJEAClkOLbOc7GsAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/As6qz9VWzCRAAlg5tMh2Ph7AAAAAACAAAAD8BAD8AAIAAAAAAADwvwLNzMzMzIwmQAICmggbnh4gwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C7uvAOSNKKEACqoJRSZ0gJcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmdEaW/wBSpAApOpglFJHSLAAAAAABwABAD8CAD8AAIAAAAAAADwvwLu68A5I0ooQAI6kst/SB8jwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CzczMzMyMJkACcoqO5PIfIsAAAAAAHAAAAPwEAPwAAgAAAAAAAPC/AlR0JJf/0CRAAhlz1xLyISPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJUdCSX/9AkQAIX2c73UyMlwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CwcqhRbYTI0ACTDeJQWAlJsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ap+rrdhfViFAAoMvTKYKJiXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKfq63YX1YhQAJlqmBUUicjwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CGQRWDi0SI0ACMEymCkYlIsAAAAAAARoAGAQAAAAAAAAYBAQAAAAAAAAYCAQAAAAAAAAYDAQAAAAAAAAYEAQAAAAAAAAYFAQAAAAAAAABGgEVBAAEAAAAACAcBAAAAAAAACQgBAAAAAAAACwkBAAAAAAAACwoCAAAAAAAADgsBAAAAAAAADQwDAAAAAAAADg0BAAAAAAAADw4CAgAAAAAAAEQPAQAAAAAAAABFAEQBAAAAAAAAAETAREEAAAAAAAAARMBEgQAAAAAAAABFAETCAwAAAAAAAEVARQEAAAAAAAAARYBFQQABAAAAAABFwEWBAAEAAAAAAEYARcEAAQAAAAAARkBGAQABAAAAAABGgEZBAAEAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00005C0000021R0143031109S00000007P01912LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEbJAAAAPwEAPwAAgAAAAAAAPC/AgHeAgmK/y5AApMYBFYObR/AAAAAACQAAAD8BAD8AAIAAAAAAADwvwLMXUvIBx0vQAKVZYhjXdwiwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8C63O1FfurL0AC7nw/NV4aIcAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AvRsVn2u1itAAu58PzVeGiHAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLD9ShcjyItQAIE54wo7Q0jwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CAJF++zowLUAC2ht8YTJVHsAAAAAAPAD8APwEAPwAAgAAAAAAAPC/Ak9AE2HDsy1AAu58PzVeGiHAAAAAABgAAAD8BAD8AAIAAAAAAADwvwICmggbnr4rQALi6ZWyDDEawAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C4XoUrkcBKkACUdobfGEyGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AmgibHh6RShAAp+rrdhfNhrAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJHA3gLJIgmQAIwuycPCzUUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CRwN4CySIJkACD5wzorQ3GMAAAAAAHAAAAPwMAPwAAgAAAAAAAPC/Am+BBMWPUSFAAlg5tMh2PhbAAAAAABgAAAD8DAD8AAIAAAAAAADwvwKsi9toAA8jQALpSC7/IT0YwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CzqrP1VbMJEAClkOLbOc7GsAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/As6qz9VWzCRAAlg5tMh2Ph7AAAAAACAAAAD8BAD8AAIAAAAAAADwvwLNzMzMzIwmQAICmggbnh4gwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C7uvAOSNKKEACqoJRSZ0gJcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmdEaW/wBSpAApOpglFJHSLAAAAAABwABAD8CAD8AAIAAAAAAADwvwLu68A5I0ooQAI6kst/SB8jwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CzczMzMyMJkACcoqO5PIfIsAAAAAAHAAAAPwEAPwAAgAAAAAAAPC/AlR0JJf/0CRAAhlz1xLyISPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJUdCSX/9AkQAIX2c73UyMlwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CwcqhRbYTI0ACTDeJQWAlJsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ap+rrdhfViFAAoMvTKYKJiXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKfq63YX1YhQAJlqmBUUicjwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CGQRWDi0SI0ACMEymCkYlIsAAAAAAARoAGAQAAAAAAAAYBAQAAAAAAAAYCAQAAAAAAAAYDAQAAAAAAAAYEAQAAAAAAAAYFAQAAAAAAAABGgEVBAAEAAAAACAcBAAAAAAAACQgBAAAAAAAACwkBAAAAAAAACwoCAAAAAAAADgsBAAAAAAAADQwDAAAAAAAADg0BAAAAAAAADw4CAgAAAAAAAEQPAQAAAAAAAABFAEQBAAAAAAAAAETAREEAAAAAAAAARMBEgQAAAAAAAABFAETCAwAAAAAAAEVARQEAAAAAAAAARYBFQQABAAAAAABFwEWBAAEAAAAAAEYARcEAAQAAAAAARkBGAQABAAAAAABGgEZBAAEAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -304,7 +306,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00007C0000021R0316611515S00000005P01492LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEVJAAAAPwEAPwAAgAAAAAAAPC/ArkehetRmChAAtKRXP5Duh7AAAAAACQAAAD8BAD8AAIAAAAAAADwvwIZBFYOLRIsQAIFVg4tsp0ewAAAAAAkAAAA/AQA/AACAAAAAAAA8L8C5tAi2/leKkACDy2yne+nGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AubQItv5XipAAjMzMzMzUyDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwI7cM6I0p4oQAKIhVrTvKMawAAAAAA8APwA/AQA/AACAAAAAAAA8L8C5tAi2/leKkACqOhILv+hHMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AuM2GsBbICxAAnE9CtejsBrAAAAAAAERAAAA/AQA/AACAAAAAAAA8L8CUWuad5yCI0ACgLdAguLnIcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvLSTWIQ+CZAApayDHGsyxvAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKXIY51cXsjQAKsPldbsb8bwAAAAAAcAAQA/AgA/AACAAAAAAAA8L8Cy6FFtvM9JUACHeviNhrAHcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvLSTWIQ+CZAAs+I0t7g6yPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJQHhZqTbMoQAIwTKYKRuUgwAAAAAAcAAAA/AQA/AACAAAAAAAA8L8C8tJNYhD4JkACgLdAguLnIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsuhRbbzPSVAAjBMpgpG5SDAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLJdr6fGg8vQAJGJXUCmmgjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CmN2Th4XaLUACmG4Sg8CKIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aqrx0k1iUC5AAhb7y+7JIyHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLo+6nx0s0vQAIW+8vuySMhwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/Yf029chMEACmG4Sg8CKIsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvVKWYY4RjBAArWmeccpuh/AAAAAAAETFAAEAAAAAAAAFAQEAAAAAAAAFAgEAAAAAAAAFAwEAAAAAAAAFBAEAAAAAAAAFBgEAAAAAAAAOBwEAAAAAAAAKCAEAAAAAAAAKCQEAAAAAAAAOCgIDAAAAAAANCwEAAAAAAAANDAEAAAAAAAAODQEAAAAAAAAARM8CAgEBAAAAAESARMEAAQEAAAAAREBEgQABAQAAAA8ARAEAAQEAAAAARABEQgIBAQAAAABEgEUBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00007C0000021R0143031109S00000005P01492LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEVJAAAAPwEAPwAAgAAAAAAAPC/ArkehetRmChAAtKRXP5Duh7AAAAAACQAAAD8BAD8AAIAAAAAAADwvwIZBFYOLRIsQAIFVg4tsp0ewAAAAAAkAAAA/AQA/AACAAAAAAAA8L8C5tAi2/leKkACDy2yne+nGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AubQItv5XipAAjMzMzMzUyDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwI7cM6I0p4oQAKIhVrTvKMawAAAAAA8APwA/AQA/AACAAAAAAAA8L8C5tAi2/leKkACqOhILv+hHMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AuM2GsBbICxAAnE9CtejsBrAAAAAAAERAAAA/AQA/AACAAAAAAAA8L8CUWuad5yCI0ACgLdAguLnIcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvLSTWIQ+CZAApayDHGsyxvAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKXIY51cXsjQAKsPldbsb8bwAAAAAAcAAQA/AgA/AACAAAAAAAA8L8Cy6FFtvM9JUACHeviNhrAHcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvLSTWIQ+CZAAs+I0t7g6yPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJQHhZqTbMoQAIwTKYKRuUgwAAAAAAcAAAA/AQA/AACAAAAAAAA8L8C8tJNYhD4JkACgLdAguLnIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsuhRbbzPSVAAjBMpgpG5SDAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLJdr6fGg8vQAJGJXUCmmgjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CmN2Th4XaLUACmG4Sg8CKIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aqrx0k1iUC5AAhb7y+7JIyHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLo+6nx0s0vQAIW+8vuySMhwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/Yf029chMEACmG4Sg8CKIsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvVKWYY4RjBAArWmeccpuh/AAAAAAAETFAAEAAAAAAAAFAQEAAAAAAAAFAgEAAAAAAAAFAwEAAAAAAAAFBAEAAAAAAAAFBgEAAAAAAAAOBwEAAAAAAAAKCAEAAAAAAAAKCQEAAAAAAAAOCgIDAAAAAAANCwEAAAAAAAANDAEAAAAAAAAODQEAAAAAAAAARM8CAgEBAAAAAESARMEAAQEAAAAAREBEgQABAQAAAA8ARAEAAQEAAAAARABEQgIBAQAAAABEgEUBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -317,7 +319,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00003C0000022R0316611515S00000011P01364LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgETGAAAAPwEAPwAAgAAAAAAAPC/AkcDeAskSCRAAs4ZUdobvBzAAAAAADwAAAD8BAD8AAIAAAAAAADwvwIwTKYKRgUmQAKZu5aQD7oawAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMEymCkYFJkAC2T15WKi1FsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AlFrmnecwidAAuoENBE2vBzAAAAAADwAAAD8BAD8AAIAAAAAAADwvwLkFB3J5X8pQAKZu5aQD7oawAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CBTQRNjw9K0AC6gQ0ETa8HMAAAAAAPAAAAPwEAPwAAgAAAAAAAPC/AiZTBaOS+ixAApm7lpAPuhrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJHcvkP6bcuQALqBDQRNrwcwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CR3L5D+m3LkAC4zYawFtgIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Au0NvjCZOjBAAozbaABvYSHAAAAAACAAAAD8CAD8AAIAAAAAAADwvwImUwWjkvosQALZPXlYqLUWwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CR3L5D+m3LkACK4cW2c63GMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AuQUHcnlfylAAtk9eViotRbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLkFB3J5X8pQAJYObTIdr4ewAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CBTQRNjw9K0AC4zYawFtgIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgU0ETY8PStAAsP1KFyPYiLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwIOLbKd70ckQAIrhxbZzrcYwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CRwN4CyRIJEACx0s3iUFgIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aibkg57NiiJAAm/whclUYSHAAAAAAAESAAQEAAAAAAAABAgIAAAAAAAABAwEAAAAAAAADBAEAAAAAAAAEBQEAAAAAAAAFBgEAAAAAAAAGBwEAAAAAAAAHCAEAAAAAAAAICQEAAAAAAAAGCgIAAAAAAAAGCwEAAAAAAAAEDAIAAAAAAAAEDQEAAAAAAAANDgEAAAAAAAAODwEAAAAAAAABAEQBAAAAAAAAAABEQQAAAAAAAABEQESBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00003C0000022R0143031109S00000011P01364LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgETGAAAAPwEAPwAAgAAAAAAAPC/AkcDeAskSCRAAs4ZUdobvBzAAAAAADwAAAD8BAD8AAIAAAAAAADwvwIwTKYKRgUmQAKZu5aQD7oawAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMEymCkYFJkAC2T15WKi1FsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AlFrmnecwidAAuoENBE2vBzAAAAAADwAAAD8BAD8AAIAAAAAAADwvwLkFB3J5X8pQAKZu5aQD7oawAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CBTQRNjw9K0AC6gQ0ETa8HMAAAAAAPAAAAPwEAPwAAgAAAAAAAPC/AiZTBaOS+ixAApm7lpAPuhrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJHcvkP6bcuQALqBDQRNrwcwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CR3L5D+m3LkAC4zYawFtgIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Au0NvjCZOjBAAozbaABvYSHAAAAAACAAAAD8CAD8AAIAAAAAAADwvwImUwWjkvosQALZPXlYqLUWwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CR3L5D+m3LkACK4cW2c63GMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AuQUHcnlfylAAtk9eViotRbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLkFB3J5X8pQAJYObTIdr4ewAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CBTQRNjw9K0AC4zYawFtgIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgU0ETY8PStAAsP1KFyPYiLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwIOLbKd70ckQAIrhxbZzrcYwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CRwN4CyRIJEACx0s3iUFgIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aibkg57NiiJAAm/whclUYSHAAAAAAAESAAQEAAAAAAAABAgIAAAAAAAABAwEAAAAAAAADBAEAAAAAAAAEBQEAAAAAAAAFBgEAAAAAAAAGBwEAAAAAAAAHCAEAAAAAAAAICQEAAAAAAAAGCgIAAAAAAAAGCwEAAAAAAAAEDAIAAAAAAAAEDQEAAAAAAAANDgEAAAAAAAAODwEAAAAAAAABAEQBAAAAAAAAAABEQQAAAAAAAABEQESBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -330,7 +332,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00005C0000022R0316611515S00000015P01544LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEVGAAAAPwEAPwAAgAAAAAAAPC/AlJJnYAmwh1AAqyL22gA7x/AAAAAACAAAAD8BAD8AAIAAAAAAADwvwJSSZ2AJsIdQAILJCh+jPkhwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cke18PzWeIEACmN2Th4X6IsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ano2qz5XWyJAAgskKH6M+SHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ6Nqs+V1siQAKsi9toAO8fwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cke18PzWeIEACkxgEVg7tHcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AptVn6utGCRAAltCPujZ7B3AAAAAACAAAAD8CAD8AAIAAAAAAADwvwKbVZ+rrRgkQAJ/2T15WOgZwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CvHSTGATWJUACrIvbaADvH8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ak8eFmpNkydAAltCPujZ7B3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8dJMYBNYlQAJE+u3rwPkhwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CyjLEsS6OLEACuK8D54wIIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArN78rBQSy5AAjsBTYQNDx7AAAAAABwAAAD8CAD8AAIAAAAAAADwvwLKMsSxLo4sQAKYbhKDwAoiwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cs3vysFBLLkACe4MvTKYKGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AmpN845TBDBAAtSa5h2nCCDAAAAAABgAAAD8BAD8AAIAAAAAAADwvwL7XG3F/uIwQAI7AU2EDQ8ewAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Ci2zn+6nBMUAC1JrmHacIIMAAAAAAGAAAAPwMAPwAAgAAAAAAAPC/AqkT0ETY0CpAAgIrhxbZDh7AAAAAABwAAAD8DAD8AAIAAAAAAADwvwKI9NvXgRMpQAKx4emVsgwcwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CqRPQRNjQKkACzojS3uALI8AAAAAAARQQFAQABAAAAAAMEAQABAAAAAAIDAQABAAAAAAECAQABAAAAAAABAQABAAAAAAAFAQABAAAAAAQGAQAAAAAAAAYHAgAAAAAAAAYIAQAAAAAAAAgJAQAAAAAAAAgKAQAAAAAAAAsMAQAAAAAAAAsNAgMAAAAAAAwOAgAAAAAAAAwPAQAAAAAAAA8ARAEAAAAAAAAARABEQQAAAAAAAABEgETDAAAAAAAACwBEgQAAAAAAAA0ARQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIAR/R0dPT09PT+vYCQ072AvYS9hPx8dPR9hL68fjx8frxAAAAAAAAAA==</t>
+          <t>Insight iXlW00005C0000022R0143031109S00000015P01544LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEVGAAAAPwEAPwAAgAAAAAAAPC/AlJJnYAmwh1AAqyL22gA7x/AAAAAACAAAAD8BAD8AAIAAAAAAADwvwJSSZ2AJsIdQAILJCh+jPkhwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cke18PzWeIEACmN2Th4X6IsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ano2qz5XWyJAAgskKH6M+SHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ6Nqs+V1siQAKsi9toAO8fwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cke18PzWeIEACkxgEVg7tHcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AptVn6utGCRAAltCPujZ7B3AAAAAACAAAAD8CAD8AAIAAAAAAADwvwKbVZ+rrRgkQAJ/2T15WOgZwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CvHSTGATWJUACrIvbaADvH8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ak8eFmpNkydAAltCPujZ7B3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8dJMYBNYlQAJE+u3rwPkhwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CyjLEsS6OLEACuK8D54wIIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArN78rBQSy5AAjsBTYQNDx7AAAAAABwAAAD8CAD8AAIAAAAAAADwvwLKMsSxLo4sQAKYbhKDwAoiwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cs3vysFBLLkACe4MvTKYKGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AmpN845TBDBAAtSa5h2nCCDAAAAAABgAAAD8BAD8AAIAAAAAAADwvwL7XG3F/uIwQAI7AU2EDQ8ewAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Ci2zn+6nBMUAC1JrmHacIIMAAAAAAGAAAAPwMAPwAAgAAAAAAAPC/AqkT0ETY0CpAAgIrhxbZDh7AAAAAABwAAAD8DAD8AAIAAAAAAADwvwKI9NvXgRMpQAKx4emVsgwcwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CqRPQRNjQKkACzojS3uALI8AAAAAAARQQFAQABAAAAAAMEAQABAAAAAAIDAQABAAAAAAECAQABAAAAAAABAQABAAAAAAAFAQABAAAAAAQGAQAAAAAAAAYHAgAAAAAAAAYIAQAAAAAAAAgJAQAAAAAAAAgKAQAAAAAAAAsMAQAAAAAAAAsNAgMAAAAAAAwOAgAAAAAAAAwPAQAAAAAAAA8ARAEAAAAAAAAARABEQQAAAAAAAABEgETDAAAAAAAACwBEgQAAAAAAAA0ARQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIAR/R0dPT09PT+vYCQ072AvYS9hPx8dPR9hL68fjx8frxAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -343,7 +345,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00007C0000022R0316611515S00000017P01084LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjwcAAAA/AgA/AACAAAAAAAA8L8COiNKe4NPI0ACMzMzMzPzH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiJseHqlDCVAAv7UeOkm8R3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwI6I0p7g08jQAJ5WKg1zfshwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CGQRWDi2SIUACxf6ye/LwHcAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiJseHqlDCVAAj9XW7G/7BnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJEi2zn+8kmQAJsCfmgZ/MfwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C1zTvOEWHKEAC/tR46SbxHcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AkSLbOf7ySZAApZDi2zn+yHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwI6I0p7g68rQALKVMGopM4hwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CHVpkO98PKkACxm00gLegIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AspUwaikripAAuOlm8QgcB3AAAAAABwAAAD8CAD8AAIAAAAAAADwvwKq8dJNYrAsQALjpZvEIHAdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CV+wvuydPLUACxm00gLegIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aqg1zTtOsS1AAmfV52or9hnAAAAAAAERAAAA/AQA/AACAAAAAAAA8L8CAd4CCYo/LUACKA8Ltaa5IsAAAAAANAAEBAAAAAAAAAAIBAAAAAAAAAAMBAAAAAAAAAQQCAAAAAAAAAQUBAAAAAAAABQYBAAAAAAAABQcBAAAAAAAADAgCAgEBAAAACwwBAAEBAAAACgsBAAEBAAAACAkBAAEBAAAACQoCAgEBAAAACw0BAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00007C0000022R0143031109S00000017P01084LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjwcAAAA/AgA/AACAAAAAAAA8L8COiNKe4NPI0ACMzMzMzPzH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiJseHqlDCVAAv7UeOkm8R3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwI6I0p7g08jQAJ5WKg1zfshwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CGQRWDi2SIUACxf6ye/LwHcAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiJseHqlDCVAAj9XW7G/7BnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJEi2zn+8kmQAJsCfmgZ/MfwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C1zTvOEWHKEAC/tR46SbxHcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AkSLbOf7ySZAApZDi2zn+yHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwI6I0p7g68rQALKVMGopM4hwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CHVpkO98PKkACxm00gLegIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AspUwaikripAAuOlm8QgcB3AAAAAABwAAAD8CAD8AAIAAAAAAADwvwKq8dJNYrAsQALjpZvEIHAdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CV+wvuydPLUACxm00gLegIMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aqg1zTtOsS1AAmfV52or9hnAAAAAAAERAAAA/AQA/AACAAAAAAAA8L8CAd4CCYo/LUACKA8Ltaa5IsAAAAAANAAEBAAAAAAAAAAIBAAAAAAAAAAMBAAAAAAAAAQQCAAAAAAAAAQUBAAAAAAAABQYBAAAAAAAABQcBAAAAAAAADAgCAgEBAAAACwwBAAEBAAAACgsBAAEBAAAACAkBAAEBAAAACQoCAgEBAAAACw0BAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -366,7 +368,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00003C0000013R0316611548S00000002P01400LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgETPAAAAPwEAPwAAgAAAAAAAPC/Ase6uI0GcCBAAgAAAAAAQCHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKZu5aQD3ohQAJmZmZmZqYgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cx7q4jQZwIEACbef7qfFyIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjzB5AAhHHuriNpiDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKIY13cRoMiQAKFfNCzWbUdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJzEIrBx6IUAC9P3UeOnmHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArAD54wojSNAApzEILBy6B7AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJpAG+BBIUiQAKNl24Sg0AhwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CWYY41sWNI0ACEoPAyqGlIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An2utmJ/eSFAAuauJeSDPiTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLSb18HznkhQAJ4CyQofgwjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CVg4tsp1vIEACZF3cRgPYJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Au7rwDkjyh5AApMYBFYODSPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKvJeSDns0eQALHKTqSyz8kwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9P3UeOmmGkACuycPC7WmIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ag3gLZCguBxAAnKKjuTyPyHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL0/dR46aYaQAJlqmBUUucewAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXCBB8WPMHkACat5xio7kHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap7vp8ZLtxxAAhTQRNjwtB3AAAAAAAEVAAQEAAAAAAAAAAgEAAAAAAAAAAwEAAAAAAAAIBgEAAQEAAAAHCAICAQEAAAAEBQEAAQEAAAAGBAICAQEAAAAFAQIDAQEAAAABBwEAAQEAAAANCwEAAQEAAAAMDQICAQEAAAAJCgEAAQEAAAALCQICAQEAAAAKAgIDAQEAAAACDAEAAQEAAAAARIBEAQABAQAAAABEQESCAgEBAAAADg8BAAEBAAAAAEQOAgIBAQAAAA8DAgMBAQAAAAMAREEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00003C0000013R0143031188S00000002P01400LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgETPAAAAPwEAPwAAgAAAAAAAPC/Ase6uI0GcCBAAgAAAAAAQCHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKZu5aQD3ohQAJmZmZmZqYgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cx7q4jQZwIEACbef7qfFyIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjzB5AAhHHuriNpiDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKIY13cRoMiQAKFfNCzWbUdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJzEIrBx6IUAC9P3UeOnmHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArAD54wojSNAApzEILBy6B7AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJpAG+BBIUiQAKNl24Sg0AhwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CWYY41sWNI0ACEoPAyqGlIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An2utmJ/eSFAAuauJeSDPiTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLSb18HznkhQAJ4CyQofgwjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CVg4tsp1vIEACZF3cRgPYJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Au7rwDkjyh5AApMYBFYODSPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKvJeSDns0eQALHKTqSyz8kwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9P3UeOmmGkACuycPC7WmIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ag3gLZCguBxAAnKKjuTyPyHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL0/dR46aYaQAJlqmBUUucewAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXCBB8WPMHkACat5xio7kHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap7vp8ZLtxxAAhTQRNjwtB3AAAAAAAEVAAQEAAAAAAAAAAgEAAAAAAAAAAwEAAAAAAAAIBgEAAQEAAAAHCAICAQEAAAAEBQEAAQEAAAAGBAICAQEAAAAFAQIDAQEAAAABBwEAAQEAAAANCwEAAQEAAAAMDQICAQEAAAAJCgEAAQEAAAALCQICAQEAAAAKAgIDAQEAAAACDAEAAQEAAAAARIBEAQABAQAAAABEQESCAgEBAAAADg8BAAEBAAAAAEQOAgIBAQAAAA8DAgMBAQAAAAMAREEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -379,7 +381,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00005C0000013R0316611548S00000010P01028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AQA/AACAAAAAAAA8L8C+n5qvHRTIUACObTIdr6fG8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aj0K16NwXSJAAi2yne+nBhjAAAAAABgAAAD8BAD8AAIAAAAAAADwvwL6fmq8dFMhQAILJCh+jDkZwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CDJOpglFJIEAC9dvXgXMGGMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AjxO0ZFcfh5AAjm0yHa+nxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI8TtGRXH4eQAILJCh+jDkZwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CfGEyVTBqHEAC9dvXgXMGGMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AqCJsOHpVRpAAgskKH6MORnAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLEsS5uo0EYQALHSzeJQaAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CxLEubqNBGEAC9dvXgXMGGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AujZrPpcLRZAAgskKH6MORnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIMAiuHFhkUQALHSzeJQaAVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CDAIrhxYZFEAC9dvXgXMGGMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmkAb4EEBRJAAtNNYhBYORnAAAAAADQIAAQAAAAAAAAIBAQAAAAAAAAMCAQAAAAAAAAUDAQAAAAAAAAUEAgAAAAAAAAYFAQAAAAAAAAcGAgMAAAAAAAkHAQAAAAAAAAkIAgAAAAAAAAoJAQAAAAAAAAwKAQAAAAAAAAwLAQAAAAAAAA0MAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00005C0000013R0143031188S00000010P01028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AQA/AACAAAAAAAA8L8C+n5qvHRTIUACObTIdr6fG8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Aj0K16NwXSJAAi2yne+nBhjAAAAAABgAAAD8BAD8AAIAAAAAAADwvwL6fmq8dFMhQAILJCh+jDkZwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CDJOpglFJIEAC9dvXgXMGGMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AjxO0ZFcfh5AAjm0yHa+nxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI8TtGRXH4eQAILJCh+jDkZwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CfGEyVTBqHEAC9dvXgXMGGMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AqCJsOHpVRpAAgskKH6MORnAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLEsS5uo0EYQALHSzeJQaAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CxLEubqNBGEAC9dvXgXMGGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AujZrPpcLRZAAgskKH6MORnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIMAiuHFhkUQALHSzeJQaAVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CDAIrhxYZFEAC9dvXgXMGGMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AmkAb4EEBRJAAtNNYhBYORnAAAAAADQIAAQAAAAAAAAIBAQAAAAAAAAMCAQAAAAAAAAUDAQAAAAAAAAUEAgAAAAAAAAYFAQAAAAAAAAcGAgMAAAAAAAkHAQAAAAAAAAkIAgAAAAAAAAoJAQAAAAAAAAwKAQAAAAAAAAwLAQAAAAAAAA0MAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -392,7 +394,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00003C0000014R0316611548S00000012P01468LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUPAAAAPwEAPwAAgAAAAAAAPC/AqMjufyHlCJAAs07TtGRXBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwICmggbnp4jQAIAb4EExY8YwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+76IUACcT0K16NwGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtEi2/l+iiFAApoIG55eKRbAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI8vVKWIS4jQAIqOpLLf0gVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1JrmHaeoJEACzTtO0ZFcF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwsiVAAgBvgQTFjxjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsLIlQAJn1edqK/YawAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1JrmHaeoJEACmggbnl4pHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgKaCBueniNAAmfV52or9hrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKjI7n8h5QiQAIUP8bctYQbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+76IUAC1CtlGeKYHcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtZW7C+7xyBAAtQrZRnimB3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwI8vVKWIS4gQAIUP8bctYQbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1lbsL7vHIEACcT0K16NwGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Av8h/fZ1gCBAAs07TtGRXBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJbQj7o2eweQAKaCBueXikWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CW0I+6NnsHkACNKK0N/jCE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Av8h/fZ1gCBAAgBvgQTFjxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLRItv5foohQAI0orQ3+MITwAAAAAABFgAEBAAAAAAAAAAIBAAAAAAAAAAMBAAAAAAAAAAQCAAAAAAAABgUBAAEBAAAABwYCAgEBAAAACAcBAAEBAAAACQgCAgEBAAAABQECAwEBAAAAAQkBAAEBAAAACwoBAAEBAAAADAsCAgEBAAAADQwBAAEBAAAADg0CAgEBAAAACgICAwEBAAAAAg4BAAEBAAAAAEQPAQABAQAAAABEQEQCAgEBAAAAAESAREEAAQEAAAAARMBEggIBAQAAAA8DAgMBAQAAAAMARMEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00003C0000014R0143031188S00000012P01468LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUPAAAAPwEAPwAAgAAAAAAAPC/AqMjufyHlCJAAs07TtGRXBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwICmggbnp4jQAIAb4EExY8YwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+76IUACcT0K16NwGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtEi2/l+iiFAApoIG55eKRbAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI8vVKWIS4jQAIqOpLLf0gVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1JrmHaeoJEACzTtO0ZFcF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwsiVAAgBvgQTFjxjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsLIlQAJn1edqK/YawAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1JrmHaeoJEACmggbnl4pHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgKaCBueniNAAmfV52or9hrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKjI7n8h5QiQAIUP8bctYQbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+76IUAC1CtlGeKYHcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtZW7C+7xyBAAtQrZRnimB3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwI8vVKWIS4gQAIUP8bctYQbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1lbsL7vHIEACcT0K16NwGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Av8h/fZ1gCBAAs07TtGRXBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJbQj7o2eweQAKaCBueXikWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CW0I+6NnsHkACNKK0N/jCE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Av8h/fZ1gCBAAgBvgQTFjxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLRItv5foohQAI0orQ3+MITwAAAAAABFgAEBAAAAAAAAAAIBAAAAAAAAAAMBAAAAAAAAAAQCAAAAAAAABgUBAAEBAAAABwYCAgEBAAAACAcBAAEBAAAACQgCAgEBAAAABQECAwEBAAAAAQkBAAEBAAAACwoBAAEBAAAADAsCAgEBAAAADQwBAAEBAAAADg0CAgEBAAAACgICAwEBAAAAAg4BAAEBAAAAAEQPAQABAQAAAABEQEQCAgEBAAAAAESAREEAAQEAAAAARMBEggIBAQAAAA8DAgMBAQAAAAMARMEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -405,7 +407,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00005C0000014R0316611548S00000017P01028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AQA/AACAAAAAAAA8L8CaQBvgQTFEkAC001iEFj5F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgwCK4cW2RRAAsdLN4lBYBTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIMAiuHFtkUQAL129eBc8YWwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C6Nms+lztFkACCyQofoz5F8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AsSxLm6jARlAAsdLN4lBYBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLEsS5uowEZQAL129eBc8YWwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CoImw4ekVG0ACCyQofoz5F8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AnxhMlUwKh1AAvXb14FzxhbAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI8TtGRXD4fQAI5tMh2vl8awAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CPE7RkVw+H0ACCyQofoz5F8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AgyTqYJRqSBAAvXb14FzxhbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwI9CtejcL0iQAItsp3vp8YWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C+n5qvHSzIUACCyQofoz5F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Avp+arx0syFAAjm0yHa+XxrAAAAAADQACAQAAAAAAAAIBAQAAAAAAAAIDAQAAAAAAAAMFAQAAAAAAAAUEAgAAAAAAAAUGAQAAAAAAAAYHAQAAAAAAAAcJAQAAAAAAAAkIAgAAAAAAAAkKAQAAAAAAAAoMAQAAAAAAAAwLAQAAAAAAAAwNAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00005C0000014R0143031188S00000017P01028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AQA/AACAAAAAAAA8L8CaQBvgQTFEkAC001iEFj5F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgwCK4cW2RRAAsdLN4lBYBTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIMAiuHFtkUQAL129eBc8YWwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C6Nms+lztFkACCyQofoz5F8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AsSxLm6jARlAAsdLN4lBYBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLEsS5uowEZQAL129eBc8YWwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CoImw4ekVG0ACCyQofoz5F8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AnxhMlUwKh1AAvXb14FzxhbAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI8TtGRXD4fQAI5tMh2vl8awAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CPE7RkVw+H0ACCyQofoz5F8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AgyTqYJRqSBAAvXb14FzxhbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwI9CtejcL0iQAItsp3vp8YWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C+n5qvHSzIUACCyQofoz5F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Avp+arx0syFAAjm0yHa+XxrAAAAAADQACAQAAAAAAAAIBAQAAAAAAAAIDAQAAAAAAAAMFAQAAAAAAAAUEAgAAAAAAAAUGAQAAAAAAAAYHAQAAAAAAAAcJAQAAAAAAAAkIAgAAAAAAAAkKAQAAAAAAAAoMAQAAAAAAAAwLAQAAAAAAAAwNAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -428,7 +430,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000020R0316611562S00000005P01460LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUGAAAAPwEAPwAAgAAAAAAAPC/AkVHcvkPiSBAAo9TdCSXfxrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJR/Bhz15IhQAKV9gZfmEwZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CRUdy+Q+JIEACaCJseHrlHMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlH8GHPXkiFAAm7F/rJ7shvAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKmLEMc68ImQAI7AU2EDU8TwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CP1dbsb/MJ0ACGXPXEvKBFMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ag0CK4cWuSVAAhlz1xLygRTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKmLEMc68ImQAIU0ETY8LQVwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8ChslUwajEJkACg1FJnYDmHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AndPHhZqzSdAAnE9CtejsBvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLNzMzMzMwnQALo+6nx0k0ZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CpixDHOvCJkAC7Z48LNQaGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkT67evAuSVAAkA1XrpJTBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK2hHzQs7klQAIZBFYOLbIbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6iYxCKycIkACkX77OnBOH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoGVQ4tspyNAAqwcWmQ7PyDAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIdWmQ7368kQAKzne+nxksfwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CHVpkO9+vJEACFGHD0yvlHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkqdgCbCpiNAAlHaG3xhshvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLqJjEIrJwiQAJoImx4euUcwAAAAAABFQwABAAAAAAAAAwEBAAAAAAAAAwIBAAAAAAAAAETDAQAAAAAAAAcEAQAAAAAAAAcFAQAAAAAAAAcGAQAAAAAAAAsHAQAAAAAAAA0IAQABAQAAAAgJAgIBAQAAAAkKAQABAQAAAAoLAgMBAQAAAAsMAQABAQAAAAwNAgIBAQAAAABETQEAAAAAAAAARM4BAAEBAAAADg8CAgEBAAAADwBEAQABAQAAAABEAERCAwEBAAAAAERARIEAAQEAAAAARIBEwgMBAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00006C0000020R0143031218S00000005P01460LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUGAAAAPwEAPwAAgAAAAAAAPC/AkVHcvkPiSBAAo9TdCSXfxrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJR/Bhz15IhQAKV9gZfmEwZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CRUdy+Q+JIEACaCJseHrlHMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlH8GHPXkiFAAm7F/rJ7shvAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKmLEMc68ImQAI7AU2EDU8TwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CP1dbsb/MJ0ACGXPXEvKBFMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ag0CK4cWuSVAAhlz1xLygRTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKmLEMc68ImQAIU0ETY8LQVwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8ChslUwajEJkACg1FJnYDmHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AndPHhZqzSdAAnE9CtejsBvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLNzMzMzMwnQALo+6nx0k0ZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CpixDHOvCJkAC7Z48LNQaGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkT67evAuSVAAkA1XrpJTBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK2hHzQs7klQAIZBFYOLbIbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6iYxCKycIkACkX77OnBOH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoGVQ4tspyNAAqwcWmQ7PyDAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIdWmQ7368kQAKzne+nxksfwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CHVpkO9+vJEACFGHD0yvlHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkqdgCbCpiNAAlHaG3xhshvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLqJjEIrJwiQAJoImx4euUcwAAAAAABFQwABAAAAAAAAAwEBAAAAAAAAAwIBAAAAAAAAAETDAQAAAAAAAAcEAQAAAAAAAAcFAQAAAAAAAAcGAQAAAAAAAAsHAQAAAAAAAA0IAQABAQAAAAgJAgIBAQAAAAkKAQABAQAAAAoLAgMBAQAAAAsMAQABAQAAAAwNAgIBAQAAAABETQEAAAAAAAAARM4BAAEBAAAADg8CAgEBAAAADwBEAQABAQAAAABEAERCAwEBAAAAAERARIEAAQEAAAAARIBEwgMBAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -441,7 +443,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00007C0000020R0316611562S00000006P01460LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUJAAAAPwEAPwAAgAAAAAAAPC/AuxRuB6FqyRAAnsUrkfhOhrAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLsUbgehaskQAJU46WbxKAcwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CUyegibChI0ACnaIjufwHGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlMnoImwoSNAAnZxGw3gbRvAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJz+Q/pt48hQAJ4nKIjuRwgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CY3/ZPXmYIkAC3iQGgZUDH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akhy+Q/plyJAAlTjpZvEoBzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKSXP5D+o0hQAJahjjWxW0bwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cv58aL92EIEACrBxaZDufHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqK0N/jChCBAAobrUbgeBR/AAAAAACQAAAD8BAD8AAIAAAAAAADwvwJj7lpCPqgWQAJsmnecooMiwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8ClkOLbOe7GEAC6Ugu/yEdI8AAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AmPuWkI+qBZAAv+ye/KwUCHAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKWQ4ts57sYQAJ8YTJVMOohwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CrK3YX3bPGkAC/7J78rBQIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Avd14JwR5RxAAmMQWDm06CHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwISFD/G3PUeQAKQwvUoXE8hwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CEhQ/xtz1HkACQKTfvg4cIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoiFWtO84xxAAr7BFyZTBR/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKsrdhfds8aQALrBDQRNhwgwAAAAAABFQwABAAAAAAAAAwEBAAAAAAAAAwIBAAAAAAAABgMBAAAAAAAACQQBAAEBAAAABAUCAgEBAAAABQYBAAEBAAAABgcCAwEBAAAABwgBAAEBAAAACAkCAgEBAAAAAERJAQAAAAAAAA0KAQAAAAAAAA0LAQAAAAAAAA0MAQAAAAAAAA4NAQAAAAAAAABEzgEAAQEAAAAODwIDAQEAAAAPAEQBAAEBAAAAAEQAREIDAQEAAAAAREBEgQABAQAAAABEgETCAgEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00007C0000020R0143031218S00000006P01460LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUJAAAAPwEAPwAAgAAAAAAAPC/AuxRuB6FqyRAAnsUrkfhOhrAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLsUbgehaskQAJU46WbxKAcwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CUyegibChI0ACnaIjufwHGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AlMnoImwoSNAAnZxGw3gbRvAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJz+Q/pt48hQAJ4nKIjuRwgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CY3/ZPXmYIkAC3iQGgZUDH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akhy+Q/plyJAAlTjpZvEoBzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKSXP5D+o0hQAJahjjWxW0bwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cv58aL92EIEACrBxaZDufHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqK0N/jChCBAAobrUbgeBR/AAAAAACQAAAD8BAD8AAIAAAAAAADwvwJj7lpCPqgWQAJsmnecooMiwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8ClkOLbOe7GEAC6Ugu/yEdI8AAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AmPuWkI+qBZAAv+ye/KwUCHAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKWQ4ts57sYQAJ8YTJVMOohwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CrK3YX3bPGkAC/7J78rBQIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Avd14JwR5RxAAmMQWDm06CHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwISFD/G3PUeQAKQwvUoXE8hwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CEhQ/xtz1HkACQKTfvg4cIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoiFWtO84xxAAr7BFyZTBR/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKsrdhfds8aQALrBDQRNhwgwAAAAAABFQwABAAAAAAAAAwEBAAAAAAAAAwIBAAAAAAAABgMBAAAAAAAACQQBAAEBAAAABAUCAgEBAAAABQYBAAEBAAAABgcCAwEBAAAABwgBAAEBAAAACAkCAgEBAAAAAERJAQAAAAAAAA0KAQAAAAAAAA0LAQAAAAAAAA0MAQAAAAAAAA4NAQAAAAAAAABEzgEAAQEAAAAODwIDAQEAAAAPAEQBAAEBAAAAAEQAREIDAQEAAAAAREBEgQABAQAAAABEgETCAgEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -464,7 +466,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000026R0316611563S00000009P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMEEACBoGVQ4tsEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hRAArK/7J48bBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL/If32deASQALfcYqO5HIOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyFEACUfwYc9fSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBBAAi/dJAaB1RLAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuESQAL2l92ThwUUwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GF0ACL26jAbwFFMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Au9aQj7oGRlAAlH8GHPX0hLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYXQAIIPZtVn2sWwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00004C0000026R0143031219S00000009P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMEEACBoGVQ4tsEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hRAArK/7J48bBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL/If32deASQALfcYqO5HIOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyFEACUfwYc9fSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBBAAi/dJAaB1RLAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuESQAL2l92ThwUUwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GF0ACL26jAbwFFMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Au9aQj7oGRlAAlH8GHPX0hLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYXQAIIPZtVn2sWwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -477,7 +479,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00005C0000026R0316611563S00000010P00648LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiAgAAAA/AQA/AACAAAAAAAA8L8Cr7Zif9n9H0ACMEymCkZlGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Aio6kst/iCBAAvyp8dJNYhbAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJ0RpT2Bl8fQAL5wmSqYBQYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CINJvXwcOHUACoWez6nN1F8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/Ao4G8BZIUBxAAunZrPpcLRXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ8YTJVMOoZQALp2az6XC0VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6pWyDHEsGUACoWez6nN1F8AAAAAAARAAAAD8BAD8AAIAAAAAAADwvwJ3vp8aLx0bQALKw0Ktad4YwAAAAAAgCAAEAAAAAAAACAQEAAAAAAAADAgEAAAAAAAADBwEAAQEAAAAEAwIDAQEAAAAFBAEAAQEAAAAGBQICAQEAAAAHBgEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00005C0000026R0143031219S00000010P00648LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiAgAAAA/AQA/AACAAAAAAAA8L8Cr7Zif9n9H0ACMEymCkZlGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Aio6kst/iCBAAvyp8dJNYhbAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJ0RpT2Bl8fQAL5wmSqYBQYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CINJvXwcOHUACoWez6nN1F8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/Ao4G8BZIUBxAAunZrPpcLRXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ8YTJVMOoZQALp2az6XC0VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6pWyDHEsGUACoWez6nN1F8AAAAAAARAAAAD8BAD8AAIAAAAAAADwvwJ3vp8aLx0bQALKw0Ktad4YwAAAAAAgCAAEAAAAAAAACAQEAAAAAAAADAgEAAAAAAAADBwEAAQEAAAAEAwIDAQEAAAAFBAEAAQEAAAAGBQICAQEAAAAHBgEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -490,7 +492,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000026R0316611563S00000013P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8Csr/snjysGUACDQIrhxZZD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWj0h1AAmN/2T15WA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaMAbQALfcYqO5PIMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaPSHUACUfwYc9cSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArK/7J48rBlAAi/dJAaBFRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLhnBGlvcEbQAL2l92Th0UTwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CS3uDL0zmH0ACL26jAbxFE8AAAAAAJAAAAPwEAPwAAgAAAAAAAPC/Akt7gy9M5h9AAm7F/rJ78gzAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLhnBGlvcEbQAKze/KwUKsVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8Cf2q8dJOYF0ACF0hQ/BjzDMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArByaJHt/CBAAlH8GHPXEhLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwJLe4MvTOYfQAIIPZtVn6sVwAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAABBwEAAAAAAAAFCAEAAAAAAAAACQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000026R0143031219S00000013P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8Csr/snjysGUACDQIrhxZZD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWj0h1AAmN/2T15WA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaMAbQALfcYqO5PIMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaPSHUACUfwYc9cSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArK/7J48rBlAAi/dJAaBFRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLhnBGlvcEbQAL2l92Th0UTwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CS3uDL0zmH0ACL26jAbxFE8AAAAAAJAAAAPwEAPwAAgAAAAAAAPC/Akt7gy9M5h9AAm7F/rJ78gzAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLhnBGlvcEbQAKze/KwUKsVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8Cf2q8dJOYF0ACF0hQ/BjzDMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArByaJHt/CBAAlH8GHPXEhLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwJLe4MvTOYfQAIIPZtVn6sVwAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAABBwEAAAAAAAAFCAEAAAAAAAAACQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -503,7 +505,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00007C0000026R0316611563S00000014P01120LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMF0ACBoGVQ4tsFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8htAArK/7J48bBbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAZQALvOEVHcjkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyG0ACUfwYc9fSGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBdAAi/dJAaB1RjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEZQAL3l92ThwUawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GHkACL26jAbwFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0DCBAAlH8GHPX0hjAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAIIPZtVn2scwAAAAAABEQAAAPwEAPwAAgAAAAAAAPC/Am8Sg8DK4RlAArN78rBQaxzAAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAK3Yn/ZPTkVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CpHA9CtfjH0AChQ1Pr5QlFMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AubQItv5Ph9AAru4jQbwVhfAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLek4eFWtMcQAKh+DHmriUTwAAAAAA4FAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAFCQEAAAAAAAAKDQEAAAAAAAAKDAEAAAAAAAAKCwEAAAAAAAABCgEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIATnR0dPT09PT+vYDQ0Yz9gT2CvYL9gz2DfHx09H2Dfrx+dH2DfSTqYJRSZ3gv/TnHafoSC7Tv/Xx+vEAAAAAAAAA</t>
+          <t>Insight iXlW00007C0000026R0143031219S00000014P01120LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMF0ACBoGVQ4tsFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8htAArK/7J48bBbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAZQALvOEVHcjkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyG0ACUfwYc9fSGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBdAAi/dJAaB1RjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEZQAL3l92ThwUawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GHkACL26jAbwFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0DCBAAlH8GHPX0hjAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAIIPZtVn2scwAAAAAABEQAAAPwEAPwAAgAAAAAAAPC/Am8Sg8DK4RlAArN78rBQaxzAAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAK3Yn/ZPTkVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CpHA9CtfjH0AChQ1Pr5QlFMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AubQItv5Ph9AAru4jQbwVhfAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLek4eFWtMcQAKh+DHmriUTwAAAAAA4FAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAFCQEAAAAAAAAKDQEAAAAAAAAKDAEAAAAAAAAKCwEAAAAAAAABCgEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIATnR0dPT09PT+vYDQ0Yz9gT2CvYL9gz2DfHx09H2Dfrx+dH2DfSTqYJRSZ3gv/TnHafoSC7Tv/Xx+vEAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -516,7 +518,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000028R0316611563S00000011P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMHEACBoGVQ4ssF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtNNYhBYeSBAArK/7J48LBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAeQALwOEVHcvkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C001iEFh5IEACUfwYc9eSGcAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBxAAi/dJAaBlRnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEeQAL3l92Th8UawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8C3gIJih+DIUACL26jAbzFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0jCJAAlH8GHPXkhnAAAAAACAAAAD8BAD8AAIAAAAAAADwvwLeAgmKH4MhQAIIPZtVnysdwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00004C0000028R0143031219S00000011P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMHEACBoGVQ4ssF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtNNYhBYeSBAArK/7J48LBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAeQALwOEVHcvkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C001iEFh5IEACUfwYc9eSGcAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBxAAi/dJAaBlRnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEeQAL3l92Th8UawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8C3gIJih+DIUACL26jAbzFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0jCJAAlH8GHPXkhnAAAAAACAAAAD8BAD8AAIAAAAAAADwvwLeAgmKH4MhQAIIPZtVnysdwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -529,7 +531,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00005C0000028R0316611563S00000012P00716LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQcAAAA/AgA/AACAAAAAAAA8L8CjnVxGw1gGkACtTf4wmTqFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuVhodY0bxhAAozbaABvgRTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ4LSEf9CwZQALTTWIQWDkSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AuTG0AC001iEFg5EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhueXinLUBxAAozbaABvgRTAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJvEoPAyqEeQALjNhrAWyAVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CthX7y+4pIEAC5x2n6EhuE8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AqqCUUmdQB9AAhvAWyBBcRfAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CjnVxGw1gGkACjgbwFkhQGMAAAAAAJBAABAAEBAAAAAwQCAgEBAAAAAgMBAAEBAAAAAAEBAAEBAAAAAQICAgEBAAAABAUBAAAAAAAABQYBAAAAAAAABQcBAAAAAAAAAAgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00005C0000028R0143031219S00000012P00716LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQcAAAA/AgA/AACAAAAAAAA8L8CjnVxGw1gGkACtTf4wmTqFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuVhodY0bxhAAozbaABvgRTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ4LSEf9CwZQALTTWIQWDkSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AuTG0AC001iEFg5EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhueXinLUBxAAozbaABvgRTAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJvEoPAyqEeQALjNhrAWyAVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CthX7y+4pIEAC5x2n6EhuE8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AqqCUUmdQB9AAhvAWyBBcRfAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CjnVxGw1gGkACjgbwFkhQGMAAAAAAJBAABAAEBAAAAAwQCAgEBAAAAAgMBAAEBAAAAAAEBAAEBAAAAAQICAgEBAAAABAUBAAAAAAAABQYBAAAAAAAABQcBAAAAAAAAAAgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -542,7 +544,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000028R0316611563S00000015P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CQDVeuklMGEACBoGVQ4tsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchxAArK/7J48bBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32dWAaQALvOEVHcjkTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILByHEACUfwYc9fSFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJTBhAAi/dJAaB1RbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAymEaQAL2l92ThwUYwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD+GHkACL26jAbwFGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AgAi/fZ1YBpAAhZqTfOO0xDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwIN4C2QoDgWQAIMJCh+jDkTwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CDeAtkKA4FkACKjqSy38IGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0TCBAAlH8GHPX0hbAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUP4YeQAIIPZtVn2sawAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAACBwEAAAAAAAAACAEAAAAAAAAECQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000028R0143031219S00000015P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CQDVeuklMGEACBoGVQ4tsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchxAArK/7J48bBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32dWAaQALvOEVHcjkTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILByHEACUfwYc9fSFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJTBhAAi/dJAaB1RbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAymEaQAL2l92ThwUYwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD+GHkACL26jAbwFGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AgAi/fZ1YBpAAhZqTfOO0xDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwIN4C2QoDgWQAIMJCh+jDkTwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CDeAtkKA4FkACKjqSy38IGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0TCBAAlH8GHPX0hbAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUP4YeQAIIPZtVn2sawAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAACBwEAAAAAAAAACAEAAAAAAAAECQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -565,7 +567,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000005R0316611578S00000002P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMEEACBoGVQ4tsEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hRAArK/7J48bBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL/If32deASQALfcYqO5HIOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyFEACUfwYc9fSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBBAAi/dJAaB1RLAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuESQAL2l92ThwUUwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GF0ACL26jAbwFFMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Au9aQj7oGRlAAlH8GHPX0hLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYXQAIIPZtVn2sWwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000005R0143031265S00000002P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMEEACBoGVQ4tsEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hRAArK/7J48bBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL/If32deASQALfcYqO5HIOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyFEACUfwYc9fSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBBAAi/dJAaB1RLAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuESQAL2l92ThwUUwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GF0ACL26jAbwFFMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Au9aQj7oGRlAAlH8GHPX0hLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYXQAIIPZtVn2sWwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -578,7 +580,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000006R0316611578S00000003P00648LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiAgAAAA/AQA/AACAAAAAAAA8L8Cr7Zif9n9H0ACMEymCkZlGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Aio6kst/iCBAAvyp8dJNYhbAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJ0RpT2Bl8fQAL5wmSqYBQYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CINJvXwcOHUACoWez6nN1F8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/Ao4G8BZIUBxAAunZrPpcLRXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ8YTJVMOoZQALp2az6XC0VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6pWyDHEsGUACoWez6nN1F8AAAAAAARAAAAD8BAD8AAIAAAAAAADwvwJ3vp8aLx0bQALKw0Ktad4YwAAAAAAgCAAEAAAAAAAACAQEAAAAAAAADAgEAAAAAAAADBwEAAQEAAAAEAwIDAQEAAAAFBAEAAQEAAAAGBQICAQEAAAAHBgEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000006R0143031265S00000003P00648LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiAgAAAA/AQA/AACAAAAAAAA8L8Cr7Zif9n9H0ACMEymCkZlGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Aio6kst/iCBAAvyp8dJNYhbAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJ0RpT2Bl8fQAL5wmSqYBQYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CINJvXwcOHUACoWez6nN1F8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/Ao4G8BZIUBxAAunZrPpcLRXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ8YTJVMOoZQALp2az6XC0VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6pWyDHEsGUACoWez6nN1F8AAAAAAARAAAAD8BAD8AAIAAAAAAADwvwJ3vp8aLx0bQALKw0Ktad4YwAAAAAAgCAAEAAAAAAAACAQEAAAAAAAADAgEAAAAAAAADBwEAAQEAAAAEAwIDAQEAAAAFBAEAAQEAAAAGBQICAQEAAAAHBgEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -591,7 +593,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000007R0316611578S00000006P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8Csr/snjysGUACDQIrhxZZD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWj0h1AAmN/2T15WA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaMAbQALfcYqO5PIMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaPSHUACUfwYc9cSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArK/7J48rBlAAi/dJAaBFRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLhnBGlvcEbQAL2l92Th0UTwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CS3uDL0zmH0ACL26jAbxFE8AAAAAAJAAAAPwEAPwAAgAAAAAAAPC/Akt7gy9M5h9AAm7F/rJ78gzAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLhnBGlvcEbQAKze/KwUKsVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8Cf2q8dJOYF0ACF0hQ/BjzDMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArByaJHt/CBAAlH8GHPXEhLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwJLe4MvTOYfQAIIPZtVn6sVwAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAABBwEAAAAAAAAFCAEAAAAAAAAACQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000007R0143031265S00000006P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8Csr/snjysGUACDQIrhxZZD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWj0h1AAmN/2T15WA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaMAbQALfcYqO5PIMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaPSHUACUfwYc9cSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArK/7J48rBlAAi/dJAaBFRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLhnBGlvcEbQAL2l92Th0UTwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CS3uDL0zmH0ACL26jAbxFE8AAAAAAJAAAAPwEAPwAAgAAAAAAAPC/Akt7gy9M5h9AAm7F/rJ78gzAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLhnBGlvcEbQAKze/KwUKsVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8Cf2q8dJOYF0ACF0hQ/BjzDMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArByaJHt/CBAAlH8GHPXEhLAAAAAACAAAAD8BAD8AAIAAAAAAADwvwJLe4MvTOYfQAIIPZtVn6sVwAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAABBwEAAAAAAAAFCAEAAAAAAAAACQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -604,7 +606,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000008R0316611578S00000007P01120LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMF0ACBoGVQ4tsFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8htAArK/7J48bBbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAZQALvOEVHcjkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyG0ACUfwYc9fSGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBdAAi/dJAaB1RjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEZQAL3l92ThwUawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GHkACL26jAbwFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0DCBAAlH8GHPX0hjAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAIIPZtVn2scwAAAAAABEQAAAPwEAPwAAgAAAAAAAPC/Am8Sg8DK4RlAArN78rBQaxzAAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAK3Yn/ZPTkVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CpHA9CtfjH0AChQ1Pr5QlFMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AubQItv5Ph9AAru4jQbwVhfAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLek4eFWtMcQAKh+DHmriUTwAAAAAA4FAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAFCQEAAAAAAAAKDQEAAAAAAAAKDAEAAAAAAAAKCwEAAAAAAAABCgEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIATnR0dPT09PT+vYDQ0Yz9gT2CvYL9gz2DfHx09H2Dfrx+dH2DfSTqYJRSZ3gv/TnHafoSC7Tv/Xx+vEAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000008R0143031265S00000007P01120LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMF0ACBoGVQ4tsFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8htAArK/7J48bBbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAZQALvOEVHcjkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILDyG0ACUfwYc9fSGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBdAAi/dJAaB1RjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEZQAL3l92ThwUawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD8GHkACL26jAbwFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0DCBAAlH8GHPX0hjAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAIIPZtVn2scwAAAAAABEQAAAPwEAPwAAgAAAAAAAPC/Am8Sg8DK4RlAArN78rBQaxzAAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8BRIUPwYeQAK3Yn/ZPTkVwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CpHA9CtfjH0AChQ1Pr5QlFMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AubQItv5Ph9AAru4jQbwVhfAAAAAACQAAAD8BAD8AAIAAAAAAADwvwLek4eFWtMcQAKh+DHmriUTwAAAAAA4FAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAFCQEAAAAAAAAKDQEAAAAAAAAKDAEAAAAAAAAKCwEAAAAAAAABCgEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIATnR0dPT09PT+vYDQ0Yz9gT2CvYL9gz2DfHx09H2Dfrx+dH2DfSTqYJRSZ3gv/TnHafoSC7Tv/Xx+vEAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -617,7 +619,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000009R0316611578S00000004P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMHEACBoGVQ4ssF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtNNYhBYeSBAArK/7J48LBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAeQALwOEVHcvkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C001iEFh5IEACUfwYc9eSGcAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBxAAi/dJAaBlRnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEeQAL3l92Th8UawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8C3gIJih+DIUACL26jAbzFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0jCJAAlH8GHPXkhnAAAAAACAAAAD8BAD8AAIAAAAAAADwvwLeAgmKH4MhQAIIPZtVnysdwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000009R0143031265S00000004P00712LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CQDVeuknMHEACBoGVQ4ssF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtNNYhBYeSBAArK/7J48LBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32deAeQALwOEVHcvkVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C001iEFh5IEACUfwYc9eSGcAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJzBxAAi/dJAaBlRnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEeQAL3l92Th8UawAAAAAAUAAAA/AQA/AACAAAAAAAA8L8C3gIJih+DIUACL26jAbzFGsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0jCJAAlH8GHPXkhnAAAAAACAAAAD8BAD8AAIAAAAAAADwvwLeAgmKH4MhQAIIPZtVnysdwAAAAAAkFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAGCAEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -630,7 +632,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000010R0316611578S00000005P00716LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQcAAAA/AgA/AACAAAAAAAA8L8CjnVxGw1gGkACtTf4wmTqFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuVhodY0bxhAAozbaABvgRTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ4LSEf9CwZQALTTWIQWDkSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AuTG0AC001iEFg5EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhueXinLUBxAAozbaABvgRTAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJvEoPAyqEeQALjNhrAWyAVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CthX7y+4pIEAC5x2n6EhuE8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AqqCUUmdQB9AAhvAWyBBcRfAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CjnVxGw1gGkACjgbwFkhQGMAAAAAAJBAABAAEBAAAAAwQCAgEBAAAAAgMBAAEBAAAAAAEBAAEBAAAAAQICAgEBAAAABAUBAAAAAAAABQYBAAAAAAAABQcBAAAAAAAAAAgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00006C0000010R0143031265S00000005P00716LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQcAAAA/AgA/AACAAAAAAAA8L8CjnVxGw1gGkACtTf4wmTqFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuVhodY0bxhAAozbaABvgRTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ4LSEf9CwZQALTTWIQWDkSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AuTG0AC001iEFg5EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhueXinLUBxAAozbaABvgRTAAAAAABQAAAD8BAD8AAIAAAAAAADwvwJvEoPAyqEeQALjNhrAWyAVwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CthX7y+4pIEAC5x2n6EhuE8AAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AqqCUUmdQB9AAhvAWyBBcRfAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CjnVxGw1gGkACjgbwFkhQGMAAAAAAJBAABAAEBAAAAAwQCAgEBAAAAAgMBAAEBAAAAAAEBAAEBAAAAAQICAgEBAAAABAUBAAAAAAAABQYBAAAAAAAABQcBAAAAAAAAAAgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -643,7 +645,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000011R0316611578S00000010P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CQDVeuklMGEACBoGVQ4tsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchxAArK/7J48bBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32dWAaQALvOEVHcjkTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILByHEACUfwYc9fSFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJTBhAAi/dJAaB1RbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAymEaQAL2l92ThwUYwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD+GHkACL26jAbwFGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AgAi/fZ1YBpAAhZqTfOO0xDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwIN4C2QoDgWQAIMJCh+jDkTwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CDeAtkKA4FkACKjqSy38IGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0TCBAAlH8GHPX0hbAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUP4YeQAIIPZtVn2sawAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAACBwEAAAAAAAAACAEAAAAAAAAECQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000011R0143031265S00000010P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CQDVeuklMGEACBoGVQ4tsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchxAArK/7J48bBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32dWAaQALvOEVHcjkTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILByHEACUfwYc9fSFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJTBhAAi/dJAaB1RbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAymEaQAL2l92ThwUYwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD+GHkACL26jAbwFGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AgAi/fZ1YBpAAhZqTfOO0xDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwIN4C2QoDgWQAIMJCh+jDkTwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CDeAtkKA4FkACKjqSy38IGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0TCBAAlH8GHPX0hbAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUP4YeQAIIPZtVn2sawAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAACBwEAAAAAAAAACAEAAAAAAAAECQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -656,7 +658,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00006C0000012R0316611578S00000001P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CQDVeuklMGEACBoGVQ4tsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchxAArK/7J48bBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32dWAaQALvOEVHcjkTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILByHEACUfwYc9fSFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJTBhAAi/dJAaB1RbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAymEaQAL2l92ThwUYwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD+GHkACL26jAbwFGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AgAi/fZ1YBpAAhZqTfOO0xDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwIN4C2QoDgWQAIMJCh+jDkTwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CDeAtkKA4FkACKjqSy38IGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0TCBAAlH8GHPX0hbAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUP4YeQAIIPZtVn2sawAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAACBwEAAAAAAAAACAEAAAAAAAAECQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00006C0000012R0143031265S00000001P00908LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CQDVeuklMGEACBoGVQ4tsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchxAArK/7J48bBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIAIv32dWAaQALvOEVHcjkTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CppvEILByHEACUfwYc9fSFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkA1XrpJTBhAAi/dJAaB1RbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAymEaQAL2l92ThwUYwAAAAAAUAAAA/AQA/AACAAAAAAAA8L8CvAUSFD+GHkACL26jAbwFGMAAAAAAJAAAAPwEAPwAAgAAAAAAAPC/AgAi/fZ1YBpAAhZqTfOO0xDAAAAAACQAAAD8BAD8AAIAAAAAAADwvwIN4C2QoDgWQAIMJCh+jDkTwAAAAAAkAAAA/AQA/AACAAAAAAAA8L8CDeAtkKA4FkACKjqSy38IGMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AnctIR/0TCBAAlH8GHPX0hbAAAAAACAAAAD8BAD8AAIAAAAAAADwvwK8BRIUP4YeQAIIPZtVn2sawAAAAAAwFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAACBwEAAAAAAAAACAEAAAAAAAAECQEAAAAAAAAGCgEAAAAAAAAGCwEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -679,7 +681,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000008R0316611581S00000005P00968LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiwYAAAA/AgA/AACAAAAAAAA8L8Csb/snjzsFUACDAIrhxZZD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjEhpAAmN/2T15WA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaAAYQALecYqO5PIMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaMSGkACUPwYc9cSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487BVAAi/dJAaBFRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLgnBGlvQEYQAL2l92Th0UTwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CAAAAAAAAGEACAAAAAADAEMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEAUQAIAAAAAAMAQwAAAAAAcAAAA/AQA/AACAAAAAAAA8L8CSnuDL0wmHEACbcX+snvyDMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwJKe4MvTCYcQAL0/dR46SYIwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AmDl0CLbOR5AAmN/2T15WA/AAAAAACgUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAYHAQAAAAAAAAEIAQAAAAAAAAgJAQAAAAAAAAgKAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAACAgBKdHR09PT09P69gJSMdH2CfHx09H2CPrx+dH2CPX0MzMzMzMz47/18frxCAEz9gL2AtPT09PT+vYCUjLR9grx8dPR9gn68fnR9gn0pHA9Ctej4L/0MzMzMzMz0z/18frxAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000008R0143031283S00000005P00968LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiwYAAAA/AgA/AACAAAAAAAA8L8Csb/snjzsFUACDAIrhxZZD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjEhpAAmN/2T15WA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaAAYQALecYqO5PIMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaMSGkACUPwYc9cSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487BVAAi/dJAaBFRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLgnBGlvQEYQAL2l92Th0UTwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CAAAAAAAAGEACAAAAAADAEMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEAUQAIAAAAAAMAQwAAAAAAcAAAA/AQA/AACAAAAAAAA8L8CSnuDL0wmHEACbcX+snvyDMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwJKe4MvTCYcQAL0/dR46SYIwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AmDl0CLbOR5AAmN/2T15WA/AAAAAACgUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAYHAQAAAAAAAAEIAQAAAAAAAAgJAQAAAAAAAAgKAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAACAgBKdHR09PT09P69gJSMdH2CfHx09H2CPrx+dH2CPX0MzMzMzMz47/18frxCAEz9gL2AtPT09PT+vYCUjLR9grx8dPR9gn68fnR9gn0pHA9Ctej4L/0MzMzMzMz0z/18frxAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -692,7 +694,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000009R0316611581S00000004P01916LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEaGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTGApAAgaBlUOLLBHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsDIRQAKxv+yePCwRwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/kP67etADkAC3nGKjuTyD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwMhFAAlD8GHPXkhPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/arx0kxgKQAIv3SQGgZUTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3SQGgZVDDkAC9pfdk4fFFMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/ArwFEhQ/RhNAAm3F/rJ78g/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwLuWkI+6FkVQAKxv+yePCwRwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8C7lpCPuhZFUACio7k8h+SE8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgAAAAAAAA5AAgAAAAAAQBLAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CHOviNhpAB0ACAAAAAABAEsAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwIhsHJokW0XQAJtxf6ye/IPwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AgtGJXUCmh9AAs6I0t7gixLAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLMXUvIB30hQALOiNLe4IsSwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CqmBUUiegI0ACodY07zhFEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/At4CCYofgyBAAhpR2ht84RPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIE54wo7Y0hQALFILByaBEVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CETY8vVKWIkACH4XrUbjeE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhE2PL1SliJAAoBIv30deBHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLM7snDQo0hQAK+wRcmU0UQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3gIJih+DIEAC1QloImx4EcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjnWxW00wCNAAoMvTKYKxgvAAAAAACAAAAD8BAD8AAIAAAAAAADwvwI/NV66SewkQAJmiGNd3MYKwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cofgx5q6FJUACIbByaJHtDsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AtUJaCJsuCRAAq36XG3FPhHAAAAAACAAAAD8CAD8AAIAAAAAAADwvwK6SQwCK+ciQAKL/WX35GEIwAAAAAABGRQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAQYBAAAAAAAABgcBAAAAAAAABwgCAAAAAAAACQoBAAAAAAAABwsBAAAAAAAADQwBAAAAAAAAAESOAQAAAAAAAABFDwEAAQEAAAAPAEQCAgEBAAAAAEQAREEAAQEAAAAAREBEggMBAQAAAABEgETBAAEBAAAAAETARQICAQEAAAAARcBGAQABAAAAAABFgEXBAAEAAAAAAEVARYEAAQAAAAAARU4BAAEAAAAAAEYOAQABAAAAAABFQEZCAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAECAEx0dHT09PT0/r2AlIx0fYL8fHT0fYK+vH50fYK9KRwPQrXo+C/9DMzMzMzM9O/9fH68QAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000009R0143031283S00000004P01916LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEaGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTGApAAgaBlUOLLBHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsDIRQAKxv+yePCwRwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/kP67etADkAC3nGKjuTyD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwMhFAAlD8GHPXkhPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/arx0kxgKQAIv3SQGgZUTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3SQGgZVDDkAC9pfdk4fFFMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/ArwFEhQ/RhNAAm3F/rJ78g/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwLuWkI+6FkVQAKxv+yePCwRwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8C7lpCPuhZFUACio7k8h+SE8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgAAAAAAAA5AAgAAAAAAQBLAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CHOviNhpAB0ACAAAAAABAEsAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwIhsHJokW0XQAJtxf6ye/IPwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AgtGJXUCmh9AAs6I0t7gixLAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLMXUvIB30hQALOiNLe4IsSwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CqmBUUiegI0ACodY07zhFEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/At4CCYofgyBAAhpR2ht84RPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIE54wo7Y0hQALFILByaBEVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CETY8vVKWIkACH4XrUbjeE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhE2PL1SliJAAoBIv30deBHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLM7snDQo0hQAK+wRcmU0UQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3gIJih+DIEAC1QloImx4EcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjnWxW00wCNAAoMvTKYKxgvAAAAAACAAAAD8BAD8AAIAAAAAAADwvwI/NV66SewkQAJmiGNd3MYKwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cofgx5q6FJUACIbByaJHtDsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AtUJaCJsuCRAAq36XG3FPhHAAAAAACAAAAD8CAD8AAIAAAAAAADwvwK6SQwCK+ciQAKL/WX35GEIwAAAAAABGRQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAQYBAAAAAAAABgcBAAAAAAAABwgCAAAAAAAACQoBAAAAAAAABwsBAAAAAAAADQwBAAAAAAAAAESOAQAAAAAAAABFDwEAAQEAAAAPAEQCAgEBAAAAAEQAREEAAQEAAAAAREBEggMBAQAAAABEgETBAAEBAAAAAETARQICAQEAAAAARcBGAQABAAAAAABFgEXBAAEAAAAAAEVARYEAAQAAAAAARU4BAAEAAAAAAEYOAQABAAAAAABFQEZCAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAECAEx0dHT09PT0/r2AlIx0fYL8fHT0fYK+vH50fYK9KRwPQrXo+C/9DMzMzMzM9O/9fH68QAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -705,7 +707,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000010R0316611581S00000006P00704LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CY3/ZPXnYDkACBoGVQ4tsE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjkhNAArG/7J48bBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaIARQALvOEVHcjkSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaOSE0ACUPwYc9fSFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmN/2T152A5AAi/dJAaB1RXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLgnBGlvYERQAL2l92ThwUXwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CAAAAAACAEUACAAAAAADAFMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwJOYhBYObQLQAIAAAAAAMAUwAAAAAAcAAAA/AQA/AACAAAAAAAA8L8CSnuDL0ymFUACt2J/2T05EsAAAAAAIBQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAABgcBAAAAAAAAAQgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000010R0143031283S00000006P00704LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CY3/ZPXnYDkACBoGVQ4tsE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjkhNAArG/7J48bBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaIARQALvOEVHcjkSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaOSE0ACUPwYc9fSFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmN/2T152A5AAi/dJAaB1RXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLgnBGlvYERQAL2l92ThwUXwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CAAAAAACAEUACAAAAAADAFMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwJOYhBYObQLQAIAAAAAAMAUwAAAAAAcAAAA/AQA/AACAAAAAAAA8L8CSnuDL0ymFUACt2J/2T05EsAAAAAAIBQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAABgcBAAAAAAAAAQgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -718,7 +720,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000011R0316611581S00000007P01236LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgERGAAAAPwIAPwAAgAAAAAAAPC/AuF6FK5HQSZAAlg5tMh2PiPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIUrkfhelQoQAKu2F92Tz4jwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CQfFjzF1LJ0ACTRWMSuqkIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhSuR+F6VChAAv32deCccSTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLhehSuR0EmQAJt5/up8XIkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CeekmMQhMJ0AC0ETY8PQKJcAAAAAAHAAAAPwEAPwAAgAAAAAAAPC/Aq7YX3ZPXilAAjAqqRPQpCLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK5jQbwFmgqQAKu2F92Tz4jwAAAAAABbAAAAPwIAPwAAgAAAAAAAPC/Au2ePCzUeixAAgN4CyQoPiPAAAAAAAFsAAAA/AgA/AACAAAAAAAA8L8C4C2QoPhxK0ACTRWMSuqkIsAAAAAAAWwAAAD8CAD8AAIAAAAAAADwvwLtnjws1HosQAL+1HjpJnEkwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CuY0G8BZoKkAC+zpwzohyJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjcitAArU3+MJkCiXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLQ1VbsLzsnQAKcM6K0N7gjwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AnsUrkfhWiVAApwzorQ3uCPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIJG55eKYsrQALVeOkmMcgjwAAAAAABJwAAAPwEAPwAAgAAAAAAAPC/Agkbnl4pqy1AAtV46SYxyCPAAAAAAAEQFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAGBwEAAAAAAAAMCgEAAQEAAAALDAICAQEAAAAICQEAAQEAAAAKCAICAQEAAAAJBwIDAQEAAAAHCwEAAQEAAAANDgEAAAAAAAAPAEQBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000011R0143031283S00000007P01236LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgERGAAAAPwIAPwAAgAAAAAAAPC/AuF6FK5HQSZAAlg5tMh2PiPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIUrkfhelQoQAKu2F92Tz4jwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CQfFjzF1LJ0ACTRWMSuqkIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhSuR+F6VChAAv32deCccSTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLhehSuR0EmQAJt5/up8XIkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CeekmMQhMJ0AC0ETY8PQKJcAAAAAAHAAAAPwEAPwAAgAAAAAAAPC/Aq7YX3ZPXilAAjAqqRPQpCLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK5jQbwFmgqQAKu2F92Tz4jwAAAAAABbAAAAPwIAPwAAgAAAAAAAPC/Au2ePCzUeixAAgN4CyQoPiPAAAAAAAFsAAAA/AgA/AACAAAAAAAA8L8C4C2QoPhxK0ACTRWMSuqkIsAAAAAAAWwAAAD8CAD8AAIAAAAAAADwvwLtnjws1HosQAL+1HjpJnEkwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CuY0G8BZoKkAC+zpwzohyJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjcitAArU3+MJkCiXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLQ1VbsLzsnQAKcM6K0N7gjwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AnsUrkfhWiVAApwzorQ3uCPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIJG55eKYsrQALVeOkmMcgjwAAAAAABJwAAAPwEAPwAAgAAAAAAAPC/Agkbnl4pqy1AAtV46SYxyCPAAAAAAAEQFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAGBwEAAAAAAAAMCgEAAQEAAAALDAICAQEAAAAICQEAAQEAAAAKCAICAQEAAAAJBwIDAQEAAAAHCwEAAQEAAAANDgEAAAAAAAAPAEQBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -731,7 +733,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000012R0316611581S00000009P01288LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgERGAAAAPwIAPwAAgAAAAAAAPC/AnZxGw3gjSdAAgWjkjoBDRvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKppE5AE6EpQAKx4emVsgwbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1edqK/aXKEAC7lpCPujZGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqmkTkAToSlAAk8eFmpNcx3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ2cRsN4I0nQAJL6gQ0EXYdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CDeAtkKCYKEAC9bnaiv2lHsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArRZ9bnaqipAAtJvXwfO2RnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLWVuwvu4coQAIbDeAtkCAcwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AtbFbTSAtyZAAhsN4C2QIBzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJNhA1Pr7QrQAKx4emVsgwbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CgZVDi2zHLUACPzVeukkMG8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnQkl/+QvixAAtJvXwfO2RnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIPC7WmecctQAJR2ht8YXIdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C2/l+ary0K0ACTKYKRiV1HcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjqSy39IvyxAAr6fGi/dpB7AAAAAABgAAAD8BAD8AAIAAAAAAADwvwIAAAAAAOAsQAKOdXEbDSAcwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/Ase6uI0GsC5AAo51cRsNIBzAAAAAAAEQFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAHCAEAAAAAAAAGCQEAAAAAAAAODAEAAQEAAAANDgICAQEAAAAKCwEAAQEAAAAMCgICAQEAAAALCQIDAQEAAAAJDQEAAQEAAAAPAEQBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAECAEp0dHT09PT0/r2AlIx0fYQ8fHT0fYP+vH50fYP9B+F61G4Hu2/9fXx+vEAAAAAAAAA</t>
+          <t>Insight iXlW00004C0000012R0143031283S00000009P01288LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgERGAAAAPwIAPwAAgAAAAAAAPC/AnZxGw3gjSdAAgWjkjoBDRvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKppE5AE6EpQAKx4emVsgwbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1edqK/aXKEAC7lpCPujZGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqmkTkAToSlAAk8eFmpNcx3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ2cRsN4I0nQAJL6gQ0EXYdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CDeAtkKCYKEAC9bnaiv2lHsAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArRZ9bnaqipAAtJvXwfO2RnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLWVuwvu4coQAIbDeAtkCAcwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AtbFbTSAtyZAAhsN4C2QIBzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJNhA1Pr7QrQAKx4emVsgwbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CgZVDi2zHLUACPzVeukkMG8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnQkl/+QvixAAtJvXwfO2RnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIPC7WmecctQAJR2ht8YXIdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C2/l+ary0K0ACTKYKRiV1HcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjqSy39IvyxAAr6fGi/dpB7AAAAAABgAAAD8BAD8AAIAAAAAAADwvwIAAAAAAOAsQAKOdXEbDSAcwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/Ase6uI0GsC5AAo51cRsNIBzAAAAAAAEQFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAHCAEAAAAAAAAGCQEAAAAAAAAODAEAAQEAAAANDgICAQEAAAAKCwEAAQEAAAAMCgICAQEAAAALCQIDAQEAAAAJDQEAAQEAAAAPAEQBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAECAEp0dHT09PT0/r2AlIx0fYQ8fHT0fYP+vH50fYP9B+F61G4Hu2/9fXx+vEAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -744,7 +746,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000013R0316611581S00000008P00840LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAigYAAAA/PwA/AACAAAAAAAA8L8CQDVeuklMFEACeAskKH6MFcAAAAAAGAAAAPz8APwAAgAAAAAAAPC/AqabxCCwchhAAiRKe4MvjBXAAAAAABgAAAD8/AD8AAIAAAAAAADwvwL/If32dWAWQAJhw9MrZVkUwAAAAAAYAAAA/PwA/AACAAAAAAAA8L8CppvEILByGEACwoanV8ryF8AAAAAAGAAAAPz8APwAAgAAAAAAAPC/AkA1XrpJTBRAAr5SliGO9RfAAAAAABgAAAD8/AD8AAIAAAAAAADwvwJvEoPAymEWQAJoImx4eiUZwAAAAAAgAAAA/PwA/AACAAAAAAAA8L8CvAUSFD+GGkACRdjw9EpZFMAAAAAAAWkAAAD8/AD8AAIAAAAAAADwvwLvWkI+6JkcQAIkSnuDL4wVwAAAAAAYAAAA/PwA/AACAAAAAAAA8L8CAAAAAABAFkACjnVxGw2gFsAAAAAAAWkAAAD8/AD8AAIAAAAAAADwvwIB3gIJip8SQAKOdXEbDaAWwAAAAAAkFAwEAAAAAAAAEBQICAAAAAAABAgEAAAAAAAAABAEAAAAAAAADAQICAAAAAAACAAICAAAAAAABBgEAAAAAAAAGBwEAAAAAAAAICQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIATHR0dPT09PT+vYCUjHR9gfx8dPR9gf68fnR9gf0pHA9Ctej4L/0MzMzMzMz0z/18frxAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000013R0143031283S00000008P00840LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAigYAAAA/PwA/AACAAAAAAAA8L8CQDVeuklMFEACeAskKH6MFcAAAAAAGAAAAPz8APwAAgAAAAAAAPC/AqabxCCwchhAAiRKe4MvjBXAAAAAABgAAAD8/AD8AAIAAAAAAADwvwL/If32dWAWQAJhw9MrZVkUwAAAAAAYAAAA/PwA/AACAAAAAAAA8L8CppvEILByGEACwoanV8ryF8AAAAAAGAAAAPz8APwAAgAAAAAAAPC/AkA1XrpJTBRAAr5SliGO9RfAAAAAABgAAAD8/AD8AAIAAAAAAADwvwJvEoPAymEWQAJoImx4eiUZwAAAAAAgAAAA/PwA/AACAAAAAAAA8L8CvAUSFD+GGkACRdjw9EpZFMAAAAAAAWkAAAD8/AD8AAIAAAAAAADwvwLvWkI+6JkcQAIkSnuDL4wVwAAAAAAYAAAA/PwA/AACAAAAAAAA8L8CAAAAAABAFkACjnVxGw2gFsAAAAAAAWkAAAD8/AD8AAIAAAAAAADwvwIB3gIJip8SQAKOdXEbDaAWwAAAAAAkFAwEAAAAAAAAEBQICAAAAAAABAgEAAAAAAAAABAEAAAAAAAADAQICAAAAAAACAAICAAAAAAABBgEAAAAAAAAGBwEAAAAAAAAICQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIATHR0dPT09PT+vYCUjHR9gfx8dPR9gf68fnR9gf0pHA9Ctej4L/0MzMzMzMz0z/18frxAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -757,7 +759,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000014R0316611581S00000010P00704LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CdnEbDeCNJ0ACvJaQD3o2I8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqmkTkAToSlAAhE2PL1SNiPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLV52or9pcoQAKwcmiR7ZwiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CqaROQBOhKUACYVRSJ6BpJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnZxGw3gjSdAAl66SQwCayTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIN4C2QoJgoQAI0orQ3+AIlwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CtFn1udqqKkACIv32deCcIsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AtZW7C+7hyhAAsdLN4lBwCPAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8C1sVtNIC3JkACx0s3iUHAI8AAAAAAIBQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAQYBAAAAAAAABwgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000014R0143031283S00000010P00704LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiQYAAAA/AgA/AACAAAAAAAA8L8CdnEbDeCNJ0ACvJaQD3o2I8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqmkTkAToSlAAhE2PL1SNiPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLV52or9pcoQAKwcmiR7ZwiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CqaROQBOhKUACYVRSJ6BpJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnZxGw3gjSdAAl66SQwCayTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIN4C2QoJgoQAI0orQ3+AIlwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CtFn1udqqKkACIv32deCcIsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AtZW7C+7hyhAAsdLN4lBwCPAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8C1sVtNIC3JkACx0s3iUHAI8AAAAAAIBQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAQYBAAAAAAAABwgBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -770,7 +772,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000015R0316611581S00000011P00900LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CPZtVn6vNJ0ACejarPle7I8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap0Rpb3B1yhAAuCcEaW9ISPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEpQAJ6Nqs+V7sjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMrhKUACrWnecYruJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap0Rpb3B1yhAAkcDeAskiCXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI9m1Wfq80nQAKtad5xiu4kwAAAAAABEAAAAPwEAPwAAgAAAAAAAPC/AkATYcPT6ypAAuCcEaW9ISPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKneccpOlIqQAIPnDOitBciwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CEhQ/xtz1K0ACRwN4CySIIsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AraEfNCz2ShAAhZqTfOOUyTAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CSZ2AJsLmJkACFmpN845TJMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Atqs+lxthStAArKd76fGKyTAAAAAACwEAAgIBAQAAAAIBAQABAQAAAAMCAgIBAQAAAAQDAQABAQAAAAUEAgIBAQAAAAAFAQABAQAAAAIGAQAAAAAAAAYHAgAAAAAAAAYIAgAAAAAAAAkKAQAAAAAAAAYLAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000015R0143031283S00000011P00900LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjAYAAAA/AgA/AACAAAAAAAA8L8CPZtVn6vNJ0ACejarPle7I8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap0Rpb3B1yhAAuCcEaW9ISPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEpQAJ6Nqs+V7sjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMrhKUACrWnecYruJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap0Rpb3B1yhAAkcDeAskiCXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI9m1Wfq80nQAKtad5xiu4kwAAAAAABEAAAAPwEAPwAAgAAAAAAAPC/AkATYcPT6ypAAuCcEaW9ISPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKneccpOlIqQAIPnDOitBciwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CEhQ/xtz1K0ACRwN4CySIIsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AraEfNCz2ShAAhZqTfOOUyTAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CSZ2AJsLmJkACFmpN845TJMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Atqs+lxthStAArKd76fGKyTAAAAAACwEAAgIBAQAAAAIBAQABAQAAAAMCAgIBAQAAAAQDAQABAQAAAAUEAgIBAQAAAAAFAQABAQAAAAIGAQAAAAAAAAYHAgAAAAAAAAYIAgAAAAAAAAkKAQAAAAAAAAYLAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -783,7 +785,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000016R0316611581S00000012P00880LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiwYAAAA/AgA/AACAAAAAAAA8L8Cke18PzV+J0AC2IFzRpQWI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsUgsHJokSlAAi0hH/RsFiPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLxY8xdS4goQALMXUvIB30iwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CxSCwcmiRKUACfT81XrpJJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApHtfD81fidAAnqlLEMcSyTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIpXI/C9YgoQAJQjZduEuMkwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C0NVW7C+bKkACPujZrPp8IsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/ArmNBvAWiChAAuM2GsBboCPAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CuY0G8BaoJkAC4zYawFugI8AAAAAAGAAAAPwMAPwAAgAAAAAAAPC/AmkAb4EEpStAAi0hH/RsFiPAAAAAABwAAAD8DAD8AAIAAAAAAADwvwICK4cW2a4sQAKrz9VW7K8jwAAAAAAoFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAHCAEAAAAAAAAJCgMAAAAAAAAGCQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIAR/R0dPT09PT+vYCQ072AvYJ9grx8dPR9gn68fjx8frxAAAAAAAAAA==</t>
+          <t>Insight iXlW00004C0000016R0143031283S00000012P00880LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAiwYAAAA/AgA/AACAAAAAAAA8L8Cke18PzV+J0AC2IFzRpQWI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsUgsHJokSlAAi0hH/RsFiPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLxY8xdS4goQALMXUvIB30iwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CxSCwcmiRKUACfT81XrpJJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApHtfD81fidAAnqlLEMcSyTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIpXI/C9YgoQAJQjZduEuMkwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C0NVW7C+bKkACPujZrPp8IsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/ArmNBvAWiChAAuM2GsBboCPAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CuY0G8BaoJkAC4zYawFugI8AAAAAAGAAAAPwMAPwAAgAAAAAAAPC/AmkAb4EEpStAAi0hH/RsFiPAAAAAABwAAAD8DAD8AAIAAAAAAADwvwICK4cW2a4sQAKrz9VW7K8jwAAAAAAoFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAHCAEAAAAAAAAJCgMAAAAAAAAGCQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAQIAR/R0dPT09PT+vYCQ072AvYJ9grx8dPR9gn68fjx8frxAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -796,7 +798,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000017R0316611581S00000013P01028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8Csb/snjysE0AC8BZIUPyYD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWj0hdAAkaU9gZfmA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaMAVQALChqdXyjINwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaPSF0ACwoanV8oyEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J48rBNAAr1SliGONRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLgnBGlvcEVQAJoImx4emUTwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CSnuDL0zmGUACirDh6ZUyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmDl0CLb+RtAAkaU9gZfmA/AAAAAACAAAAD8BAD8AAIAAAAAAADwvwKTOgFNhA0eQAKKsOHplTINwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CYOXQItv5G0AC/Bhz1xIyEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuPHmLuWECBAAkaU9gZfmA/AAAAAABgAAAD8BAD8AAIAAAAAAADwvwLufD81XhohQAKKsOHplTINwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CjnVxGw2gFUACjnVxGw3gEMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEASQAKOdXEbDeAQwAAAAAA0FAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAGBwEAAAAAAAAHCAEAAAAAAAAHCQIAAAAAAAAICgEAAAAAAAAKCwEAAAAAAAAMDQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00004C0000017R0143031283S00000013P01028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8Csb/snjysE0AC8BZIUPyYD8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWj0hdAAkaU9gZfmA/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJxrIvbaMAVQALChqdXyjINwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGCZTBaPSF0ACwoanV8oyEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J48rBNAAr1SliGONRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLgnBGlvcEVQAJoImx4emUTwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CSnuDL0zmGUACirDh6ZUyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmDl0CLb+RtAAkaU9gZfmA/AAAAAACAAAAD8BAD8AAIAAAAAAADwvwKTOgFNhA0eQAKKsOHplTINwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CYOXQItv5G0AC/Bhz1xIyEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuPHmLuWECBAAkaU9gZfmA/AAAAAABgAAAD8BAD8AAIAAAAAAADwvwLufD81XhohQAKKsOHplTINwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CjnVxGw2gFUACjnVxGw3gEMAAAAAAAWkAAAD8BAD8AAIAAAAAAADwvwIAAAAAAEASQAKOdXEbDeAQwAAAAAA0FAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAABBgEAAAAAAAAGBwEAAAAAAAAHCAEAAAAAAAAHCQIAAAAAAAAICgEAAAAAAAAKCwEAAAAAAAAMDQEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -809,7 +811,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00004C0000018R0316611581S00000014P01036LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjQYAAAA/AgA/AACAAAAAAAA8L8C5BQdyeU/F0AC4L4OnDOiE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSVBlAAqyL22gAbxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJHA3gLJGgbQALgvg6cM6ITwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CRwN4CyRoG0ACRiV1ApoIFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSVBlAAnlYqDXNOxfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLkFB3J5T8XQAJGJXUCmggWwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C6gQ0ETZ8HUACrIvbaABvEsAAAAAAARAAAAD8BAD8AAIAAAAAAADwvwKOBvAWSJAfQALgvg6cM6ITwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AuCcEaW9YSBAAjy9UpYhjhHAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIZBFYOLdIgQAIT8kHPZtUUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CW9O84xRdHkACg8DKoUW2FcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ar7BFyZTBRlAAm40gLdAwhTAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CV1uxv+xeFUACbjSAt0DCFMAAAAAAMAQACAgEBAAAAAgEBAAEBAAAAAwICAgEBAAAABAMBAAEBAAAABQQCAgEBAAAAAAUBAAEBAAAAAgYBAAAAAAAABgcBAAAAAAAABwgBAAAAAAAABwkCAAAAAAAABwoCAAAAAAAACwwBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAECAEx0dHT09PT0/r2AlIx0fYI8fHT0fYI+vH50fYI9DMzMzMzM9O/9KRwPQrXo+C/9fH68QAAAAAAAAA=</t>
+          <t>Insight iXlW00004C0000018R0143031283S00000014P01036LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjQYAAAA/AgA/AACAAAAAAAA8L8C5BQdyeU/F0AC4L4OnDOiE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSVBlAAqyL22gAbxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJHA3gLJGgbQALgvg6cM6ITwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CRwN4CyRoG0ACRiV1ApoIFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSVBlAAnlYqDXNOxfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLkFB3J5T8XQAJGJXUCmggWwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C6gQ0ETZ8HUACrIvbaABvEsAAAAAAARAAAAD8BAD8AAIAAAAAAADwvwKOBvAWSJAfQALgvg6cM6ITwAAAAAABaQAAAPwEAPwAAgAAAAAAAPC/AuCcEaW9YSBAAjy9UpYhjhHAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIZBFYOLdIgQAIT8kHPZtUUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CW9O84xRdHkACg8DKoUW2FcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ar7BFyZTBRlAAm40gLdAwhTAAAAAAAFpAAAA/AQA/AACAAAAAAAA8L8CV1uxv+xeFUACbjSAt0DCFMAAAAAAMAQACAgEBAAAAAgEBAAEBAAAAAwICAgEBAAAABAMBAAEBAAAABQQCAgEBAAAAAAUBAAEBAAAAAgYBAAAAAAAABgcBAAAAAAAABwgBAAAAAAAABwkCAAAAAAAABwoCAAAAAAAACwwBAAAAAAAAAAAAQAAAAAAAAAAAAAAAAAECAEx0dHT09PT0/r2AlIx0fYI8fHT0fYI+vH50fYI9DMzMzMzM9O/9KRwPQrXo+C/9fH68QAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -832,7 +834,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000008R0316611593S00000002P01040LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8Cf2q8dJMYBkAC8BZIUPyYB8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akw3iUFgZQ5AAkaU9gZfmAfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL+Q/rt60AKQALChqdXyjIFwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CTDeJQWBlDkAChA1Pr5RlDMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTGAZAAnqlLEMcawzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLdJAaBlUMKQALQRNjw9MoOwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CvAUSFD9GEUACirDh6ZUyBcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/At0kBoGVQwpAAkHxY8xdyxHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwK8BRIUP0YRQAJB8WPMXcsOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C7lpCPuhZE0AChA1Pr5RlDMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRbRVAAkHxY8xdyw7AAAAAACAAAAD8CAD8AAIAAAAAAADwvwLuWkI+6FkTQALSb18HzpkHwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CIbByaJFtFUACescpOpLLEcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AjcawFsggRdAAoQNT6+UZQzAAAAAADgUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAEGAQAAAAAAAAUHAQAAAAAAAAMIAQAAAAAAAAgJAQAAAAAAAAkKAQAAAAAAAAkLAgAAAAAAAAoMAgAAAAAAAAoNAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000008R0143031296S00000002P01040LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAjgYAAAA/AgA/AACAAAAAAAA8L8Cf2q8dJMYBkAC8BZIUPyYB8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akw3iUFgZQ5AAkaU9gZfmAfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL+Q/rt60AKQALChqdXyjIFwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CTDeJQWBlDkAChA1Pr5RlDMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTGAZAAnqlLEMcawzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLdJAaBlUMKQALQRNjw9MoOwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CvAUSFD9GEUACirDh6ZUyBcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/At0kBoGVQwpAAkHxY8xdyxHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwK8BRIUP0YRQAJB8WPMXcsOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C7lpCPuhZE0AChA1Pr5RlDMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRbRVAAkHxY8xdyw7AAAAAACAAAAD8CAD8AAIAAAAAAADwvwLuWkI+6FkTQALSb18HzpkHwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CIbByaJFtFUACescpOpLLEcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/AjcawFsggRdAAoQNT6+UZQzAAAAAADgUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAEGAQAAAAAAAAUHAQAAAAAAAAMIAQAAAAAAAAgJAQAAAAAAAAkKAQAAAAAAAAkLAgAAAAAAAAoMAgAAAAAAAAoNAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -845,7 +847,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000009R0316611593S00000003P02136LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEeIAAAAPwEAPwAAgAAAAAAAPC/AvvL7snDQhZAAgXFjzF37RjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIqqRPQRBgUQAIWak3zjhMawAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+4aEkAC+n5qvHTTGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXQItv5/g9AAigPC7Wm+RnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLl0CLb+f4PQAJWn6ut2F8cwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CsHJoke38EUACcoqO5PKfHcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArByaJHt/BFAAlCNl24SAyDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIqqRPQRBgUQAJg5dAi23kcwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CorQ3+MIkFkACYOXQItu5HcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjnWxW00QBhAAk9AE2HDkxzAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI51sVtNEAYQAIhsHJokS0awAAAAAAYAAAA/AgA/AACAAAAAAAA8L8ClPYGX5hMGkACayv2l93THcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvvL7snDQhZAAtc07zhFhxbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLRkVz+Q/oTQALeAgmKH6MgwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C9bnaiv3lC0ACCyQofoy5GMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgFNhA1PrwdAAh3J5T+k3xnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIrGJXUCWgcQAJZhjjWxa0cwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8ClPYGX5hMGkACzF1LyAcdIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoY41sVtdB5AAnZxGw3g7R3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIOLbKd70cgQAJkzF1LyMccwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CLbKd76dGIUACgLdAguIHHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ai2yne+nRiFAAtejcD0KNyDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJiodY07zggQAJgdk8eFsogwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8ChjjWxW10HkAC0gDeAgkqIMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ag4tsp3vRyBAAhpR2ht8YRrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLfT42XbpIeQAIaUdobfCEZwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C0gDeAglKHEACW9O84xS9IMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AtIA3gIJShxAAgCRfvs68CHAAAAAACAAAAD8BAD8AAIAAAAAAADwvwJbQj7o2UwiQAJlGeJYF9cgwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CJlMFo5JaI0AC3EYDeAtEIMAAAAAAAR8ABAQAAAAAAAAECAgMBAQAAAAIDAQABAQAAAAMEAgIBAQAAAAQFAQABAQAAAAUGAQAAAAAAAAUHAgIBAQAAAAcBAQABAQAAAAcIAQAAAAAAAAgJAQAAAAAAAAkKAgAAAAAAAAkLAQAAAAAAAAAMAQAAAAAAAAYNAQAAAAAAAAMOAQAAAAAAAA4PAQAAAAAAAAsARAEAAAAAAAALAERCAAAAAAAAAEQARIEAAAAAAAAARQBEwQABAQAAAABFQEUCAgEBAAAAAEWARUEAAQEAAAAARcBFggIBAQAAAABEwESCAwEBAAAAAESARcEAAQEAAAAARMBGAQAAAAAAAABGAEZBAAAAAAAAAEXARoEAAAAAAAAARoBGwQAAAAAAAABFQEcBAAAAAAAAAEcAR0EAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000009R0143031296S00000003P02136LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEeIAAAAPwEAPwAAgAAAAAAAPC/AvvL7snDQhZAAgXFjzF37RjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIqqRPQRBgUQAIWak3zjhMawAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+4aEkAC+n5qvHTTGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXQItv5/g9AAigPC7Wm+RnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLl0CLb+f4PQAJWn6ut2F8cwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CsHJoke38EUACcoqO5PKfHcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/ArByaJHt/BFAAlCNl24SAyDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIqqRPQRBgUQAJg5dAi23kcwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CorQ3+MIkFkACYOXQItu5HcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjnWxW00QBhAAk9AE2HDkxzAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI51sVtNEAYQAIhsHJokS0awAAAAAAYAAAA/AgA/AACAAAAAAAA8L8ClPYGX5hMGkACayv2l93THcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvvL7snDQhZAAtc07zhFhxbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLRkVz+Q/oTQALeAgmKH6MgwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C9bnaiv3lC0ACCyQofoy5GMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AgFNhA1PrwdAAh3J5T+k3xnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIrGJXUCWgcQAJZhjjWxa0cwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8ClPYGX5hMGkACzF1LyAcdIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoY41sVtdB5AAnZxGw3g7R3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIOLbKd70cgQAJkzF1LyMccwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CLbKd76dGIUACgLdAguIHHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ai2yne+nRiFAAtejcD0KNyDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJiodY07zggQAJgdk8eFsogwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8ChjjWxW10HkAC0gDeAgkqIMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ag4tsp3vRyBAAhpR2ht8YRrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLfT42XbpIeQAIaUdobfCEZwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C0gDeAglKHEACW9O84xS9IMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AtIA3gIJShxAAgCRfvs68CHAAAAAACAAAAD8BAD8AAIAAAAAAADwvwJbQj7o2UwiQAJlGeJYF9cgwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CJlMFo5JaI0AC3EYDeAtEIMAAAAAAAR8ABAQAAAAAAAAECAgMBAQAAAAIDAQABAQAAAAMEAgIBAQAAAAQFAQABAQAAAAUGAQAAAAAAAAUHAgIBAQAAAAcBAQABAQAAAAcIAQAAAAAAAAgJAQAAAAAAAAkKAgAAAAAAAAkLAQAAAAAAAAAMAQAAAAAAAAYNAQAAAAAAAAMOAQAAAAAAAA4PAQAAAAAAAAsARAEAAAAAAAALAERCAAAAAAAAAEQARIEAAAAAAAAARQBEwQABAQAAAABFQEUCAgEBAAAAAEWARUEAAQEAAAAARcBFggIBAQAAAABEwESCAwEBAAAAAESARcEAAQEAAAAARMBGAQAAAAAAAABGAEZBAAAAAAAAAEXARoEAAAAAAAAARoBGwQAAAAAAAABFQEcBAAAAAAAAAEcAR0EAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -858,7 +860,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000010R0316611593S00000004P02300LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEgGAAAAPwIAPwAAgAAAAAAAPC/Ahb7y+7JAyJAAjeJQWDl0BfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJE+u3rwPkgQAIEVg4tsp0WwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CeAskKH6MF0AC/Knx0k2iEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtUJaCJseBVAApHtfD813g7AAAAAABgAAAD8BAD8AAIAAAAAAADwvwLjx5i7llARQALr4jYawNsOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CMQisHFpkE0AC/Knx0k2iEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjEIrBxaZBNAAmIQWDm0CBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKBBMWPMXcVQAJtVn2utqIWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1QloImx4FUAClkOLbOc7FMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApT2Bl+YjBdAAmIQWDm0CBPAAAAAABwAAAD8CAD8AAIAAAAAAADwvwI2PL1SlqEZQAKX/5B++zoUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8ChjjWxW20G0AC/yH99nWgEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ar1SliGOtRtAAmaIY13cBhPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJ6xyk6kssdQAIB3gIJip8WwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CX5hMFYzKHUACmnecoiM5FMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AuauJeSD3h9AAmkAb4EEBRPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJE+u3rwPkgQAKe76fGSzcUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cv30dOGcEIkACr5RliGOdEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ahb7y+7JAyJAAmq8dJMYBBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLn+6nx0g0jQAKe76fGSzcUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5/up8dINI0ACBFYOLbKdFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ag+cM6K0FyRAAoqO5PIf0hfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIHzhlR2vsgQAIK16NwPQoKwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+76IEACw2SqYFTSDsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhKlvcEXBiJAAoNRSZ2ApgfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLkg57Nqg8jQAL4wmSqYNQOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CrWnecYoOI0ACKH6MuWsJCsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvFjzF1LiBdAAnsUrkfhOhrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLu68A5I4oXQAKfzarP1dYXwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3bWEfNBzFUACW0I+6NlsG8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ajj4wmSqYBNAAoSezarP1RfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKlLEMc62ITQALswDkjSjsawAAAAAABIwABFAQABAQAAAAEAAgIBAQAAAABEAQEAAQEAAAACCQEAAQEAAAADAgICAQEAAAAFAwEAAQEAAAAFBAEAAAAAAAAGBQICAQEAAAAIBgEAAQEAAAAIBwEAAAAAAAAJCAICAQEAAAAKCQEAAAAAAAAMCgEAAAAAAAAMCwIAAAAAAAAODAEAAAAAAAAODQIAAAAAAAAPDgEAAAAAAAAARA8BAAAAAAAAAESARAIDAQEAAAAARIBEQQAAAAAAAABEwESBAAEBAAAAAEUARMICAQEAAAAARUBFAQAAAAAAAABGgEYBAAEBAAAAAEZARoICAQEAAAAARYBFwQABAQAAAABGAEWCAgEBAAAAAEXAREIDAQEAAAAAREBGQQABAQAAAABHwEdBAAEBAAAAAEeAR8ICAQEAAAAARsBHAQABAQAAAABHQEbCAgEBAAAAAEcHAgMBAQAAAAcAR4EAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000010R0143031296S00000004P02300LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEgGAAAAPwIAPwAAgAAAAAAAPC/Ahb7y+7JAyJAAjeJQWDl0BfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJE+u3rwPkgQAIEVg4tsp0WwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CeAskKH6MF0AC/Knx0k2iEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtUJaCJseBVAApHtfD813g7AAAAAABgAAAD8BAD8AAIAAAAAAADwvwLjx5i7llARQALr4jYawNsOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CMQisHFpkE0AC/Knx0k2iEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjEIrBxaZBNAAmIQWDm0CBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKBBMWPMXcVQAJtVn2utqIWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C1QloImx4FUAClkOLbOc7FMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApT2Bl+YjBdAAmIQWDm0CBPAAAAAABwAAAD8CAD8AAIAAAAAAADwvwI2PL1SlqEZQAKX/5B++zoUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8ChjjWxW20G0AC/yH99nWgEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ar1SliGOtRtAAmaIY13cBhPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJ6xyk6kssdQAIB3gIJip8WwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CX5hMFYzKHUACmnecoiM5FMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AuauJeSD3h9AAmkAb4EEBRPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJE+u3rwPkgQAKe76fGSzcUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cv30dOGcEIkACr5RliGOdEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ahb7y+7JAyJAAmq8dJMYBBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLn+6nx0g0jQAKe76fGSzcUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5/up8dINI0ACBFYOLbKdFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ag+cM6K0FyRAAoqO5PIf0hfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIHzhlR2vsgQAIK16NwPQoKwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCYofY+76IEACw2SqYFTSDsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhKlvcEXBiJAAoNRSZ2ApgfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLkg57Nqg8jQAL4wmSqYNQOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CrWnecYoOI0ACKH6MuWsJCsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvFjzF1LiBdAAnsUrkfhOhrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLu68A5I4oXQAKfzarP1dYXwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3bWEfNBzFUACW0I+6NlsG8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ajj4wmSqYBNAAoSezarP1RfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKlLEMc62ITQALswDkjSjsawAAAAAABIwABFAQABAQAAAAEAAgIBAQAAAABEAQEAAQEAAAACCQEAAQEAAAADAgICAQEAAAAFAwEAAQEAAAAFBAEAAAAAAAAGBQICAQEAAAAIBgEAAQEAAAAIBwEAAAAAAAAJCAICAQEAAAAKCQEAAAAAAAAMCgEAAAAAAAAMCwIAAAAAAAAODAEAAAAAAAAODQIAAAAAAAAPDgEAAAAAAAAARA8BAAAAAAAAAESARAIDAQEAAAAARIBEQQAAAAAAAABEwESBAAEBAAAAAEUARMICAQEAAAAARUBFAQAAAAAAAABGgEYBAAEBAAAAAEZARoICAQEAAAAARYBFwQABAQAAAABGAEWCAgEBAAAAAEXAREIDAQEAAAAAREBGQQABAQAAAABHwEdBAAEBAAAAAEeAR8ICAQEAAAAARsBHAQABAQAAAABHQEbCAgEBAAAAAEcHAgMBAQAAAAcAR4EAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -871,7 +873,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000011R0316611593S00000005P02164LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEeGAAAAPwIAPwAAgAAAAAAAPC/AjeJQWDl8CJAAtV46SYxyB7AAAAAABgAAAD8CAD8AAIAAAAAAADwvwL7XG3F/vIiQAIsZRniWJcgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C0gDeAgnqIUACNBE2PL0yIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXQItv53iBAApf/kH77miDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKUh4Va09wgQALImLuWkM8ewAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CS1mGONblIUACm1Wfq62YHcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnZPHhZq7SJAArIubqMB/BnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKHp1fKMuQhQALgLZCg+DEbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CdQKaCBseE0ACD5wzorR3FsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Au5aQj7oGRNAAqg1zTtOERTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJd/kP67SsVQAKY3ZOHhdoSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUkmdgCZCF0AC0gDeAgkKFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Atjw9EpZRhdAAjhnRGlvcBbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJqTfOOUzQVQAJlqmBUUqcXwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8rBQa5o3FUACINJvXwcOGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhNhw9MrJRNAAk7RkVz+QxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKcxCCwcigTQAK1N/jCZKodwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CA3gLJCg+FUAC0LNZ9bnaHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuPHmLuWUBdAAqK0N/jCpB3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ2Tx4Wak0XQAI8TtGRXD4bwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CVOOlm8RgGUAC8KfGSzcJGsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AvH0SlmGeBtAAoy5awn5oB3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKDwMqhRXYbQAIKaCJseDobwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CDwu1pnmHHUACdEaU9gafF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An0/NV66iR1AAtqs+lxtBRrAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKsHFpkO58fQAIQWDm0yDYbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C001iEFjZIEACxLEubqMBGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ag+cM6K01yBAAl5LyAc9mxfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL+Q/rt6+AhQAITYcPTK2UWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Csp3vp8brIkACS8gHPZuVF8AAAAAAASEAFAQABAQAAAAEAAgIBAQAAAAIBAQABAQAAAAMCAgIBAQAAAAQDAQABAQAAAAUEAgIBAQAAAAcFAQAAAAAAAAYAR0EAAQEAAAAHBgIDAQEAAAAARocBAAEBAAAACA0BAAEBAAAACQgCAgEBAAAACgkBAAEBAAAACwoCAgEBAAAADAsBAAEBAAAADQwCAgEBAAAADg0BAAAAAAAADgBEwQABAQAAAA8OAgMBAQAAAABEDwEAAQEAAAAAREBEAgIBAQAAAABEgERBAAEBAAAAAETARIICAQEAAAAARQBEwQAAAAAAAABFgEUBAAAAAAAAAEWARUIAAAAAAAAARgBFgQAAAAAAAABGAEXCAAAAAAAAAEZARgEAAAAAAAAARoBGQQAAAAAAAABGwEaCAgEBAAAAAEcARsEAAQEAAAAAR0BHAgIBAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000011R0143031296S00000005P02164LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEeGAAAAPwIAPwAAgAAAAAAAPC/AjeJQWDl8CJAAtV46SYxyB7AAAAAABgAAAD8CAD8AAIAAAAAAADwvwL7XG3F/vIiQAIsZRniWJcgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C0gDeAgnqIUACNBE2PL0yIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXQItv53iBAApf/kH77miDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKUh4Va09wgQALImLuWkM8ewAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CS1mGONblIUACm1Wfq62YHcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnZPHhZq7SJAArIubqMB/BnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKHp1fKMuQhQALgLZCg+DEbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CdQKaCBseE0ACD5wzorR3FsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Au5aQj7oGRNAAqg1zTtOERTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJd/kP67SsVQAKY3ZOHhdoSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUkmdgCZCF0AC0gDeAgkKFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Atjw9EpZRhdAAjhnRGlvcBbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJqTfOOUzQVQAJlqmBUUqcXwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8rBQa5o3FUACINJvXwcOGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhNhw9MrJRNAAk7RkVz+QxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKcxCCwcigTQAK1N/jCZKodwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CA3gLJCg+FUAC0LNZ9bnaHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuPHmLuWUBdAAqK0N/jCpB3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ2Tx4Wak0XQAI8TtGRXD4bwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CVOOlm8RgGUAC8KfGSzcJGsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AvH0SlmGeBtAAoy5awn5oB3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKDwMqhRXYbQAIKaCJseDobwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CDwu1pnmHHUACdEaU9gafF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An0/NV66iR1AAtqs+lxtBRrAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKsHFpkO58fQAIQWDm0yDYbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C001iEFjZIEACxLEubqMBGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ag+cM6K01yBAAl5LyAc9mxfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL+Q/rt6+AhQAITYcPTK2UWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Csp3vp8brIkACS8gHPZuVF8AAAAAAASEAFAQABAQAAAAEAAgIBAQAAAAIBAQABAQAAAAMCAgIBAQAAAAQDAQABAQAAAAUEAgIBAQAAAAcFAQAAAAAAAAYAR0EAAQEAAAAHBgIDAQEAAAAARocBAAEBAAAACA0BAAEBAAAACQgCAgEBAAAACgkBAAEBAAAACwoCAgEBAAAADAsBAAEBAAAADQwCAgEBAAAADg0BAAAAAAAADgBEwQABAQAAAA8OAgMBAQAAAABEDwEAAQEAAAAAREBEAgIBAQAAAABEgERBAAEBAAAAAETARIICAQEAAAAARQBEwQAAAAAAAABFgEUBAAAAAAAAAEWARUIAAAAAAAAARgBFgQAAAAAAAABGAEXCAAAAAAAAAEZARgEAAAAAAAAARoBGQQAAAAAAAABGwEaCAgEBAAAAAEcARsEAAQEAAAAAR0BHAgIBAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -884,7 +886,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000012R0316611593S00000006P01724LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwEAPwAAgAAAAAAAPC/AqTfvg6cMyBAAq+UZYhjnRbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKk374OnDMgQAJqvHSTGAQZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CduCcEaU9IUACnu+nxks3GsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnbgnBGlPSFAAgRWDi2ynRzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKk374OnDMgQAI3iUFg5dAdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cpb3BFyZTHkACBFYOLbKdHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AonS3uALUx5AAp7vp8ZLNxrAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLnjCjtDT4cQAJpAG+BBAUZwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cl5APejYrGkACAd4CCYqfHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmB2Tx4WKhpAApp3nKIjORrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLy0k1iENgRQAJRa5p3nKIcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8tJNYhDYEUAClkOLbOc7GsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApyiI7n8hw9AAmIQWDm0CBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKcoiO5/IcPQAL8qfHSTaIWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8tJNYhDYEUACyXa+nxpvFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApXUCWgi7BNAAvyp8dJNohbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKV1AloIuwTQAJiEFg5tAgZwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CNxrAWyABFkACl/+Qfvs6GsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ar4wmSoYFRhAAmaIY13cBhnAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKjAbwFEhQYQAL/If32daAWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cxyk6ksv/FUACHThnRGlvFcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ag8LtaZ5RyJAAuPHmLuW0B3AAAAAACAAAAD8BAD8AAIAAAAAAADwvwI4+MJkqmALQAIdOGdEaW8VwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cc2iR7Xw/HEAC48eYu5bQHcAAAAAAARkEAAQAAAAAAAAEGAQABAQAAAAIBAgMBAQAAAAMCAQABAQAAAAQDAgIBAQAAAAUEAQABAQAAAAYFAgIBAQAAAAcGAQAAAAAAAAkHAQAAAAAAAAkIAgAAAAAAAABEiQEAAAAAAAALCgEAAAAAAAALAEQBAAEBAAAADAsCAwEBAAAADQwBAAEBAAAADg0CAgEBAAAADw4BAAEBAAAAAEQPAgIBAQAAAABEQEQBAAAAAAAAAESAREEAAAAAAAAARMBEggAAAAAAAA8ARQEAAAAAAAADAEVBAAAAAAAADQBFgQAAAAAAAAUARcEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000012R0143031296S00000006P01724LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwEAPwAAgAAAAAAAPC/AqTfvg6cMyBAAq+UZYhjnRbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKk374OnDMgQAJqvHSTGAQZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CduCcEaU9IUACnu+nxks3GsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AnbgnBGlPSFAAgRWDi2ynRzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKk374OnDMgQAI3iUFg5dAdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cpb3BFyZTHkACBFYOLbKdHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AonS3uALUx5AAp7vp8ZLNxrAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLnjCjtDT4cQAJpAG+BBAUZwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cl5APejYrGkACAd4CCYqfHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmB2Tx4WKhpAApp3nKIjORrAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLy0k1iENgRQAJRa5p3nKIcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8tJNYhDYEUAClkOLbOc7GsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApyiI7n8hw9AAmIQWDm0CBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKcoiO5/IcPQAL8qfHSTaIWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8tJNYhDYEUACyXa+nxpvFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApXUCWgi7BNAAvyp8dJNohbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKV1AloIuwTQAJiEFg5tAgZwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CNxrAWyABFkACl/+Qfvs6GsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ar4wmSoYFRhAAmaIY13cBhnAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKjAbwFEhQYQAL/If32daAWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cxyk6ksv/FUACHThnRGlvFcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Ag8LtaZ5RyJAAuPHmLuW0B3AAAAAACAAAAD8BAD8AAIAAAAAAADwvwI4+MJkqmALQAIdOGdEaW8VwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8Cc2iR7Xw/HEAC48eYu5bQHcAAAAAAARkEAAQAAAAAAAAEGAQABAQAAAAIBAgMBAQAAAAMCAQABAQAAAAQDAgIBAQAAAAUEAQABAQAAAAYFAgIBAQAAAAcGAQAAAAAAAAkHAQAAAAAAAAkIAgAAAAAAAABEiQEAAAAAAAALCgEAAAAAAAALAEQBAAEBAAAADAsCAwEBAAAADQwBAAEBAAAADg0CAgEBAAAADw4BAAEBAAAAAEQPAgIBAQAAAABEQEQBAAAAAAAAAESAREEAAAAAAAAARMBEggAAAAAAAA8ARQEAAAAAAAADAEVBAAAAAAAADQBFgQAAAAAAAAUARcEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -897,7 +899,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000013R0316611593S00000007P01592LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEWGAAAAPwEAPwAAgAAAAAAAPC/AuXQItv5fhRAAh4Wak3zDhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLo2az6XG0SQALdJAaBlUMWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cn82qz9VWEEACNs07TtERFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArpJDAIrhwxAAvXb14FzRhbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK6SQwCK4cMQAI/V1uxv6wYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJzEIrBxaEEACApoIG57eGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AicxCKwcWhBAAmkAb4EERRzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLo2az6XG0SQAJEi2zn+6kYwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CbjSAt0CCFEAC6+I2GsDbGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ai/dJAaBlRZAAizUmuYdpxjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIv3SQGgZUWQALGbTSAt0AWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C0SLb+X6qGEAC1CtlGeLYGcAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AtEi2/l+qhhAAjqSy39IPxzAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKSy39Iv70aQAIVHcnlP6QYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3NeBc0bUHEACvHSTGATWGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtnO91Pj5R5AAv5l9+RhoRjAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLZzvdT4+UeQAKX/5B++zoWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cr5RliGN9IEACpb3BFybTGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aq+UZYhjfSBAAgskKH6MORzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJhMlUwKukeQALKMsSxLm4dwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3NeBc0bUHEACI9v5fmo8HMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ahsv3SQGwRpAAuLplbIMcR3AAAAAAAEXAAQEAAAAAAAABAgIDAQEAAAACAwEAAQEAAAADBAICAQEAAAAEBQEAAQEAAAAFBgEAAAAAAAAFBwICAQEAAAAHAQEAAQEAAAAHCAEAAAAAAAAICQEAAAAAAAAJCgIAAAAAAAAJCwEAAAAAAAALDAIAAAAAAAALDQEAAAAAAAANDgEAAAAAAAAODwICAQEAAAAPAEQBAAAAAAAADwBEQQABAQAAAABEQESCAgEBAAAAAESARMEAAQEAAAAARMBFAgIBAQAAAABFDgEAAQEAAAAARQBFQQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000013R0143031296S00000007P01592LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEWGAAAAPwEAPwAAgAAAAAAAPC/AuXQItv5fhRAAh4Wak3zDhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLo2az6XG0SQALdJAaBlUMWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cn82qz9VWEEACNs07TtERFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArpJDAIrhwxAAvXb14FzRhbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK6SQwCK4cMQAI/V1uxv6wYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJzEIrBxaEEACApoIG57eGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AicxCKwcWhBAAmkAb4EERRzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLo2az6XG0SQAJEi2zn+6kYwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CbjSAt0CCFEAC6+I2GsDbGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ai/dJAaBlRZAAizUmuYdpxjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIv3SQGgZUWQALGbTSAt0AWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C0SLb+X6qGEAC1CtlGeLYGcAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AtEi2/l+qhhAAjqSy39IPxzAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKSy39Iv70aQAIVHcnlP6QYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3NeBc0bUHEACvHSTGATWGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtnO91Pj5R5AAv5l9+RhoRjAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLZzvdT4+UeQAKX/5B++zoWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cr5RliGN9IEACpb3BFybTGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aq+UZYhjfSBAAgskKH6MORzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJhMlUwKukeQALKMsSxLm4dwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3NeBc0bUHEACI9v5fmo8HMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Ahsv3SQGwRpAAuLplbIMcR3AAAAAAAEXAAQEAAAAAAAABAgIDAQEAAAACAwEAAQEAAAADBAICAQEAAAAEBQEAAQEAAAAFBgEAAAAAAAAFBwICAQEAAAAHAQEAAQEAAAAHCAEAAAAAAAAICQEAAAAAAAAJCgIAAAAAAAAJCwEAAAAAAAALDAIAAAAAAAALDQEAAAAAAAANDgEAAAAAAAAODwICAQEAAAAPAEQBAAAAAAAADwBEQQABAQAAAABEQESCAgEBAAAAAESARMEAAQEAAAAARMBFAgIBAQAAAABFDgEAAQEAAAAARQBFQQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -910,7 +912,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000014R0316611593S00000008P02300LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEgGAAAAPwIAPwAAgAAAAAAAPC/AgBvgQTFzyBAAg5Pr5RlSBvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLqBDQRNtwhQAIXSFD8GHMcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CFvvL7snjIkAC1sVtNIA3G8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsnlP6Tf3iJAAoxK6gQ00RjAAAAAACAAAAD8BAD8AAIAAAAAAADwvwKTOgFNhM0hQAIc6+I2GkAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C30+Nl27SIUACg1FJnYCmF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArRZ9bnayiBAAsPTK2UZ4hjAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKWQ4ts53sfQAK4HoXrUbgXwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CD5wzorR3HUACQmDl0CJbG8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AltCPujZbB1AAvfkYaHW9BjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLVeOkmMUgbQAK+nxov3WQVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AtTG0ACCRueXinLF8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/Amq8dJMYRBlAAkjhehSuBxnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKYTBWMSioXQAI9LNSa5t0XwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C24r9ZfckFUAC5BQdyeV/G8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkJg5dAiGxVAAn2utmJ/GRnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJuNIC3QAITQAJ0tRX7y+4XwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8fRKWYb4EkACKjqSy3+IFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aiv2l92TBxVAAum3rwPnTBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL/If32dSAXQALysFBrmncVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9UpZhjgWE0AC0NVW7C+7HMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoZa07zj1CJAAjAqqRPQBBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIQWDm0yNYjQAL3deCcEWUQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CVTAqqRPQIkACV1uxv+yeEcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlCNl24S4yRAAsiYu5aQjxHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJuNIC3QOIjQAJUUiegiTAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CKjqSy3/oJEACNe84RUfyE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/At9PjZduEhFAAgXFjzF3LSDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJWn6ut2B8TQAKppE5AEyEfwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CwcqhRbbzDUACOGdEaW8wH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiSX/5B++xBAAqyt2F92jxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJZF7fRAN4NQALLEMe6uM0cwAAAAAABIwAYBAAEBAAAAAQACAgEBAAAAAgEBAAEBAAAAAwICAgEBAAAABQMBAAEBAAAABQQBAAAAAAAABgUCAgEBAAAABwYBAAAAAAAACQcBAAAAAAAACQgCAAAAAAAACwkBAAAAAAAACwoCAAAAAAAADAsBAAAAAAAADQwBAAAAAAAADQBEwQABAQAAAA8NAgIBAQAAAA8OAQAAAAAAAABEDwEAAQEAAAAAREBEAgIBAQAAAABEgERBAAEBAAAAAETARIICAQEAAAAOAEUBAAAAAAAABABFQQAAAAAAAABGgEYBAAEBAAAAAEZARoICAQEAAAAARYBFwQABAQAAAABGAEWCAgEBAAAAAEXARUIDAQEAAAAARUBGQQABAQAAAABHwEdBAAEBAAAAAEeAR8ICAQEAAAAARsBHAQABAQAAAABHQEbCAgEBAAAAAEcARQIDAQEAAAAARQBHgQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000014R0143031296S00000008P02300LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEgGAAAAPwIAPwAAgAAAAAAAPC/AgBvgQTFzyBAAg5Pr5RlSBvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLqBDQRNtwhQAIXSFD8GHMcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CFvvL7snjIkAC1sVtNIA3G8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsnlP6Tf3iJAAoxK6gQ00RjAAAAAACAAAAD8BAD8AAIAAAAAAADwvwKTOgFNhM0hQAIc6+I2GkAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C30+Nl27SIUACg1FJnYCmF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArRZ9bnayiBAAsPTK2UZ4hjAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKWQ4ts53sfQAK4HoXrUbgXwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CD5wzorR3HUACQmDl0CJbG8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AltCPujZbB1AAvfkYaHW9BjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLVeOkmMUgbQAK+nxov3WQVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AtTG0ACCRueXinLF8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/Amq8dJMYRBlAAkjhehSuBxnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKYTBWMSioXQAI9LNSa5t0XwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8C24r9ZfckFUAC5BQdyeV/G8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkJg5dAiGxVAAn2utmJ/GRnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJuNIC3QAITQAJ0tRX7y+4XwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8fRKWYb4EkACKjqSy3+IFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aiv2l92TBxVAAum3rwPnTBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL/If32dSAXQALysFBrmncVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9UpZhjgWE0AC0NVW7C+7HMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoZa07zj1CJAAjAqqRPQBBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIQWDm0yNYjQAL3deCcEWUQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CVTAqqRPQIkACV1uxv+yeEcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlCNl24S4yRAAsiYu5aQjxHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJuNIC3QOIjQAJUUiegiTAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CKjqSy3/oJEACNe84RUfyE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/At9PjZduEhFAAgXFjzF3LSDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJWn6ut2B8TQAKppE5AEyEfwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CwcqhRbbzDUACOGdEaW8wH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiSX/5B++xBAAqyt2F92jxvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJZF7fRAN4NQALLEMe6uM0cwAAAAAABIwAYBAAEBAAAAAQACAgEBAAAAAgEBAAEBAAAAAwICAgEBAAAABQMBAAEBAAAABQQBAAAAAAAABgUCAgEBAAAABwYBAAAAAAAACQcBAAAAAAAACQgCAAAAAAAACwkBAAAAAAAACwoCAAAAAAAADAsBAAAAAAAADQwBAAAAAAAADQBEwQABAQAAAA8NAgIBAQAAAA8OAQAAAAAAAABEDwEAAQEAAAAAREBEAgIBAQAAAABEgERBAAEBAAAAAETARIICAQEAAAAOAEUBAAAAAAAABABFQQAAAAAAAABGgEYBAAEBAAAAAEZARoICAQEAAAAARYBFwQABAQAAAABGAEWCAgEBAAAAAEXARUIDAQEAAAAARUBGQQABAQAAAABHwEdBAAEBAAAAAEeAR8ICAQEAAAAARsBHAQABAQAAAABHQEbCAgEBAAAAAEcARQIDAQEAAAAARQBHgQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -923,7 +925,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000015R0316611593S00000009P01252LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgERHAAAAPwIAPwAAgAAAAAAAPC/Ao51cRsNIBtAAgAAAAAAwBXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIydy0hHzQdQALNzMzMzIwUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMnctIR80HUAC9P3UeOkmEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkjhehSuRx9AAqs+V1uxvxXAAAAAACAAAAD8BAD8AAIAAAAAAADwvwI9m1Wfq60gQALNzMzMzIwUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CSOF6FK5HH0AChA1Pr5QlGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjDBlAAiKOdXEbjRTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL0/dR46eYUQAJ2Tx4Wao0UwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CDeAtkKD4FkAC5BQdyeW/FcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvT91Hjp5hRAAmWqYFRSJxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJcIEHxYwwZQAJq3nGKjiQSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cnu+nxkv3FkACFNBE2PD0EMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjJ3LSEf9BZAAlFrmnecIg3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIvbqMBvAUZQAK8lpAPerYKwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CjnVxGw0gG0ACzO7Jw0LtEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArhAguLHGBtAAqrx0k1iEA3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwIN4C2QoPgWQAKh+DHmriUYwAAAAAABEgAEBAAAAAAAAAQICAAAAAAAAAQMBAAAAAAAAAwQBAAAAAAAAAwUCAAAAAAAAAAYBAAAAAAAACwkBAAEBAAAACgsCAgEBAAAABwgBAAEBAAAACQcCAgEBAAAACAYCAwEBAAAABgoBAAEBAAAADw0BAAEBAAAADg8CAgEBAAAADQwCAgEBAAAACg4BAAEBAAAACwwBAAEBAAAACABEAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000015R0143031296S00000009P01252LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgERHAAAAPwIAPwAAgAAAAAAAPC/Ao51cRsNIBtAAgAAAAAAwBXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIydy0hHzQdQALNzMzMzIwUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMnctIR80HUAC9P3UeOkmEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkjhehSuRx9AAqs+V1uxvxXAAAAAACAAAAD8BAD8AAIAAAAAAADwvwI9m1Wfq60gQALNzMzMzIwUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CSOF6FK5HH0AChA1Pr5QlGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjDBlAAiKOdXEbjRTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL0/dR46eYUQAJ2Tx4Wao0UwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CDeAtkKD4FkAC5BQdyeW/FcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvT91Hjp5hRAAmWqYFRSJxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJcIEHxYwwZQAJq3nGKjiQSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cnu+nxkv3FkACFNBE2PD0EMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjJ3LSEf9BZAAlFrmnecIg3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIvbqMBvAUZQAK8lpAPerYKwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CjnVxGw0gG0ACzO7Jw0LtEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArhAguLHGBtAAqrx0k1iEA3AAAAAABgAAAD8BAD8AAIAAAAAAADwvwIN4C2QoPgWQAKh+DHmriUYwAAAAAABEgAEBAAAAAAAAAQICAAAAAAAAAQMBAAAAAAAAAwQBAAAAAAAAAwUCAAAAAAAAAAYBAAAAAAAACwkBAAEBAAAACgsCAgEBAAAABwgBAAEBAAAACQcCAgEBAAAACAYCAwEBAAAABgoBAAEBAAAADw0BAAEBAAAADg8CAgEBAAAADQwCAgEBAAAACg4BAAEBAAAACwwBAAEBAAAACABEAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -936,7 +938,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000016R0316611593S00000010P01320LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgESHAAAAPwIAPwAAgAAAAAAAPC/Ao51cRsNYBVAAo51cRsNIBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIydy0hH3QXQAJbQj7o2ewVwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMnctIR90F0ACgnNGlPaGE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkjhehSuhxlAAjm0yHa+HxfAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ6Nqs+V5sbQAJbQj7o2ewVwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CSOF6FK6HGUACEoPAyqGFGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AqyL22gArx1AAjm0yHa+HxfAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJcIEHxY0wTQAKTGARWDu0VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CKcsQx7o4EUACjnVxGw0gF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsP1KFyPwh9AAltCPujZ7BXAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIN4C2QoPgQQAJSSZ2AJoIZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/kP67etADUAC4JwRpb0BGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ano2qz5X2wpAAgMJih9j7hfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLjx5i7lhAOQAJmZmZmZiYWwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cb/CFyVQBIEACe4MvTKaKE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgXFjzF3LSFAAuwvuycPCxPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJmiGNd3MYhQALKw0KtaR4VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCyQofoz5IEACZmZmZmbmFsAAAAAAARMABAQAAAAAAAAECAgAAAAAAAAEDAQAAAAAAAAMEAQAAAAAAAAMFAgAAAAAAAAQGAQAAAAAAAAAHAQAAAAAAAAcIAQAAAAAAAAYJAQAAAAAAAAwNAQABAQAAAAsMAgIBAQAAAAoLAQABAQAAAAoIAQABAQAAAA0IAgMBAQAAAABEAERBAAEBAAAADwBEAgIBAQAAAA4PAQABAQAAAA4JAQABAQAAAABESQIDAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000016R0143031296S00000010P01320LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgESHAAAAPwIAPwAAgAAAAAAAPC/Ao51cRsNYBVAAo51cRsNIBfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIydy0hH3QXQAJbQj7o2ewVwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMnctIR90F0ACgnNGlPaGE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkjhehSuhxlAAjm0yHa+HxfAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ6Nqs+V5sbQAJbQj7o2ewVwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CSOF6FK6HGUACEoPAyqGFGcAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AqyL22gArx1AAjm0yHa+HxfAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJcIEHxY0wTQAKTGARWDu0VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CKcsQx7o4EUACjnVxGw0gF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsP1KFyPwh9AAltCPujZ7BXAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIN4C2QoPgQQAJSSZ2AJoIZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/kP67etADUAC4JwRpb0BGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ano2qz5X2wpAAgMJih9j7hfAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLjx5i7lhAOQAJmZmZmZiYWwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cb/CFyVQBIEACe4MvTKaKE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgXFjzF3LSFAAuwvuycPCxPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJmiGNd3MYhQALKw0KtaR4VwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CCyQofoz5IEACZmZmZmbmFsAAAAAAARMABAQAAAAAAAAECAgAAAAAAAAEDAQAAAAAAAAMEAQAAAAAAAAMFAgAAAAAAAAQGAQAAAAAAAAAHAQAAAAAAAAcIAQAAAAAAAAYJAQAAAAAAAAwNAQABAQAAAAsMAgIBAQAAAAoLAQABAQAAAAoIAQABAQAAAA0IAgMBAQAAAABEAERBAAEBAAAADwBEAgIBAQAAAA4PAQABAQAAAA4JAQABAQAAAABESQIDAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -949,7 +951,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000017R0316611593S00000011P01324LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgESGAAAAPwIAPwAAgAAAAAAAPC/Ag+cM6K0VyFAAn9qvHSTmBXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLD9Shcj4IiQAIK16NwPQoVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUWuad5wiI0ACguLHmLsWF8AAAAAAARAAAAD8BAD8AAIAAAAAAADwvwJCPujZrFoiQAJhMlUwKukYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CpSxDHOtCIUAC1QloImz4F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuoENBE2PCBAAtbFbTSANxnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJb07zjFF0eQALG3LWEfBAYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8C6Gor9pddHEACEhQ/xty1G8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuSDns2qTxxAAuSDns2qTxnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIE54wo7c0TQAKIhVrTvOMbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CuB6F61F4EUAC/Bhz1xJyHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApwzorQ3OBBAAqH4MeauZRrAAAAAAAEQAAAA/AQA/AACAAAAAAAA8L8CuY0G8BbIEUACpb3BFyaTGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjqSy39I/xNAAjqSy39IfxnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKyne+nxgsWQALGbTSAt0AYwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CEOm3rwMnGEAC1lbsL7tnGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoY41sVtNBpAArivA+eMKBjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKDUUmdgCYaQAKKH2PuWsIVwAAAAAABEwAQCAgEBAAAAAQABAAEBAAAAAgECAgEBAAAAAwIBAAEBAAAABAMBAAEBAAAABQQBAAAAAAAABgUBAAAAAAAACAYBAAAAAAAACAcCAAAAAAAAAEQIAQAAAAAAAAkNAgIBAQAAAAoJAQABAQAAAAsKAgIBAQAAAAwLAQABAQAAAA0MAQABAQAAAA4NAQAAAAAAAA8OAQAAAAAAAABEDwEAAAAAAAAAREBEAgAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000017R0143031296S00000011P01324LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgESGAAAAPwIAPwAAgAAAAAAAPC/Ag+cM6K0VyFAAn9qvHSTmBXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLD9Shcj4IiQAIK16NwPQoVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUWuad5wiI0ACguLHmLsWF8AAAAAAARAAAAD8BAD8AAIAAAAAAADwvwJCPujZrFoiQAJhMlUwKukYwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CpSxDHOtCIUAC1QloImz4F8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AuoENBE2PCBAAtbFbTSANxnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJb07zjFF0eQALG3LWEfBAYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8C6Gor9pddHEACEhQ/xty1G8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuSDns2qTxxAAuSDns2qTxnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIE54wo7c0TQAKIhVrTvOMbwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CuB6F61F4EUAC/Bhz1xJyHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApwzorQ3OBBAAqH4MeauZRrAAAAAAAEQAAAA/AQA/AACAAAAAAAA8L8CuY0G8BbIEUACpb3BFyaTGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjqSy39I/xNAAjqSy39IfxnAAAAAABgAAAD8BAD8AAIAAAAAAADwvwKyne+nxgsWQALGbTSAt0AYwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CEOm3rwMnGEAC1lbsL7tnGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoY41sVtNBpAArivA+eMKBjAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKDUUmdgCYaQAKKH2PuWsIVwAAAAAABEwAQCAgEBAAAAAQABAAEBAAAAAgECAgEBAAAAAwIBAAEBAAAABAMBAAEBAAAABQQBAAAAAAAABgUBAAAAAAAACAYBAAAAAAAACAcCAAAAAAAAAEQIAQAAAAAAAAkNAgIBAQAAAAoJAQABAQAAAAsKAgIBAQAAAAwLAQABAQAAAA0MAQABAQAAAA4NAQAAAAAAAA8OAQAAAAAAAABEDwEAAAAAAAAAREBEAgAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -962,7 +964,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000018R0316611593S00073737P01596LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEWGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJTBBAAgaBlUOLLBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsHIUQAKxv+yePCwTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nVgEkAC7zhFR3L5EcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchRAAlD8GHPXkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI/NV66SUwQQAIv3SQGgZUVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMphEkAC9pfdk4fFFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/ArwFEhQ/hhZAAi9uowG8xRbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLuWkI+6JkYQAJQ/Bhz15IVwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CIbByaJGtGkACL26jAbzFFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjcawFsgwRxAAlD8GHPXkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJpb/CFydQeQAIvbqMBvMUWwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CNxrAWyDBHEACdy0hH/QsE8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AsDsnjwsdCBAAlD8GHPXkhXAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJpb/CFydQeQAIIPZtVnysZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CWRe30QB+IUACL26jAbzFFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvJBz2bVhyJAAlD8GHPXkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL99nXgnJEjQAIvbqMBvMUWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CMQisHFqkJUAC2qz6XG3FFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiSX/5B+myRAAm3n+6nxkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIxCKwcWqQlQALsUbgehSsZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/fZ14JyRI0ACyjLEsS4uGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlyPwvUonCRAAj0s1JrmXRrAAAAAAAEXFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAHCAEAAAAAAAAICQEAAAAAAAAJCgEAAAAAAAAJCwIAAAAAAAAKDAEAAAAAAAAKDQIAAAAAAAAMDgEAAAAAAAAODwEAAAAAAAAPAEQBAAAAAAAAAEVARMEAAQEAAAAARQBFQgIBAQAAAABEQESBAAEBAAAAAETAREICAQEAAAAARIBEAgMBAQAAAABEAEUBAAEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00002C0000018R0143031296S00073737P01596LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEWGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJTBBAAgaBlUOLLBPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsHIUQAKxv+yePCwTwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nVgEkAC7zhFR3L5EcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwchRAAlD8GHPXkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI/NV66SUwQQAIv3SQGgZUVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMphEkAC9pfdk4fFFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/ArwFEhQ/hhZAAi9uowG8xRbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLuWkI+6JkYQAJQ/Bhz15IVwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CIbByaJGtGkACL26jAbzFFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjcawFsgwRxAAlD8GHPXkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJpb/CFydQeQAIvbqMBvMUWwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CNxrAWyDBHEACdy0hH/QsE8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AsDsnjwsdCBAAlD8GHPXkhXAAAAAACAAAAD8CAD8AAIAAAAAAADwvwJpb/CFydQeQAIIPZtVnysZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CWRe30QB+IUACL26jAbzFFsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvJBz2bVhyJAAlD8GHPXkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL99nXgnJEjQAIvbqMBvMUWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CMQisHFqkJUAC2qz6XG3FFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiSX/5B+myRAAm3n+6nxkhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIxCKwcWqQlQALsUbgehSsZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/fZ14JyRI0ACyjLEsS4uGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlyPwvUonCRAAj0s1JrmXRrAAAAAAAEXFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAADBgEAAAAAAAAGBwEAAAAAAAAHCAEAAAAAAAAICQEAAAAAAAAJCgEAAAAAAAAJCwIAAAAAAAAKDAEAAAAAAAAKDQIAAAAAAAAMDgEAAAAAAAAODwEAAAAAAAAPAEQBAAAAAAAAAEVARMEAAQEAAAAARQBFQgIBAQAAAABEQESBAAEBAAAAAETAREICAQEAAAAARIBEAgMBAQAAAABEAEUBAAEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -975,7 +977,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000019R0316611593S00073739P01456LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTGAtAAgwCK4cW2Q3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsLIRQAJjf9k9edgNwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/kP67etAD0AC3nGKjuRyC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwshFAAlD8GHPXUhHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/arx0kxgLQAIv3SQGgVURwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3SQGgZVDD0AC9pfdk4eFEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/ArwFEhQ/xhNAAm3F/rJ7cgvAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLuWkI+6NkVQAJjf9k9edgNwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CIbByaJHtF0ACbcX+sntyC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjcawFsgARpAAmN/2T152A3AAAAAACAAAAD8CAD8AAIAAAAAAADwvwIhsHJoke0XQAL0/dR46aYGwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CaW/whckUHEACbcX+sntyC8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AjcawFsgARpAAoqO5PIfUhHAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJ/2T15WCgeQAJjf9k9edgNwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CWRe30QAeIEACbcX+sntyC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Atc07zhFJyFAAhb7y+7JQwTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ1ApoIGx4gQAK7Jw8LtaYGwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/tR46SYxIkACC7WmecepBsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ailcj8L1KCFAAkJg5dAi2w3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIZ4lgXtzEiQAIdOGdEaW8LwAAAAAABFRQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAQYBAAAAAAAABgcBAAAAAAAABwgBAAAAAAAACAkBAAAAAAAACAoCAAAAAAAACQsBAAAAAAAACQwCAAAAAAAACw0BAAAAAAAADQ4BAAAAAAAAAETAREEAAQEAAAAARIBEwgIBAQAAAA8ARAEAAQEAAAAARE8CAgEBAAAAAEQOAgMBAQAAAA4ARIEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000019R0143031296S00073739P01456LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEUGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTGAtAAgwCK4cW2Q3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsLIRQAJjf9k9edgNwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/kP67etAD0AC3nGKjuRyC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwshFAAlD8GHPXUhHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/arx0kxgLQAIv3SQGgVURwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C3SQGgZVDD0AC9pfdk4eFEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/ArwFEhQ/xhNAAm3F/rJ7cgvAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLuWkI+6NkVQAJjf9k9edgNwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CIbByaJHtF0ACbcX+sntyC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AjcawFsgARpAAmN/2T152A3AAAAAACAAAAD8CAD8AAIAAAAAAADwvwIhsHJoke0XQAL0/dR46aYGwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CaW/whckUHEACbcX+sntyC8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AjcawFsgARpAAoqO5PIfUhHAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJ/2T15WCgeQAJjf9k9edgNwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CWRe30QAeIEACbcX+sntyC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Atc07zhFJyFAAhb7y+7JQwTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ1ApoIGx4gQAK7Jw8LtaYGwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/tR46SYxIkACC7WmecepBsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ailcj8L1KCFAAkJg5dAi2w3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIZ4lgXtzEiQAIdOGdEaW8LwAAAAAABFRQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAQYBAAAAAAAABgcBAAAAAAAABwgBAAAAAAAACAkBAAAAAAAACAoCAAAAAAAACQsBAAAAAAAACQwCAAAAAAAACw0BAAAAAAAADQ4BAAAAAAAAAETAREEAAQEAAAAARIBEwgIBAQAAAA8ARAEAAQEAAAAARE8CAgEBAAAAAEQOAgMBAQAAAA4ARIEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -988,7 +990,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000020R0316611593S00073741P02028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEcGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJDBRAAgaBlUOLLBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsDIYQAKxv+yePCwUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nUgFkAC7zhFR3L5EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwMhhAAlD8GHPXkhbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI/NV66SQwUQAIv3SQGgZUWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMohFkAC9pfdk4fFF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Apm7lpAP+hFAAkT67evA+RLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKZu5aQD/oRQAKlvcEXJpMQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nUgFkACqvHSTWKQEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArRZ9bnaChRAAv5D+u3rwA7AAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8BRIUP0YaQAK3Yn/ZPfkSwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C7lpCPuhZHEACsb/snjwsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRbR5AArdif9k9+RLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIbDeAtkEAgQAKxv+yePCwUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CIbByaJFtHkAC+n5qvHSTEMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/ArU3+MJkSiFAArdif9k9+RLAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIbDeAtkEAgQAKKjuTyH5IWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CwOyePCxUIkACsb/snjwsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlkXt9EAXiNAArdif9k9+RLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLXNO84RWckQAIW+8vuycMOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CdQKaCBteI0AC3pOHhVqTEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Av7UeOkmcSVAAoZa07zjlBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIpXI/C9WgkQAIhsHJokS0UwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGeJYF7dxJUACD5wzorT3EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ano2qz5XeyZAAtcS8kHPJhTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIFNBE2PH0mQAJcIEHxY4wWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CtFn1udpqJEACS8gHPZuVFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Atlfdk8ediVAAv2H9NvXwRfAAAAAAAEfFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAAJBwEAAQEAAAAICQICAQEAAAAHBgICAQEAAAACCAEAAQEAAAAABgEAAQEAAAABCgEAAAAAAAAKCwEAAAAAAAALDAEAAAAAAAAMDQEAAAAAAAAMDgIAAAAAAAANDwEAAAAAAAANAEQCAAAAAAAADwBEQQAAAAAAAABEQESBAAAAAAAAAEXARUEAAQEAAAAARYBFwgIBAQAAAABEwEUBAAEBAAAAAEVARMICAQEAAAAARQBEggMBAQAAAABEgEWBAAEBAAAAAEbARkEAAQEAAAAARoBGwgIBAQAAAABGQEYCAgEBAAAAAEWARoEAAQEAAAAARcBGAQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000020R0143031296S00073741P02028LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEcGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJDBRAAgaBlUOLLBTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsDIYQAKxv+yePCwUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nUgFkAC7zhFR3L5EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCwMhhAAlD8GHPXkhbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI/NV66SQwUQAIv3SQGgZUWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMohFkAC9pfdk4fFF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Apm7lpAP+hFAAkT67evA+RLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKZu5aQD/oRQAKlvcEXJpMQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nUgFkACqvHSTWKQEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArRZ9bnaChRAAv5D+u3rwA7AAAAAABgAAAD8BAD8AAIAAAAAAADwvwK8BRIUP0YaQAK3Yn/ZPfkSwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C7lpCPuhZHEACsb/snjwsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRbR5AArdif9k9+RLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIbDeAtkEAgQAKxv+yePCwUwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CIbByaJFtHkAC+n5qvHSTEMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/ArU3+MJkSiFAArdif9k9+RLAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIbDeAtkEAgQAKKjuTyH5IWwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CwOyePCxUIkACsb/snjwsFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlkXt9EAXiNAArdif9k9+RLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLXNO84RWckQAIW+8vuycMOwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CdQKaCBteI0AC3pOHhVqTEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Av7UeOkmcSVAAoZa07zjlBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIpXI/C9WgkQAIhsHJokS0UwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CGeJYF7dxJUACD5wzorT3EsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ano2qz5XeyZAAtcS8kHPJhTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIFNBE2PH0mQAJcIEHxY4wWwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CtFn1udpqJEACS8gHPZuVFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Atlfdk8ediVAAv2H9NvXwRfAAAAAAAEfFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAAJBwEAAQEAAAAICQICAQEAAAAHBgICAQEAAAACCAEAAQEAAAAABgEAAQEAAAABCgEAAAAAAAAKCwEAAAAAAAALDAEAAAAAAAAMDQEAAAAAAAAMDgIAAAAAAAANDwEAAAAAAAANAEQCAAAAAAAADwBEQQAAAAAAAABEQESBAAAAAAAAAEXARUEAAQEAAAAARYBFwgIBAQAAAABEwEUBAAEBAAAAAEVARMICAQEAAAAARQBEggMBAQAAAABEgEWBAAEBAAAAAEbARkEAAQEAAAAARoBGwgIBAQAAAABGQEYCAgEBAAAAAEWARoEAAQEAAAAARcBGAQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -1001,7 +1003,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000021R0316611593S00000026P01876LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEaGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTmA1AAgwCK4cW2QzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsPISQAJjf9k9edgMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nXgEEAC3nGKjuRyCsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hJAAlD8GHPX0hDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/arx0k5gNQAIv3SQGgdUQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMrhEEAC9pfdk4cFEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AhrAWyBBcQlAAhdIUPwYcwrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEQQAKze/KwUGsUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9+Rhodb0EkACpgpGJXUCGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoV80LNZ9RJAAsrDQq1pnhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKMuWsJ+eAQQAKhZ7PqczUZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CnRGlvcGXDUACHcnlP6SfFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aldbsb/sng1AAoXrUbgeBRjAAAAAABwAAAD8CAD8AAIAAAAAAADwvwK8BRIUPwYVQAIvbqMBvAUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C7lpCPugZF0ACUPwYc9fSEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRLRlAAi9uowG8BRLAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLuWkI+6BkXQALuWkI+6NkMwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CNxrAWyBBG0ACUPwYc9fSEMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRLRlAAgg9m1WfaxTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJpb/CFyVQdQAIvbqMBvAUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cf9k9eVhoH0ACUPwYc9fSEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aj0K16NwvSBAAhBYObTIdgrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK4rwPnjGgfQAK2hHzQs9kMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CZapgVFLHIUACBhIUP8bcDMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApAxdy0hvyBAAp5eKcsQBxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIOLbKd78chQAKMSuoENNEQwAAAAAABHBQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAAYBAAAAAAAABQcBAAAAAAAADAoBAAEBAAAACwwCAgEBAAAACAkBAAEBAAAACggCAgEBAAAACQcCAwEBAAAABwsBAAEBAAAAAw0BAAAAAAAADQ4BAAAAAAAADg8BAAAAAAAADgBEAgAAAAAAAA8AREEAAAAAAAAPAESCAAAAAAAAAERARMEAAAAAAAAARMBFAQAAAAAAAABGQEXBAAEBAAAAAEYARkICAQEAAAAARUBFgQABAQAAAABFwEVCAgEBAAAAAEWARQIDAQEAAAAARQBGAQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000021R0143031296S00000026P01876LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEaGAAAAPwIAPwAAgAAAAAAAPC/An9qvHSTmA1AAgwCK4cW2QzAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsPISQAJjf9k9edgMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nXgEEAC3nGKjuRyCsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hJAAlD8GHPX0hDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/arx0k5gNQAIv3SQGgdUQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CbxKDwMrhEEAC9pfdk4cFEsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AhrAWyBBcQlAAhdIUPwYcwrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJvEoPAyuEQQAKze/KwUGsUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9+Rhodb0EkACpgpGJXUCGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoV80LNZ9RJAAsrDQq1pnhXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKMuWsJ+eAQQAKhZ7PqczUZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CnRGlvcGXDUACHcnlP6SfFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aldbsb/sng1AAoXrUbgeBRjAAAAAABwAAAD8CAD8AAIAAAAAAADwvwK8BRIUPwYVQAIvbqMBvAUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C7lpCPugZF0ACUPwYc9fSEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRLRlAAi9uowG8BRLAAAAAACAAAAD8CAD8AAIAAAAAAADwvwLuWkI+6BkXQALuWkI+6NkMwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CNxrAWyBBG0ACUPwYc9fSEMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiGwcmiRLRlAAgg9m1WfaxTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJpb/CFyVQdQAIvbqMBvAUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cf9k9eVhoH0ACUPwYc9fSEMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aj0K16NwvSBAAhBYObTIdgrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK4rwPnjGgfQAK2hHzQs9kMwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CZapgVFLHIUACBhIUP8bcDMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApAxdy0hvyBAAp5eKcsQBxLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIOLbKd78chQAKMSuoENNEQwAAAAAABHBQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAAAAYBAAAAAAAABQcBAAAAAAAADAoBAAEBAAAACwwCAgEBAAAACAkBAAEBAAAACggCAgEBAAAACQcCAwEBAAAABwsBAAEBAAAAAw0BAAAAAAAADQ4BAAAAAAAADg8BAAAAAAAADgBEAgAAAAAAAA8AREEAAAAAAAAPAESCAAAAAAAAAERARMEAAAAAAAAARMBFAQAAAAAAAABGQEXBAAEBAAAAAEYARkICAQEAAAAARUBFgQABAQAAAABFwEVCAgEBAAAAAEWARQIDAQEAAAAARQBGAQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -1014,7 +1016,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000022R0316611593S00073727P01812LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEZGAAAAPwIAPwAAgAAAAAAAPC/Arn8h/Tblx5AAv7UeOkm8SHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI2zTtO0VEgQAIijnVxG40iwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CAAAAAABgIUACoImw4en1IcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgAAAAAAYCFAAm1Wfa62wiDAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLPZtXnamsiQALsUbgehSsgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CowG8BRJ0I0ACnYAmwobHIMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSdCNAAtCzWfW5+iHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJzaJHtfH8kQAIcfGEyVTAgwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cc2iR7Xx/JEAC0ZFc/kP6HcAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AkcDeAskiCVAAs6qz9VWzCDAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIWak3zjpMmQAK+MJkqGDUgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6gQ0ETacJ0ACcF8HzhnRIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArprCfmgpyhAAu5aQj7oOSDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKOBvAWSLApQAKgibDh6dUgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CjgbwFkiwKUACRUdy+Q8JIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsPTK2UZoihAAlXBqKROoCLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLqBDQRNpwnQAKjkjoBTQQiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CLGUZ4lhXIEACSZ2AJsImIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Arn8h/Tblx5AAsuhRbbzvSDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIsZRniWFcgQAIs1JrmHecdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9pfdk4dlIUACKcsQx7q4HMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvaX3ZOHZSFAAsNkqmBUUhrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIdyeU/pF8gQAJ88rBQaxoZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CnMQgsHKoHkACf/s6cM5IGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApzEILByqB5AAsl2vp8arxzAAAAAAAEbAAQICAQEAAAABAgEAAQEAAAACAwIDAQEAAAADBAEAAAAAAAAEBQEAAAAAAAAFBgIAAAAAAAAFBwEAAAAAAAAHCAIAAAAAAAAHCQEAAAAAAAAJCgEAAAAAAAAKCwEAAAAAAAALDAIDAQEAAAAMDQEAAQEAAAANDgICAQEAAAAODwEAAQEAAAAPAEQCAgEBAAAAAEQLAQABAQAAAAMAREEAAQEAAAAAREBEggIBAQAAAABEgAEAAQEAAAAAREBEwQAAAAAAAABEwEUCAwEBAAAAAEUARUEAAQEAAAAARUBFggIBAQAAAABFgEXBAAEBAAAAAEXARgICAQEAAAAARgBEwQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000022R0143031296S00073727P01812LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEZGAAAAPwIAPwAAgAAAAAAAPC/Arn8h/Tblx5AAv7UeOkm8SHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI2zTtO0VEgQAIijnVxG40iwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CAAAAAABgIUACoImw4en1IcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgAAAAAAYCFAAm1Wfa62wiDAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLPZtXnamsiQALsUbgehSsgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CowG8BRJ0I0ACnYAmwobHIMAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AqMBvAUSdCNAAtCzWfW5+iHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJzaJHtfH8kQAIcfGEyVTAgwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cc2iR7Xx/JEAC0ZFc/kP6HcAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AkcDeAskiCVAAs6qz9VWzCDAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIWak3zjpMmQAK+MJkqGDUgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C6gQ0ETacJ0ACcF8HzhnRIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArprCfmgpyhAAu5aQj7oOSDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKOBvAWSLApQAKgibDh6dUgwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CjgbwFkiwKUACRUdy+Q8JIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsPTK2UZoihAAlXBqKROoCLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLqBDQRNpwnQAKjkjoBTQQiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CLGUZ4lhXIEACSZ2AJsImIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Arn8h/Tblx5AAsuhRbbzvSDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIsZRniWFcgQAIs1JrmHecdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C9pfdk4dlIUACKcsQx7q4HMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvaX3ZOHZSFAAsNkqmBUUhrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIdyeU/pF8gQAJ88rBQaxoZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CnMQgsHKoHkACf/s6cM5IGsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApzEILByqB5AAsl2vp8arxzAAAAAAAEbAAQICAQEAAAABAgEAAQEAAAACAwIDAQEAAAADBAEAAAAAAAAEBQEAAAAAAAAFBgIAAAAAAAAFBwEAAAAAAAAHCAIAAAAAAAAHCQEAAAAAAAAJCgEAAAAAAAAKCwEAAAAAAAALDAIDAQEAAAAMDQEAAQEAAAANDgICAQEAAAAODwEAAQEAAAAPAEQCAgEBAAAAAEQLAQABAQAAAAMAREEAAQEAAAAAREBEggIBAQAAAABEgAEAAQEAAAAAREBEwQAAAAAAAABEwEUCAwEBAAAAAEUARUEAAQEAAAAARUBFggIBAQAAAABFgEXBAAEBAAAAAEXARgICAQEAAAAARgBEwQABAQAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -1027,7 +1029,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000023R0316611593S00073729P01608LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEWGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J48bBlAAgaBlUOLbBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIYJlMFo5IdQAKxv+yePGwQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CcayL22iAG0AC3nGKjuRyDsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjkh1AAlD8GHPX0hLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePGwZQAIv3SQGgdUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C4JwRpb2BG0AC9pfdk4cFFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ak0VjErqhBtAAu/Jw0KtaRbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLecYqO5HIZQAJyio7k8p8XwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8tJNYhBYF0ACIo51cRsNFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsgHPZtVXxdAAqabxCCwchbAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJKe4MvTKYfQAIvbqMBvAUUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CsHJoke3cIEACUPwYc9fSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkmdgCbC5iFAAi9uowG8BRTAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKwcmiR7dwgQAJ3LSEf9GwQwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C48eYu5bwIkACUPwYc9fSEsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AkmdgCbC5iFAAgg9m1WfaxbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLufD81XvojQAIvbqMBvAUUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Ch6dXyjIEJUACUPwYc9fSEsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AhUdyeU/JCVAAnE9CtejcBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIcfGEyVVAmQALD0ytlGeIPwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CfT81XrrpJkACv30dOGcEEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArFQa5p3HCZAAlwgQfFjzBPAAAAAAAEYFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAAJBwEAAQEAAAAICQICAQEAAAAHBgICAQEAAAAECAEAAQEAAAAFBgEAAQEAAAADCgEAAAAAAAAKCwEAAAAAAAALDAEAAAAAAAALDQIAAAAAAAAMDgEAAAAAAAAMDwIAAAAAAAAOAEQBAAAAAAAAAEQAREEAAAAAAAAARQBFQQABAQAAAABEwEUCAgEBAAAAAESARMEAAQEAAAAARIBEQQABAQAAAABFQERCAwEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00002C0000023R0143031296S00073729P01608LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEWGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J48bBlAAgaBlUOLbBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIYJlMFo5IdQAKxv+yePGwQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CcayL22iAG0AC3nGKjuRyDsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjkh1AAlD8GHPX0hLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePGwZQAIv3SQGgdUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C4JwRpb2BG0AC9pfdk4cFFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ak0VjErqhBtAAu/Jw0KtaRbAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLecYqO5HIZQAJyio7k8p8XwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8tJNYhBYF0ACIo51cRsNFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsgHPZtVXxdAAqabxCCwchbAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJKe4MvTKYfQAIvbqMBvAUUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CsHJoke3cIEACUPwYc9fSEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkmdgCbC5iFAAi9uowG8BRTAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKwcmiR7dwgQAJ3LSEf9GwQwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C48eYu5bwIkACUPwYc9fSEsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AkmdgCbC5iFAAgg9m1WfaxbAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLufD81XvojQAIvbqMBvAUUwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Ch6dXyjIEJUACUPwYc9fSEsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AhUdyeU/JCVAAnE9CtejcBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIcfGEyVVAmQALD0ytlGeIPwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CfT81XrrpJkACv30dOGcEEsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ArFQa5p3HCZAAlwgQfFjzBPAAAAAAAEYFAwEAAQEAAAAEBQICAQEAAAABAgEAAQEAAAAABAEAAQEAAAADAQICAQEAAAACAAICAQEAAAAJBwEAAQEAAAAICQICAQEAAAAHBgICAQEAAAAECAEAAQEAAAAFBgEAAQEAAAADCgEAAAAAAAAKCwEAAAAAAAALDAEAAAAAAAALDQIAAAAAAAAMDgEAAAAAAAAMDwIAAAAAAAAOAEQBAAAAAAAAAEQAREEAAAAAAAAARQBFQQABAQAAAABEwEUCAgEBAAAAAESARMEAAQEAAAAARIBEQQABAQAAAABFQERCAwEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -1040,7 +1042,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000024R0316611593S00000048P01672LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEXGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487CRAAg4tsp3vhyHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLl8h/Sb/8mQAJkzF1LyIchwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CETY8vVL2JUACAwmKH2PuIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXyH9Jv/yZAArPqc7UVuyLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePOwkQAIj2/l+arwiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CSS7/If32JUAChjjWxW1UI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akku/yH99iVAAoNRSZ2AhiTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLImLuWkO8kQALEsS5uoyElwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUkmdgCbiI0ACnDOitDdYI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlJJnYAm4iNAAl66SQwCiyTAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ+HThnRAkoQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AsTKUACs+pztRW7IsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAqMjufyHVCPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKJ0t7gCxMpQAJHA3gLJIghwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CuycPC7UmK0ACs+pztRW7IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAg8LtaZ5hyTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLG3LWEfDAsQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXwfOGVE6LUACs+pztRW7IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/Au58PzVeWi1AAkSLbOf7iSHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL129eBc4YuQAJ8YTJVMEohwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CVp+rrdgfL0ACayv2l91TIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aoqw4emVUi5AArn8h/TbNyPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLwp8ZLNwkoQALnHafoSO4gwAAAAAABGRQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAACQcBAAEBAAAACAkCAgEBAAAABwYCAgEBAAAABAgBAAEBAAAABQYBAAEBAAAAAwoBAAAAAAAACgsBAAAAAAAACwwBAAAAAAAACw0CAAAAAAAADA4BAAAAAAAADA8CAAAAAAAADgBEAQAAAAAAAABEAERBAAAAAAAAAEUARUEAAQEAAAAARMBFAgIBAQAAAABEgETBAAEBAAAAAESAREEAAQEAAAAARUBEQgMBAQAAAAEARYEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000024R0143031296S00000048P01672LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEXGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487CRAAg4tsp3vhyHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLl8h/Sb/8mQAJkzF1LyIchwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CETY8vVL2JUACAwmKH2PuIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXyH9Jv/yZAArPqc7UVuyLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePOwkQAIj2/l+arwiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CSS7/If32JUAChjjWxW1UI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akku/yH99iVAAoNRSZ2AhiTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLImLuWkO8kQALEsS5uoyElwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUkmdgCbiI0ACnDOitDdYI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlJJnYAm4iNAAl66SQwCiyTAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ+HThnRAkoQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AsTKUACs+pztRW7IsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAqMjufyHVCPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKJ0t7gCxMpQAJHA3gLJIghwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CuycPC7UmK0ACs+pztRW7IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAg8LtaZ5hyTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLG3LWEfDAsQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXwfOGVE6LUACs+pztRW7IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/Au58PzVeWi1AAkSLbOf7iSHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL129eBc4YuQAJ8YTJVMEohwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CVp+rrdgfL0ACayv2l91TIsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aoqw4emVUi5AArn8h/TbNyPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLwp8ZLNwkoQALnHafoSO4gwAAAAAABGRQMBAAEBAAAABAUCAgEBAAAAAQIBAAEBAAAAAAQBAAEBAAAAAwECAgEBAAAAAgACAgEBAAAACQcBAAEBAAAACAkCAgEBAAAABwYCAgEBAAAABAgBAAEBAAAABQYBAAEBAAAAAwoBAAAAAAAACgsBAAAAAAAACwwBAAAAAAAACw0CAAAAAAAADA4BAAAAAAAADA8CAAAAAAAADgBEAQAAAAAAAABEAERBAAAAAAAAAEUARUEAAQEAAAAARMBFAgIBAQAAAABEgETBAAEBAAAAAESAREEAAQEAAAAARUBEQgMBAQAAAAEARYEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -1053,7 +1055,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000025R0316611593S00000049P01740LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487CRAAg4tsp3vhyHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLl8h/Sb/8mQAJkzF1LyIchwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CETY8vVL2JUACAwmKH2PuIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXyH9Jv/yZAArPqc7UVuyLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePOwkQAIj2/l+arwiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CSS7/If32JUAChjjWxW1UI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akku/yH99iVAAoNRSZ2AhiTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLImLuWkO8kQALEsS5uoyElwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUkmdgCbiI0ACnDOitDdYI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlJJnYAm4iNAAl66SQwCiyTAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ+HThnRAkoQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AsTKUACs+pztRW7IsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAqMjufyHVCPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKJ0t7gCxMpQAJHA3gLJIghwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CuycPC7UmK0ACs+pztRW7IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAg8LtaZ5hyTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLG3LWEfDAsQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXwfOGVE6LUACs+pztRW7IsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvCnxks3CShAAucdp+hI7iDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLdJAaBlUMuQAKPwvUoXO8gwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CfPKwUGs6LUACRwN4CySIIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgXFjzF3TS9AApvmHafoiCHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKh1jTvOEUuQALaG3xhMlUjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CINJvXwdOL0ACXwfOGVG6IsAAAAAAARoUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAkHAQABAQAAAAgJAgIBAQAAAAcGAgIBAQAAAAQIAQABAQAAAAUGAQABAQAAAAMKAQAAAAAAAAoLAQAAAAAAAAsMAQAAAAAAAAsNAgAAAAAAAAwOAQAAAAAAAAwPAgAAAAAAAA4ARAEAAAAAAAAARABEQQAAAAAAAAEARIEAAAAAAAAARcBFQQABAQAAAABFgEXCAgEBAAAAAETARQEAAQEAAAAARUBEwgIBAQAAAABFAERCAwEBAAAAAERARYEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000025R0143031296S00000049P01740LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487CRAAg4tsp3vhyHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLl8h/Sb/8mQAJkzF1LyIchwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CETY8vVL2JUACAwmKH2PuIMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuXyH9Jv/yZAArPqc7UVuyLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePOwkQAIj2/l+arwiwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CSS7/If32JUAChjjWxW1UI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Akku/yH99iVAAoNRSZ2AhiTAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLImLuWkO8kQALEsS5uoyElwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CUkmdgCbiI0ACnDOitDdYI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlJJnYAm4iNAAl66SQwCiyTAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ+HThnRAkoQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CidLe4AsTKUACs+pztRW7IsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAqMjufyHVCPAAAAAACAAAAD8CAD8AAIAAAAAAADwvwKJ0t7gCxMpQAJHA3gLJIghwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CuycPC7UmK0ACs+pztRW7IsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AiL99nXgHCpAAg8LtaZ5hyTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwLG3LWEfDAsQAKjI7n8h1QjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CXwfOGVE6LUACs+pztRW7IsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AvCnxks3CShAAucdp+hI7iDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLdJAaBlUMuQAKPwvUoXO8gwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CfPKwUGs6LUACRwN4CySIIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgXFjzF3TS9AApvmHafoiCHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKh1jTvOEUuQALaG3xhMlUjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CINJvXwdOL0ACXwfOGVG6IsAAAAAAARoUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAkHAQABAQAAAAgJAgIBAQAAAAcGAgIBAQAAAAQIAQABAQAAAAUGAQABAQAAAAMKAQAAAAAAAAoLAQAAAAAAAAsMAQAAAAAAAAsNAgAAAAAAAAwOAQAAAAAAAAwPAgAAAAAAAA4ARAEAAAAAAAAARABEQQAAAAAAAAEARIEAAAAAAAAARcBFQQABAQAAAABFgEXCAgEBAAAAAETARQEAAQEAAAAARUBEwgIBAQAAAABFAERCAwEBAAAAAERARYEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -1066,7 +1068,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000026R0316611593S00000050P01740LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwIAPwAAgAAAAAAAPC/AkymCkYl1SRAAtXnaiv2NyLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/2T15WOgmQAIrhxbZzjciwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CrBxaZDvfJUACysNCrWmeIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An/ZPXlY6CZAAnqlLEMcayPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJMpgpGJdUkQALqlbIMcWwjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5BQdyeXfJUACTfOOU3QEJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuQUHcnl3yVAAkoMAiuHNiXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJjf9k9edgkQAKLbOf7qdElwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C7C+7Jw/LI0ACY+5aQj4IJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuwvuycPyyNAAiV1ApoIOyXAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIZBFYOLfInQAJq3nGKjgQkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJLn8h/T7KEACeqUsQxxrI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ar3jFB3JBSpAAmrecYqOBCTAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIkufyH9PsoQAIOvjCZKjgiwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CVg4tsp0PK0ACeqUsQxxrI8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/Ar3jFB3JBSpAAtbFbTSANyXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJhw9MrZRksQAJq3nGKjgQkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C+u3rwDkjLUACeqUsQxxrI8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AoqO5PIf8idAAq7YX3ZPniHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ4CyQofiwuQAJWfa62Yp8hwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C+u3rwDkjLUACDr4wmSo4IsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aru4jQbwNi9AAmKh1jTvOCLAAAAAABwAAAD8CAD8AAIAAAAAAADwvwI8vVKWIS4uQAKh1jTvOAUkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cu7iNBvA2L0ACJ8KGp1dqI8AAAAAAARoUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAkHAQABAQAAAAgJAgIBAQAAAAcGAgIBAQAAAAQIAQABAQAAAAUGAQABAQAAAAMKAQAAAAAAAAoLAQAAAAAAAAsMAQAAAAAAAAsNAgAAAAAAAAwOAQAAAAAAAAwPAgAAAAAAAA4ARAEAAAAAAAAARABEQQAAAAAAAAEARIEAAAAAAAAARcBFQQABAQAAAABFgEXCAgEBAAAAAETARQEAAQEAAAAARUBEwgIBAQAAAABFAERCAwEBAAAAAERARYEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000026R0143031296S00000050P01740LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwIAPwAAgAAAAAAAPC/AkymCkYl1SRAAtXnaiv2NyLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ/2T15WOgmQAIrhxbZzjciwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CrBxaZDvfJUACysNCrWmeIcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/An/ZPXlY6CZAAnqlLEMcayPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJMpgpGJdUkQALqlbIMcWwjwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5BQdyeXfJUACTfOOU3QEJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuQUHcnl3yVAAkoMAiuHNiXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJjf9k9edgkQAKLbOf7qdElwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C7C+7Jw/LI0ACY+5aQj4IJMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuwvuycPyyNAAiV1ApoIOyXAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIZBFYOLfInQAJq3nGKjgQkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJLn8h/T7KEACeqUsQxxrI8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ar3jFB3JBSpAAmrecYqOBCTAAAAAACAAAAD8CAD8AAIAAAAAAADwvwIkufyH9PsoQAIOvjCZKjgiwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CVg4tsp0PK0ACeqUsQxxrI8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/Ar3jFB3JBSpAAtbFbTSANyXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJhw9MrZRksQAJq3nGKjgQkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C+u3rwDkjLUACeqUsQxxrI8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AoqO5PIf8idAAq7YX3ZPniHAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ4CyQofiwuQAJWfa62Yp8hwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C+u3rwDkjLUACDr4wmSo4IsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aru4jQbwNi9AAmKh1jTvOCLAAAAAABwAAAD8CAD8AAIAAAAAAADwvwI8vVKWIS4uQAKh1jTvOAUkwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cu7iNBvA2L0ACJ8KGp1dqI8AAAAAAARoUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAkHAQABAQAAAAgJAgIBAQAAAAcGAgIBAQAAAAQIAQABAQAAAAUGAQABAQAAAAMKAQAAAAAAAAoLAQAAAAAAAAsMAQAAAAAAAAsNAgAAAAAAAAwOAQAAAAAAAAwPAgAAAAAAAA4ARAEAAAAAAAAARABEQQAAAAAAAAEARIEAAAAAAAAARcBFQQABAQAAAABFgEXCAgEBAAAAAETARQEAAQEAAAAARUBEwgIBAQAAAABFAERCAwEBAAAAAERARYEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -1079,7 +1081,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000027R0316611593S00000051P02012LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEcGAAAAPwIAPwAAgAAAAAAAPC/AnZPHhZqTRBAAr1SliGO9RrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ2Tx4Wak0QQAKPwvUoXI8YwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8IXJVMFoEkACKVyPwvVoF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap88LNSaZhRAAg1xrIvbqBjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKfPCzUmmYUQAI7AU2EDQ8bwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJQaBlUNLEkACoWez6nM1HMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvCFyVTBaBJAAvvL7snDAhXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIzMzMzM3MWQAIeFmpN804cwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C48eYu5aQFkACpgpGJXWCF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgRWDi2yXRhAAn9qvHSTGBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKkcD0K16MaQALc14FzRlQYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cat5xio7kF0AC3nGKjuRyG8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AsX+snvycBxAArU3+MJk6hnAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI+6Nms+hwbQAJ90LNZ9fkVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CgQTFjzG3HkACEqW9wRcmGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsPTK2UZQiBAAuoENBE2vBrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL2l92ThwUgQAJKDAIrhxYdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CB1+YTBXsIEACImx4eqWsHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlfsL7snDyJAAn/ZPXlY6B3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKyne+nxksiQAIg0m9fB44bwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CodY07zhlIUACZF3cRgP4GcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Amiz6nO19SJAAlg5tMh2fh/AAAAAABgAAAD8BAD8AAIAAAAAAADwvwJGtvP91BgkQALRkVz+Q7oewAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CV+wvuyePEEAC5/up8dKNE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiV1ApoIWxFAAgrXo3A9ShHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJTBaOSOsETQAIK16NwPUoRwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C4umVsgxxFEAChA1Pr5SlE8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Al1txf6y+w9AAsWPMXctoQ7AAAAAAAEeBAAICAQEAAAACAQEAAQEAAAADAgICAQEAAAAEAwEAAQEAAAAFBAICAQEAAAAABQEAAQEAAAACBgEAAAAAAAAEBwEAAAAAAAADCAEAAAAAAAAICQEAAAAAAAAJCgEAAAAAAAAJCwIAAAAAAAAKDAEAAAAAAAAKDQIAAAAAAAAMDgEAAAAAAAAODwEAAAAAAAAAREBEAQABAQAAAABEgERCAgEBAAAAAETARIEAAQEAAAAARQBEwgIBAQAAAABEDwIDAQEAAAAPAEUBAAEBAAAAAESARUEAAAAAAAAARUBFgQAAAAAAAABFwEYBAAEBAAAAAEYARkICAQEAAAAARkBGgQABAQAAAABFxgEAAQEAAAAARoYCAwEBAAAAAEYARsEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000027R0143031296S00000051P02012LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEcGAAAAPwIAPwAAgAAAAAAAPC/AnZPHhZqTRBAAr1SliGO9RrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJ2Tx4Wak0QQAKPwvUoXI8YwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C8IXJVMFoEkACKVyPwvVoF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Ap88LNSaZhRAAg1xrIvbqBjAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKfPCzUmmYUQAI7AU2EDQ8bwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CJQaBlUNLEkACoWez6nM1HMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvCFyVTBaBJAAvvL7snDAhXAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIzMzMzM3MWQAIeFmpN804cwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C48eYu5aQFkACpgpGJXWCF8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgRWDi2yXRhAAn9qvHSTGBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKkcD0K16MaQALc14FzRlQYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8Cat5xio7kF0AC3nGKjuRyG8AAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AsX+snvycBxAArU3+MJk6hnAAAAAACAAAAD8CAD8AAIAAAAAAADwvwI+6Nms+hwbQAJ90LNZ9fkVwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CgQTFjzG3HkACEqW9wRcmGcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsPTK2UZQiBAAuoENBE2vBrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwL2l92ThwUgQAJKDAIrhxYdwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CB1+YTBXsIEACImx4eqWsHsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AlfsL7snDyJAAn/ZPXlY6B3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwKyne+nxksiQAIg0m9fB44bwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CodY07zhlIUACZF3cRgP4GcAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Amiz6nO19SJAAlg5tMh2fh/AAAAAABgAAAD8BAD8AAIAAAAAAADwvwJGtvP91BgkQALRkVz+Q7oewAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CV+wvuyePEEAC5/up8dKNE8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AiV1ApoIWxFAAgrXo3A9ShHAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJTBaOSOsETQAIK16NwPUoRwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C4umVsgxxFEAChA1Pr5SlE8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Al1txf6y+w9AAsWPMXctoQ7AAAAAAAEeBAAICAQEAAAACAQEAAQEAAAADAgICAQEAAAAEAwEAAQEAAAAFBAICAQEAAAAABQEAAQEAAAACBgEAAAAAAAAEBwEAAAAAAAADCAEAAAAAAAAICQEAAAAAAAAJCgEAAAAAAAAJCwIAAAAAAAAKDAEAAAAAAAAKDQIAAAAAAAAMDgEAAAAAAAAODwEAAAAAAAAAREBEAQABAQAAAABEgERCAgEBAAAAAETARIEAAQEAAAAARQBEwgIBAQAAAABEDwIDAQEAAAAPAEUBAAEBAAAAAESARUEAAAAAAAAARUBFgQAAAAAAAABFwEYBAAEBAAAAAEYARkICAQEAAAAARkBGgQABAQAAAABFxgEAAQEAAAAARoYCAwEBAAAAAEYARsEAAAAAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -1092,7 +1094,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000028R0316611593S00000052P01732LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487BVAAgaBlUOLLBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIYJlMFoxIaQAKxv+yePCwQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CcayL22gAGEAC3nGKjuTyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjEhpAAlD8GHPXkhLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePOwVQAIv3SQGgZUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C4JwRpb0BGEAC9pfdk4fFE8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/An9qvHST2BNAAio6kst/yBPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJxrIvbaAAYQAIs1JrmHScJwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CW0I+6NnsFUACb/CFyVTBBsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Akp7gy9MJhxAAi9uowG8xRPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJKe4MvTCYcQAIIPZtVnysWwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CSnuDL0wmHEACbcX+snvyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmDl0CLbOR5AArG/7J48LBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJJnYAmwiYgQAJtxf6ye/INwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CYOXQIts5HkACio7k8h+SEsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AkmdgCbCJiBAAvT91HjpJgnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLjx5i7ljAhQAKxv+yePCwQwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C7nw/NV46IkACbcX+snvyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoenV8oyRCNAArG/7J48LBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK7uI0G8FYlQAJd/kP67SsQwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CrkfhehROJEAC3nGKjuTyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aru4jQbwViVAAlK4HoXrkRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKHp1fKMkQjQAJNhA1Pr5QSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5j+k375OJEACv30dOGfEE8AAAAAAARkUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAQGAQAAAAAAAAIHAQAAAAAAAAcIAQAAAAAAAAMJAQAAAAAAAAkKAQAAAAAAAAELAQAAAAAAAAsMAQAAAAAAAAwNAQAAAAAAAAwOAgAAAAAAAA0PAgAAAAAAAA0ARAEAAAAAAAAARABEQQAAAAAAAABEQESBAAAAAAAAAEXARUEAAQEAAAAARYBFwgIBAQAAAABEwEUBAAEBAAAAAEVARMICAQEAAAAARQBEggMBAQAAAABEgEWBAAEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
+          <t>Insight iXlW00002C0000028R0143031296S00000052P01732LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEYGAAAAPwIAPwAAgAAAAAAAPC/ArG/7J487BVAAgaBlUOLLBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIYJlMFoxIaQAKxv+yePCwQwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CcayL22gAGEAC3nGKjuTyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhgmUwWjEhpAAlD8GHPXkhLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKxv+yePOwVQAIv3SQGgZUSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C4JwRpb0BGEAC9pfdk4fFE8AAAAAAGAAAAPwEAPwAAgAAAAAAAPC/An9qvHST2BNAAio6kst/yBPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJxrIvbaAAYQAIs1JrmHScJwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8CW0I+6NnsFUACb/CFyVTBBsAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/Akp7gy9MJhxAAi9uowG8xRPAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJKe4MvTCYcQAIIPZtVnysWwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CSnuDL0wmHEACbcX+snvyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AmDl0CLbOR5AArG/7J48LBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJJnYAmwiYgQAJtxf6ye/INwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CYOXQIts5HkACio7k8h+SEsAAAAAAIAAAAPwIAPwAAgAAAAAAAPC/AkmdgCbCJiBAAvT91HjpJgnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwLjx5i7ljAhQAKxv+yePCwQwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C7nw/NV46IkACbcX+snvyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AoenV8oyRCNAArG/7J48LBDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK7uI0G8FYlQAJd/kP67SsQwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CrkfhehROJEAC3nGKjuTyDcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aru4jQbwViVAAlK4HoXrkRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKHp1fKMkQjQAJNhA1Pr5QSwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5j+k375OJEACv30dOGfEE8AAAAAAARkUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAQGAQAAAAAAAAIHAQAAAAAAAAcIAQAAAAAAAAMJAQAAAAAAAAkKAQAAAAAAAAELAQAAAAAAAAsMAQAAAAAAAAwNAQAAAAAAAAwOAgAAAAAAAA0PAgAAAAAAAA0ARAEAAAAAAAAARABEQQAAAAAAAABEQESBAAAAAAAAAEXARUEAAQEAAAAARYBFwgIBAQAAAABEwEUBAAEBAAAAAEVARMICAQEAAAAARQBEggMBAQAAAABEgEWBAAEBAAAAAAAAQAAAAAAAAAAAAAAAAAAAAAAAAAAAA==</t>
         </r>
       </text>
     </comment>
@@ -1105,7 +1107,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000029R0316611593S00000053P01184LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEQHAAAAPwIAPwAAgAAAAAAAPC/Ao51cRsNIBVAAgAAAAAAwBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIydy0hHzQXQALNzMzMzIwYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMnctIR80F0AC9P3UeOkmFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkjhehSuRxlAAqs+V1uxvxnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ6Nqs+V1sbQALNzMzMzIwYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CSOF6FK5HGUAChA1Pr5QlHMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjDBNAAiKOdXEbjRjAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKsi9toAG8dQAKrPldbsb8ZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5fIf0m+fH0ACoBov3STGGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsxdS8gHnSBAAjy9UpYhjhrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJrmnecogMgQAIaUdobfKEcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CyXa+nxqvHUACi/1l9+QhHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgfOGVHa2xBAAi2yne+nhhnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLf4AuTqYIOQAKRD3o2q74XwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CFYxK6gR0EEACs3vysFCrFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJzBJAAkLPZtXnKhbAAAAAAAERAAQEAAAAAAAABAgIAAAAAAAABAwEAAAAAAAADBAEAAAAAAAADBQIAAAAAAAAABgEAAAAAAAAEBwEAAAAAAAAKCwICAQEAAAAJCgEAAQEAAAAICQICAQEAAAAIBwEAAQEAAAALBwEAAQEAAAAODwICAQEAAAANDgEAAQEAAAAMDQICAQEAAAAMBgEAAQEAAAAPBgEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
+          <t>Insight iXlW00002C0000029R0143031296S00000053P01184LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEQHAAAAPwIAPwAAgAAAAAAAPC/Ao51cRsNIBVAAgAAAAAAwBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIydy0hHzQXQALNzMzMzIwYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CMnctIR80F0AC9P3UeOkmFsAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AkjhehSuRxlAAqs+V1uxvxnAAAAAABwAAAD8CAD8AAIAAAAAAADwvwJ6Nqs+V1sbQALNzMzMzIwYwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8CSOF6FK5HGUAChA1Pr5QlHMAAAAAAHAAAAPwIAPwAAgAAAAAAAPC/AlwgQfFjDBNAAiKOdXEbjRjAAAAAABwAAAD8CAD8AAIAAAAAAADwvwKsi9toAG8dQAKrPldbsb8ZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C5fIf0m+fH0ACoBov3STGGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsxdS8gHnSBAAjy9UpYhjhrAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJrmnecogMgQAIaUdobfKEcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CyXa+nxqvHUACi/1l9+QhHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AgfOGVHa2xBAAi2yne+nhhnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLf4AuTqYIOQAKRD3o2q74XwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CFYxK6gR0EEACs3vysFCrFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJzBJAAkLPZtXnKhbAAAAAAAERAAQEAAAAAAAABAgIAAAAAAAABAwEAAAAAAAADBAEAAAAAAAADBQIAAAAAAAAABgEAAAAAAAAEBwEAAAAAAAAKCwICAQEAAAAJCgEAAQEAAAAICQICAQEAAAAIBwEAAQEAAAALBwEAAQEAAAAODwICAQEAAAANDgEAAQEAAAAMDQICAQEAAAAMBgEAAQEAAAAPBgEAAQEAAAAAAABAAAAAAAAAAAAAAAAAAAAAAAAAAAA</t>
         </r>
       </text>
     </comment>
@@ -1118,7 +1120,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000030R0316611593S00000054P01468LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAgEUHAAAAPwEAPwAAgAAAAAAAPC/Au2ePCzUGhBAAm40gLdAAhTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIWak3zjlMMQAIp7Q2+MJkSwAAAAAAYCAAA/AQA/AACAAAAAAAA8L8Cc9cS8kHPDUACG55eKctQEMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AiDSb18HThFAAhueXinLUBDAAAAAABgMAAD8BAD8AAIAAAAAAADwvwLOiNLe4AsSQAIp7Q2+MJkSwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CsHJoke38CkACc2iR7Xy/DMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtzXgXNGVBRAAtejcD0KVxPAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIGEhQ/xhwWQAKWQ4ts57sRwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8ChxbZzvfTFEACx7q4jQawFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhNhw9MrZRhAAkT67evAeRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJZhjjWxS0aQAICmggbnt4QwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CS+oENBF2HEACzTtO0ZGcEcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvYoXI/C9RxAAqFns+pz9RPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLM7snDQi0bQALjx5i7lpAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cvp8aL93kGEACNBE2PL3SFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApJc/kP6rRlAAl3cRgN4Cw3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwLYgXNGlHYbQALaG3xhMtUJwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CyeU/pN++HUACN4lBYOVQC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApEPejarPh5AAozbaABvARDAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJ4eqUsQxwXQAJ2cRsN4G0WwAAAAAABFgAEBAAEAAAAAAQIBAAEAAAAAAgMBAAEAAAAAAwQBAAEAAAAABAABAAEAAAAAAgUBBQAAAAAABAYBBAAAAAAABgcBAAAAAAAABggCAAAAAAAABwkBAAAAAAAACwoBAAEBAAAADAsCAgEBAAAADQwBAAEBAAAADg0CAgEBAAAACgkCAwEBAAAACQ4BAAEBAAAAAEQPAgIBAQAAAABEQEQBAAEBAAAAAESAREICAQEAAAALAESBAAEBAAAACg8BAAEBAAAADgBEwQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000030R0143031296S00000054P01468LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIBAgEUHAAAAPwEAPwAAgAAAAAAAPC/Au2ePCzUGhBAAm40gLdAAhTAAAAAABgAAAD8BAD8AAIAAAAAAADwvwIWak3zjlMMQAIp7Q2+MJkSwAAAAAAYCAAA/AQA/AACAAAAAAAA8L8Cc9cS8kHPDUACG55eKctQEMAAAAAAGAAAAPwEAPwAAgAAAAAAAPC/AiDSb18HThFAAhueXinLUBDAAAAAABgMAAD8BAD8AAIAAAAAAADwvwLOiNLe4AsSQAIp7Q2+MJkSwAAAAAAgAAAA/AQA/AACAAAAAAAA8L8CsHJoke38CkACc2iR7Xy/DMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AtzXgXNGVBRAAtejcD0KVxPAAAAAABwAAAD8CAD8AAIAAAAAAADwvwIGEhQ/xhwWQAKWQ4ts57sRwAAAAAAgAAAA/AgA/AACAAAAAAAA8L8ChxbZzvfTFEACx7q4jQawFcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AhNhw9MrZRhAAkT67evAeRLAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJZhjjWxS0aQAICmggbnt4QwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CS+oENBF2HEACzTtO0ZGcEcAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AvYoXI/C9RxAAqFns+pz9RPAAAAAABgAAAD8CAD8AAIAAAAAAADwvwLM7snDQi0bQALjx5i7lpAVwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8Cvp8aL93kGEACNBE2PL3SFMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApJc/kP6rRlAAl3cRgN4Cw3AAAAAABgAAAD8CAD8AAIAAAAAAADwvwLYgXNGlHYbQALaG3xhMtUJwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CyeU/pN++HUACN4lBYOVQC8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/ApEPejarPh5AAozbaABvARDAAAAAABgAAAD8BAD8AAIAAAAAAADwvwJ4eqUsQxwXQAJ2cRsN4G0WwAAAAAABFgAEBAAEAAAAAAQIBAAEAAAAAAgMBAAEAAAAAAwQBAAEAAAAABAABAAEAAAAAAgUBBQAAAAAABAYBBAAAAAAABgcBAAAAAAAABggCAAAAAAAABwkBAAAAAAAACwoBAAEBAAAADAsCAgEBAAAADQwBAAEBAAAADg0CAgEBAAAACgkCAwEBAAAACQ4BAAEBAAAAAEQPAgIBAQAAAABEQEQBAAEBAAAAAESAREICAQEAAAALAESBAAEBAAAACg8BAAEBAAAADgBEwQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -1131,7 +1133,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Insight iXlW00002C0000031R0316611593S00000055P01536LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEVGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJzBVAAngLJCh+TBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsPIZQAIjSnuDL0wZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nXgF0ACYcPTK2UZGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hlAAsKGp1fKshvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI/NV66ScwVQAK9UpYhjrUbwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CbxKDwMrhF0ACaCJseHrlHMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Av8h/fZ14BdAAqTfvg6csxXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK8BRIUPwYcQAKh+DHmruUcwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C7lpCPugZHkACwoanV8qyG8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/ArwFEhQ/BhxAAnrHKTqSSx/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIQWDm0yBYgQAKh+DHmruUcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CRGlv8IUpIkACaCJseHrlHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqqCUUmdICFAAt5xio7kshvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJEaW/whSkiQAJd3EYDeEsfwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CEFg5tMgWIEACWKg1zTtOH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuF6FK5HISFAAuXQItv5PiDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI3GsBbICEhQAIbnl4py1AZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CmEwVjEoqIkACdEaU9gYfGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsHKoUW2MyNAAm3F/rJ7shvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIZBFYOLTIjQAICK4cW2U4ZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C7lpCPugZHkACGw3gLZBAIMAAAAAAARcUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAIGAQAAAAAAAAMHAQAAAAAAAAcIAQAAAAAAAAcJAgAAAAAAAAgKAQAAAAAAAA8NAQABAQAAAA4PAgIBAQAAAAsMAQABAQAAAA0LAgIBAQAAAAwKAgMBAQAAAAoOAQABAQAAAABEwERBAAEBAAAAAESARMICAQEAAAAAREBEAgIBAQAAAAsARIEAAQEAAAAMAEQBAAEBAAAADgBFAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
+          <t>Insight iXlW00002C0000031R0143031296S00000055P01536LAocjBAQBF1NjaVRlZ2ljLmRhdGEuTW9sZWN1bGUBbQF/ARJTY2lUZWdpYy5Nb2xlY3VsZQAAAQFkAv5qAQAAAAIAAgEVGAAAAPwIAPwAAgAAAAAAAPC/Aj81XrpJzBVAAngLJCh+TBnAAAAAABgAAAD8CAD8AAIAAAAAAADwvwKmm8QgsPIZQAIjSnuDL0wZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8C/yH99nXgF0ACYcPTK2UZGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqabxCCw8hlAAsKGp1fKshvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI/NV66ScwVQAK9UpYhjrUbwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8CbxKDwMrhF0ACaCJseHrlHMAAAAAAIAAAAPwEAPwAAgAAAAAAAPC/Av8h/fZ14BdAAqTfvg6csxXAAAAAABgAAAD8CAD8AAIAAAAAAADwvwK8BRIUPwYcQAKh+DHmruUcwAAAAAAcAAAA/AgA/AACAAAAAAAA8L8C7lpCPugZHkACwoanV8qyG8AAAAAAIAAAAPwIAPwAAgAAAAAAAPC/ArwFEhQ/BhxAAnrHKTqSSx/AAAAAABgAAAD8CAD8AAIAAAAAAADwvwIQWDm0yBYgQAKh+DHmruUcwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CRGlv8IUpIkACaCJseHrlHMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AqqCUUmdICFAAt5xio7kshvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwJEaW/whSkiQAJd3EYDeEsfwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CEFg5tMgWIEACWKg1zTtOH8AAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AuF6FK5HISFAAuXQItv5PiDAAAAAABgAAAD8CAD8AAIAAAAAAADwvwI3GsBbICEhQAIbnl4py1AZwAAAAAAYAAAA/AgA/AACAAAAAAAA8L8CmEwVjEoqIkACdEaU9gYfGMAAAAAAGAAAAPwIAPwAAgAAAAAAAPC/AsHKoUW2MyNAAm3F/rJ7shvAAAAAABgAAAD8CAD8AAIAAAAAAADwvwIZBFYOLTIjQAICK4cW2U4ZwAAAAAAYAAAA/AQA/AACAAAAAAAA8L8C7lpCPugZHkACGw3gLZBAIMAAAAAAARcUDAQABAQAAAAQFAgIBAQAAAAECAQABAQAAAAAEAQABAQAAAAMBAgIBAQAAAAIAAgIBAQAAAAIGAQAAAAAAAAMHAQAAAAAAAAcIAQAAAAAAAAcJAgAAAAAAAAgKAQAAAAAAAA8NAQABAQAAAA4PAgIBAQAAAAsMAQABAQAAAA0LAgIBAQAAAAwKAgMBAQAAAAoOAQABAQAAAABEwERBAAEBAAAAAESARMICAQEAAAAAREBEAgIBAQAAAAsARIEAAQEAAAAMAEQBAAEBAAAADgBFAQAAAAAAAAAAAEAAAAAAAAAAAAAAAAAAAAAAAAAAAA=</t>
         </r>
       </text>
     </comment>
@@ -1140,7 +1142,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="866">
   <si>
     <t>Green solvents</t>
   </si>
@@ -6166,6 +6168,60 @@
   </si>
   <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>image1_1</t>
+  </si>
+  <si>
+    <t>image1_2</t>
+  </si>
+  <si>
+    <t>image1_3</t>
+  </si>
+  <si>
+    <t>image2_1</t>
+  </si>
+  <si>
+    <t>image2_2</t>
+  </si>
+  <si>
+    <t>image2_3</t>
+  </si>
+  <si>
+    <t>tip_value_1</t>
+  </si>
+  <si>
+    <t>tip_value_2</t>
+  </si>
+  <si>
+    <t>tip_value_3</t>
+  </si>
+  <si>
+    <t>tip_value_4</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>T3P</t>
+  </si>
+  <si>
+    <t>tip_value_5</t>
+  </si>
+  <si>
+    <t>tip_category_1</t>
+  </si>
+  <si>
+    <t>tip_category_2</t>
+  </si>
+  <si>
+    <t>tip_category_3</t>
+  </si>
+  <si>
+    <t>tip_category_4</t>
+  </si>
+  <si>
+    <t>tip_category_5</t>
   </si>
 </sst>
 </file>
@@ -6456,7 +6512,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6541,8 +6597,20 @@
         <bgColor theme="6" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="7"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -6873,12 +6941,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA6A6A6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="231">
+  <cellXfs count="239">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7411,6 +7524,30 @@
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="15" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -14112,6 +14249,123 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>236220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>998220</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60417" name="Object 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s60417"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001EC0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1247775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74429B7-3B67-42DB-06ED-CED98FF3B31C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1000125" y="1590675"/>
+          <a:ext cx="3086100" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -14163,7 +14417,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -14218,7 +14472,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -14535,7 +14789,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -14652,7 +14906,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -14769,7 +15023,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -15098,7 +15352,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -15565,7 +15819,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -15620,7 +15874,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -15653,61 +15907,6 @@
         <a:xfrm>
           <a:off x="4238625" y="0"/>
           <a:ext cx="5735955" cy="727710"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing19.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>487680</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1068229</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>365760</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Object 8" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s65544"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAECB69-CEA4-4DC9-8ACB-E5486B1C4327}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="678180" y="1524000"/>
-          <a:ext cx="5735955" cy="746760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -16148,6 +16347,61 @@
 </file>
 
 <file path=xl/drawings/drawing20.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1068229</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>365760</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Object 8" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s65544"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CAECB69-CEA4-4DC9-8ACB-E5486B1C4327}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="678180" y="1524000"/>
+          <a:ext cx="5735955" cy="746760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -16597,7 +16851,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -16714,7 +16968,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -16831,7 +17085,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -17498,7 +17752,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -18769,6 +19023,123 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1051560</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Object 1" hidden="1">
+          <a:extLst>
+            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s2049"/>
+            </a:ext>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26AAA0A0-68F7-44A0-92D0-7C15E5CDC328}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="746760" y="1531620"/>
+          <a:ext cx="3924300" cy="792480"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>909638</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>21430</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1528763</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>40480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A5993D1-AFB8-45B5-ADCD-8697342784BC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="909638" y="6903243"/>
+          <a:ext cx="4048125" cy="971550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>556260</xdr:colOff>
       <xdr:row>0</xdr:row>
@@ -18865,7 +19236,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -19100,7 +19471,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -19200,7 +19571,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -19300,7 +19671,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -19417,7 +19788,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -19624,123 +19995,6 @@
         <a:xfrm>
           <a:off x="1962150" y="8143875"/>
           <a:ext cx="6219825" cy="1209675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>236220</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>998220</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60417" name="Object 1" hidden="1">
-          <a:extLst>
-            <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-              <a14:compatExt xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" spid="_x0000_s60417"/>
-            </a:ext>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000001EC0000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>809625</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>295275</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1247775</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E74429B7-3B67-42DB-06ED-CED98FF3B31C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1000125" y="1590675"/>
-          <a:ext cx="3086100" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -20737,10 +20991,10 @@
       <c r="L1"/>
     </row>
     <row r="2" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="191" t="s">
+      <c r="B2" s="199" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="192"/>
+      <c r="C2" s="200"/>
     </row>
     <row r="3" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E3"/>
@@ -21375,11 +21629,11 @@
       <c r="L24"/>
     </row>
     <row r="25" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="193" t="s">
+      <c r="B25" s="201" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="193"/>
-      <c r="D25" s="193"/>
+      <c r="C25" s="201"/>
+      <c r="D25" s="201"/>
       <c r="F25" s="95" t="s">
         <v>125</v>
       </c>
@@ -21389,11 +21643,11 @@
       <c r="L25"/>
     </row>
     <row r="26" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="193" t="s">
+      <c r="B26" s="201" t="s">
         <v>126</v>
       </c>
-      <c r="C26" s="193"/>
-      <c r="D26" s="193"/>
+      <c r="C26" s="201"/>
+      <c r="D26" s="201"/>
       <c r="F26" s="94" t="s">
         <v>127</v>
       </c>
@@ -21402,11 +21656,11 @@
       <c r="L26"/>
     </row>
     <row r="27" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="193" t="s">
+      <c r="B27" s="201" t="s">
         <v>128</v>
       </c>
-      <c r="C27" s="193"/>
-      <c r="D27" s="193"/>
+      <c r="C27" s="201"/>
+      <c r="D27" s="201"/>
       <c r="F27" s="96" t="s">
         <v>129</v>
       </c>
@@ -21462,6 +21716,541 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3ABE78-F95F-4678-A443-804E4DF4AECE}">
+  <sheetPr>
+    <tabColor theme="8" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:U25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.7109375" customWidth="1"/>
+    <col min="6" max="7" width="30.7109375" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1"/>
+    <col min="9" max="9" width="38.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="50.7109375" customWidth="1"/>
+    <col min="12" max="12" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" customWidth="1"/>
+    <col min="16" max="16" width="18.42578125" customWidth="1"/>
+    <col min="19" max="19" width="13.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="210" t="s">
+        <v>305</v>
+      </c>
+      <c r="C2" s="211"/>
+      <c r="I2" s="34"/>
+    </row>
+    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="34"/>
+    </row>
+    <row r="5" spans="2:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="F7" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="22" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J8" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
+        <v>2</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>324</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C14" s="23"/>
+      <c r="F14" s="13"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="F15" s="13"/>
+      <c r="I15"/>
+    </row>
+    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="F16" s="13"/>
+      <c r="I16"/>
+    </row>
+    <row r="17" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="64"/>
+      <c r="C17" s="64"/>
+      <c r="F17" s="13"/>
+      <c r="I17"/>
+    </row>
+    <row r="19" spans="2:21" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="B19" s="114" t="s">
+        <v>180</v>
+      </c>
+      <c r="C19" s="114" t="s">
+        <v>181</v>
+      </c>
+      <c r="D19" s="114" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" s="114" t="s">
+        <v>332</v>
+      </c>
+      <c r="F19" s="114" t="s">
+        <v>333</v>
+      </c>
+      <c r="G19" s="114" t="s">
+        <v>334</v>
+      </c>
+      <c r="H19" s="114" t="s">
+        <v>335</v>
+      </c>
+      <c r="I19" s="114" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="114" t="s">
+        <v>187</v>
+      </c>
+      <c r="K19" s="114" t="s">
+        <v>188</v>
+      </c>
+      <c r="L19" s="114" t="s">
+        <v>336</v>
+      </c>
+      <c r="M19" s="114" t="s">
+        <v>337</v>
+      </c>
+      <c r="N19" s="114" t="s">
+        <v>191</v>
+      </c>
+      <c r="O19" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="P19" s="114" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="R19" s="114" t="s">
+        <v>269</v>
+      </c>
+      <c r="S19" s="114" t="s">
+        <v>138</v>
+      </c>
+      <c r="T19" s="114" t="s">
+        <v>139</v>
+      </c>
+      <c r="U19" s="114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="115" t="s">
+        <v>197</v>
+      </c>
+      <c r="C20" s="115" t="s">
+        <v>198</v>
+      </c>
+      <c r="D20" s="116">
+        <v>1</v>
+      </c>
+      <c r="E20" s="117" t="s">
+        <v>338</v>
+      </c>
+      <c r="F20" s="117" t="s">
+        <v>339</v>
+      </c>
+      <c r="G20" s="117">
+        <v>1</v>
+      </c>
+      <c r="H20" s="115" t="s">
+        <v>340</v>
+      </c>
+      <c r="I20" s="115">
+        <v>0.05</v>
+      </c>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115" t="s">
+        <v>341</v>
+      </c>
+      <c r="O20" s="115">
+        <v>3</v>
+      </c>
+      <c r="P20" s="115" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q20" s="115">
+        <v>12.5</v>
+      </c>
+      <c r="R20" s="118" t="s">
+        <v>343</v>
+      </c>
+      <c r="S20" s="119" t="s">
+        <v>329</v>
+      </c>
+      <c r="T20" s="115" t="s">
+        <v>330</v>
+      </c>
+      <c r="U20" s="120" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="2:21" ht="63" x14ac:dyDescent="0.25">
+      <c r="B21" s="121" t="s">
+        <v>197</v>
+      </c>
+      <c r="C21" s="121" t="s">
+        <v>198</v>
+      </c>
+      <c r="D21" s="122">
+        <v>1</v>
+      </c>
+      <c r="E21" s="117" t="s">
+        <v>338</v>
+      </c>
+      <c r="F21" s="123" t="s">
+        <v>345</v>
+      </c>
+      <c r="G21" s="123">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="121" t="s">
+        <v>346</v>
+      </c>
+      <c r="I21" s="121">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J21" s="121" t="s">
+        <v>347</v>
+      </c>
+      <c r="K21" s="121">
+        <v>0.125</v>
+      </c>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="121"/>
+      <c r="P21" s="121" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q21" s="121">
+        <v>5</v>
+      </c>
+      <c r="R21" s="118" t="s">
+        <v>349</v>
+      </c>
+      <c r="S21" s="119" t="s">
+        <v>318</v>
+      </c>
+      <c r="T21" s="121"/>
+      <c r="U21" s="124"/>
+    </row>
+    <row r="22" spans="2:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="115" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="115" t="s">
+        <v>203</v>
+      </c>
+      <c r="D22" s="116">
+        <v>2</v>
+      </c>
+      <c r="E22" s="117" t="s">
+        <v>338</v>
+      </c>
+      <c r="F22" s="117" t="s">
+        <v>339</v>
+      </c>
+      <c r="G22" s="117">
+        <v>1.8</v>
+      </c>
+      <c r="H22" s="115" t="s">
+        <v>350</v>
+      </c>
+      <c r="I22" s="115">
+        <v>0.03</v>
+      </c>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115" t="s">
+        <v>351</v>
+      </c>
+      <c r="M22" s="115">
+        <v>0.05</v>
+      </c>
+      <c r="N22" s="115" t="s">
+        <v>352</v>
+      </c>
+      <c r="O22" s="115">
+        <v>0.12</v>
+      </c>
+      <c r="P22" s="115" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q22" s="115">
+        <v>10</v>
+      </c>
+      <c r="R22" s="118" t="s">
+        <v>153</v>
+      </c>
+      <c r="S22" s="125" t="s">
+        <v>322</v>
+      </c>
+      <c r="T22" s="126"/>
+      <c r="U22" s="127"/>
+    </row>
+    <row r="23" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="121"/>
+      <c r="C23" s="121"/>
+      <c r="D23" s="122"/>
+      <c r="E23" s="123"/>
+      <c r="F23" s="123"/>
+      <c r="G23" s="123"/>
+      <c r="H23" s="121"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="121"/>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="121"/>
+      <c r="P23" s="121"/>
+      <c r="Q23" s="121"/>
+      <c r="R23" s="118"/>
+      <c r="S23" s="119"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="121"/>
+    </row>
+    <row r="24" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="115"/>
+      <c r="Q24" s="115"/>
+      <c r="R24" s="118"/>
+      <c r="S24" s="119"/>
+      <c r="T24" s="126"/>
+      <c r="U24" s="120"/>
+    </row>
+    <row r="25" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="122"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="123"/>
+      <c r="G25" s="123"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
+      <c r="K25" s="121"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="121"/>
+      <c r="N25" s="121"/>
+      <c r="O25" s="121"/>
+      <c r="P25" s="121"/>
+      <c r="Q25" s="121"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="119"/>
+      <c r="T25" s="128"/>
+      <c r="U25" s="124"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I9" r:id="rId1" display="Angew. Chem. Int. Ed. 2013, 52, 10035-10039" xr:uid="{C40B3D0C-A990-42E3-AEE2-F3C1414733F6}"/>
+    <hyperlink ref="I10" r:id="rId2" display="Synlett. 2003, 14, 2237-2239" xr:uid="{670C4349-A103-4454-9F35-2C052C3ED2F1}"/>
+    <hyperlink ref="I11" r:id="rId3" xr:uid="{50E8C56D-0AED-4E9F-AFC3-31F917B41EB7}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E01359A7-824D-4840-9B8A-E4DC38594903}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -21760,7 +22549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD3206A-2102-420B-8CEC-CF291EB96083}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -21969,7 +22758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8618631-8389-4819-A299-D021454D974A}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -21993,10 +22782,10 @@
   <sheetData>
     <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="206" t="s">
         <v>358</v>
       </c>
-      <c r="C2" s="199"/>
+      <c r="C2" s="207"/>
     </row>
     <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -22083,48 +22872,48 @@
       <c r="F11" s="63"/>
     </row>
     <row r="12" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="195"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="195"/>
-      <c r="F12" s="195"/>
+      <c r="B12" s="203"/>
+      <c r="C12" s="203"/>
+      <c r="D12" s="203"/>
+      <c r="E12" s="203"/>
+      <c r="F12" s="203"/>
     </row>
     <row r="13" spans="2:12" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="C13" s="201" t="str">
+      <c r="C13" s="209" t="str">
         <f>"triphenylphosphine"</f>
         <v>triphenylphosphine</v>
       </c>
-      <c r="D13" s="201"/>
-      <c r="E13" s="201" t="str">
+      <c r="D13" s="209"/>
+      <c r="E13" s="209" t="str">
         <f>"DIAD"</f>
         <v>DIAD</v>
       </c>
-      <c r="F13" s="201"/>
+      <c r="F13" s="209"/>
     </row>
     <row r="14" spans="2:12" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="201" t="str">
+      <c r="C14" s="209" t="str">
         <f>"triphenylphosphine oxide"</f>
         <v>triphenylphosphine oxide</v>
       </c>
-      <c r="D14" s="201"/>
-      <c r="E14" s="201" t="str">
+      <c r="D14" s="209"/>
+      <c r="E14" s="209" t="str">
         <f>"reduced DIAD"</f>
         <v>reduced DIAD</v>
       </c>
-      <c r="F14" s="201"/>
+      <c r="F14" s="209"/>
     </row>
     <row r="15" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="197"/>
-      <c r="C15" s="197"/>
-      <c r="D15" s="197"/>
-      <c r="E15" s="197"/>
-      <c r="F15" s="197"/>
+      <c r="B15" s="205"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="205"/>
+      <c r="F15" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -22146,7 +22935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FAD3E2-5509-4D2B-BF16-4F25D03A3CFF}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -22171,10 +22960,10 @@
   <sheetData>
     <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="210" t="s">
         <v>369</v>
       </c>
-      <c r="C2" s="203"/>
+      <c r="C2" s="211"/>
     </row>
     <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -22327,11 +23116,11 @@
       <c r="B15" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C15" s="204" t="s">
+      <c r="C15" s="212" t="s">
         <v>386</v>
       </c>
-      <c r="D15" s="204"/>
-      <c r="E15" s="204"/>
+      <c r="D15" s="212"/>
+      <c r="E15" s="212"/>
     </row>
     <row r="16" spans="2:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="64"/>
@@ -22358,7 +23147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBF58E87-B8EA-4ABC-82A4-F1DF23DC6FD8}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -22385,10 +23174,10 @@
   <sheetData>
     <row r="1" spans="2:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="198" t="s">
+      <c r="B2" s="206" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="199"/>
+      <c r="C2" s="207"/>
       <c r="H2" s="34"/>
     </row>
     <row r="3" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -22556,7 +23345,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A15AD4E4-613E-4699-9F86-225D3575D288}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -22586,10 +23375,10 @@
   <sheetData>
     <row r="1" spans="2:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="210" t="s">
         <v>399</v>
       </c>
-      <c r="C2" s="203"/>
+      <c r="C2" s="211"/>
       <c r="J2" s="34"/>
     </row>
     <row r="3" spans="2:13" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -22877,9 +23666,9 @@
       <c r="J17"/>
     </row>
     <row r="18" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="195"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="195"/>
+      <c r="B18" s="203"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
       <c r="G18" s="13"/>
       <c r="J18"/>
     </row>
@@ -22887,17 +23676,17 @@
       <c r="B19" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="C19" s="207" t="s">
+      <c r="C19" s="215" t="s">
         <v>441</v>
       </c>
-      <c r="D19" s="207"/>
+      <c r="D19" s="215"/>
       <c r="G19" s="13"/>
       <c r="J19"/>
     </row>
     <row r="20" spans="2:10" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18"/>
-      <c r="C20" s="204"/>
-      <c r="D20" s="204"/>
+      <c r="C20" s="212"/>
+      <c r="D20" s="212"/>
       <c r="F20" s="2" t="str">
         <f>"L1"</f>
         <v>L1</v>
@@ -22909,9 +23698,9 @@
       <c r="J20"/>
     </row>
     <row r="21" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="197"/>
-      <c r="C21" s="197"/>
-      <c r="D21" s="197"/>
+      <c r="B21" s="205"/>
+      <c r="C21" s="205"/>
+      <c r="D21" s="205"/>
       <c r="G21" s="13"/>
       <c r="J21"/>
     </row>
@@ -22941,7 +23730,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC051C26-1D45-41BD-A055-AF51338FAFF4}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -22967,10 +23756,10 @@
   <sheetData>
     <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="210" t="s">
         <v>442</v>
       </c>
-      <c r="C2" s="203"/>
+      <c r="C2" s="211"/>
     </row>
     <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -23254,62 +24043,62 @@
       <c r="G18" s="23"/>
     </row>
     <row r="19" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="195"/>
-      <c r="C19" s="195"/>
-      <c r="D19" s="195"/>
-      <c r="E19" s="195"/>
-      <c r="F19" s="195"/>
-      <c r="G19" s="195"/>
+      <c r="B19" s="203"/>
+      <c r="C19" s="203"/>
+      <c r="D19" s="203"/>
+      <c r="E19" s="203"/>
+      <c r="F19" s="203"/>
+      <c r="G19" s="203"/>
     </row>
     <row r="20" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="18" t="s">
         <v>482</v>
       </c>
-      <c r="C20" s="212" t="s">
+      <c r="C20" s="220" t="s">
         <v>483</v>
       </c>
-      <c r="D20" s="212"/>
-      <c r="E20" s="212"/>
-      <c r="F20" s="212"/>
-      <c r="G20" s="212"/>
+      <c r="D20" s="220"/>
+      <c r="E20" s="220"/>
+      <c r="F20" s="220"/>
+      <c r="G20" s="220"/>
     </row>
     <row r="21" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18"/>
-      <c r="C21" s="213" t="s">
+      <c r="C21" s="221" t="s">
         <v>268</v>
       </c>
-      <c r="D21" s="213"/>
-      <c r="E21" s="213"/>
-      <c r="F21" s="213"/>
-      <c r="G21" s="213"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="221"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="196"/>
-      <c r="C22" s="196"/>
-      <c r="D22" s="196"/>
-      <c r="E22" s="196"/>
-      <c r="F22" s="196"/>
-      <c r="G22" s="196"/>
+      <c r="B22" s="204"/>
+      <c r="C22" s="204"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="204"/>
+      <c r="F22" s="204"/>
+      <c r="G22" s="204"/>
     </row>
     <row r="23" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C23" s="212" t="s">
+      <c r="C23" s="220" t="s">
         <v>484</v>
       </c>
-      <c r="D23" s="212"/>
-      <c r="E23" s="212"/>
-      <c r="F23" s="212"/>
-      <c r="G23" s="212"/>
+      <c r="D23" s="220"/>
+      <c r="E23" s="220"/>
+      <c r="F23" s="220"/>
+      <c r="G23" s="220"/>
     </row>
     <row r="24" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="196"/>
-      <c r="C24" s="196"/>
-      <c r="D24" s="196"/>
-      <c r="E24" s="196"/>
-      <c r="F24" s="196"/>
-      <c r="G24" s="196"/>
+      <c r="B24" s="204"/>
+      <c r="C24" s="204"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="204"/>
+      <c r="F24" s="204"/>
+      <c r="G24" s="204"/>
     </row>
     <row r="25" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18" t="s">
@@ -23318,14 +24107,14 @@
       <c r="C25" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="D25" s="214" t="s">
+      <c r="D25" s="222" t="s">
         <v>487</v>
       </c>
-      <c r="E25" s="215"/>
-      <c r="F25" s="216" t="s">
+      <c r="E25" s="223"/>
+      <c r="F25" s="224" t="s">
         <v>488</v>
       </c>
-      <c r="G25" s="214"/>
+      <c r="G25" s="222"/>
     </row>
     <row r="26" spans="2:7" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="18"/>
@@ -23352,14 +24141,14 @@
       <c r="C27" s="35" t="s">
         <v>489</v>
       </c>
-      <c r="D27" s="214" t="s">
+      <c r="D27" s="222" t="s">
         <v>490</v>
       </c>
-      <c r="E27" s="215"/>
-      <c r="F27" s="208" t="s">
+      <c r="E27" s="223"/>
+      <c r="F27" s="216" t="s">
         <v>491</v>
       </c>
-      <c r="G27" s="209"/>
+      <c r="G27" s="217"/>
     </row>
     <row r="28" spans="2:7" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="18"/>
@@ -23372,19 +24161,19 @@
         <f>"Chemistry 3"</f>
         <v>Chemistry 3</v>
       </c>
-      <c r="F28" s="210" t="str">
+      <c r="F28" s="218" t="str">
         <f>"Chemistry 6"</f>
         <v>Chemistry 6</v>
       </c>
-      <c r="G28" s="211"/>
+      <c r="G28" s="219"/>
     </row>
     <row r="29" spans="2:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="197"/>
-      <c r="C29" s="197"/>
-      <c r="D29" s="197"/>
-      <c r="E29" s="197"/>
-      <c r="F29" s="197"/>
-      <c r="G29" s="197"/>
+      <c r="B29" s="205"/>
+      <c r="C29" s="205"/>
+      <c r="D29" s="205"/>
+      <c r="E29" s="205"/>
+      <c r="F29" s="205"/>
+      <c r="G29" s="205"/>
     </row>
     <row r="30" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="2:7" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -23399,112 +24188,112 @@
       <c r="G32" s="23"/>
     </row>
     <row r="33" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B33" s="195"/>
-      <c r="C33" s="195"/>
-      <c r="D33" s="195"/>
-      <c r="E33" s="195"/>
-      <c r="F33" s="195"/>
-      <c r="G33" s="195"/>
+      <c r="B33" s="203"/>
+      <c r="C33" s="203"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
+      <c r="G33" s="203"/>
     </row>
     <row r="34" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="217" t="s">
+      <c r="B34" s="225" t="s">
         <v>493</v>
       </c>
-      <c r="C34" s="218"/>
-      <c r="D34" s="219" t="s">
+      <c r="C34" s="226"/>
+      <c r="D34" s="227" t="s">
         <v>494</v>
       </c>
-      <c r="E34" s="218"/>
-      <c r="F34" s="220" t="s">
+      <c r="E34" s="226"/>
+      <c r="F34" s="228" t="s">
         <v>495</v>
       </c>
-      <c r="G34" s="220"/>
+      <c r="G34" s="228"/>
     </row>
     <row r="35" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="209" t="s">
+      <c r="B35" s="217" t="s">
         <v>496</v>
       </c>
-      <c r="C35" s="221"/>
-      <c r="D35" s="208" t="s">
+      <c r="C35" s="229"/>
+      <c r="D35" s="216" t="s">
         <v>497</v>
       </c>
-      <c r="E35" s="221"/>
-      <c r="F35" s="209" t="s">
+      <c r="E35" s="229"/>
+      <c r="F35" s="217" t="s">
         <v>498</v>
       </c>
-      <c r="G35" s="209"/>
+      <c r="G35" s="217"/>
     </row>
     <row r="36" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="209" t="s">
+      <c r="B36" s="217" t="s">
         <v>499</v>
       </c>
-      <c r="C36" s="221"/>
-      <c r="D36" s="208" t="s">
+      <c r="C36" s="229"/>
+      <c r="D36" s="216" t="s">
         <v>500</v>
       </c>
-      <c r="E36" s="221"/>
-      <c r="F36" s="222" t="s">
+      <c r="E36" s="229"/>
+      <c r="F36" s="230" t="s">
         <v>501</v>
       </c>
-      <c r="G36" s="222"/>
+      <c r="G36" s="230"/>
     </row>
     <row r="37" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="225"/>
-      <c r="C37" s="224"/>
-      <c r="D37" s="223"/>
-      <c r="E37" s="224"/>
-      <c r="F37" s="209" t="s">
+      <c r="B37" s="233"/>
+      <c r="C37" s="232"/>
+      <c r="D37" s="231"/>
+      <c r="E37" s="232"/>
+      <c r="F37" s="217" t="s">
         <v>502</v>
       </c>
-      <c r="G37" s="209"/>
+      <c r="G37" s="217"/>
     </row>
     <row r="38" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="209" t="s">
+      <c r="B38" s="217" t="s">
         <v>503</v>
       </c>
-      <c r="C38" s="221"/>
-      <c r="D38" s="208" t="s">
+      <c r="C38" s="229"/>
+      <c r="D38" s="216" t="s">
         <v>504</v>
       </c>
-      <c r="E38" s="221"/>
-      <c r="F38" s="209" t="s">
+      <c r="E38" s="229"/>
+      <c r="F38" s="217" t="s">
         <v>505</v>
       </c>
-      <c r="G38" s="209"/>
+      <c r="G38" s="217"/>
     </row>
     <row r="39" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="209"/>
-      <c r="C39" s="221"/>
-      <c r="D39" s="208" t="s">
+      <c r="B39" s="217"/>
+      <c r="C39" s="229"/>
+      <c r="D39" s="216" t="s">
         <v>506</v>
       </c>
-      <c r="E39" s="221"/>
-      <c r="F39" s="209" t="s">
+      <c r="E39" s="229"/>
+      <c r="F39" s="217" t="s">
         <v>507</v>
       </c>
-      <c r="G39" s="209"/>
+      <c r="G39" s="217"/>
     </row>
     <row r="40" spans="2:21" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="209" t="s">
+      <c r="B40" s="217" t="s">
         <v>508</v>
       </c>
-      <c r="C40" s="221"/>
-      <c r="D40" s="208" t="s">
+      <c r="C40" s="229"/>
+      <c r="D40" s="216" t="s">
         <v>509</v>
       </c>
-      <c r="E40" s="221"/>
-      <c r="F40" s="209" t="s">
+      <c r="E40" s="229"/>
+      <c r="F40" s="217" t="s">
         <v>510</v>
       </c>
-      <c r="G40" s="209"/>
+      <c r="G40" s="217"/>
     </row>
     <row r="41" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="197"/>
-      <c r="C41" s="197"/>
-      <c r="D41" s="197"/>
-      <c r="E41" s="197"/>
-      <c r="F41" s="197"/>
-      <c r="G41" s="197"/>
+      <c r="B41" s="205"/>
+      <c r="C41" s="205"/>
+      <c r="D41" s="205"/>
+      <c r="E41" s="205"/>
+      <c r="F41" s="205"/>
+      <c r="G41" s="205"/>
     </row>
     <row r="44" spans="2:21" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B44" s="114" t="s">
@@ -23899,7 +24688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C849F5B-5200-4CF3-837B-047AFC3E54E3}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -24254,7 +25043,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD05EC7A-87DB-4983-B346-AE6D250E7194}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -24519,7 +25308,398 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BB277D-F04A-4181-AAEF-0940B36DB499}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="B1:K23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="4" width="25.7109375" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1"/>
+    <col min="8" max="10" width="25.7109375" customWidth="1"/>
+    <col min="11" max="11" width="50.7109375" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="206" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="207"/>
+    </row>
+    <row r="3" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="F7" s="61" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="19">
+        <v>1</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="21"/>
+    </row>
+    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="19">
+        <v>2</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="I9" s="21"/>
+      <c r="J9" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" s="21"/>
+    </row>
+    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="19">
+        <v>3</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I10" s="21"/>
+      <c r="J10" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="19">
+        <v>4</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="K11" s="21"/>
+    </row>
+    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="19">
+        <v>5</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="21"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+    </row>
+    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19">
+        <v>6</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="K13" s="20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="80">
+        <v>7</v>
+      </c>
+      <c r="C14" s="81" t="s">
+        <v>141</v>
+      </c>
+      <c r="D14" s="81" t="s">
+        <v>167</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="81" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="81" t="s">
+        <v>170</v>
+      </c>
+      <c r="H14" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="I14" s="82" t="s">
+        <v>172</v>
+      </c>
+      <c r="J14" s="83" t="s">
+        <v>173</v>
+      </c>
+      <c r="K14" s="84" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C17" s="63"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+    </row>
+    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="203"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
+      <c r="E18" s="203"/>
+      <c r="F18" s="203"/>
+      <c r="G18" s="203"/>
+      <c r="H18" s="203"/>
+    </row>
+    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C19" s="202" t="s">
+        <v>177</v>
+      </c>
+      <c r="D19" s="202"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="204"/>
+      <c r="C20" s="204"/>
+      <c r="D20" s="204"/>
+      <c r="E20" s="204"/>
+      <c r="F20" s="204"/>
+      <c r="G20" s="204"/>
+      <c r="H20" s="204"/>
+    </row>
+    <row r="21" spans="2:8" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C21" s="208" t="str">
+        <f>"T3P"</f>
+        <v>T3P</v>
+      </c>
+      <c r="D21" s="208"/>
+      <c r="E21" s="209" t="str">
+        <f>"COMU(R)"</f>
+        <v>COMU(R)</v>
+      </c>
+      <c r="F21" s="209"/>
+      <c r="G21" s="209" t="str">
+        <f>"TCFH"</f>
+        <v>TCFH</v>
+      </c>
+      <c r="H21" s="209"/>
+    </row>
+    <row r="22" spans="2:8" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="208" t="str">
+        <f>"Chemistry 1"</f>
+        <v>Chemistry 1</v>
+      </c>
+      <c r="D22" s="208"/>
+      <c r="E22" s="209" t="str">
+        <f>"Chemistry 2"</f>
+        <v>Chemistry 2</v>
+      </c>
+      <c r="F22" s="209"/>
+      <c r="G22" s="209" t="str">
+        <f>"Chemistry 3"</f>
+        <v>Chemistry 3</v>
+      </c>
+      <c r="H22" s="209"/>
+    </row>
+    <row r="23" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="205"/>
+      <c r="C23" s="205"/>
+      <c r="D23" s="205"/>
+      <c r="E23" s="205"/>
+      <c r="F23" s="205"/>
+      <c r="G23" s="205"/>
+      <c r="H23" s="205"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="B18:H18"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B23:H23"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="C22:D22"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I14" r:id="rId1" display="Org. Lett. 2020, 22, 15, 5737–5740" xr:uid="{2E9907B9-BB1E-4401-848F-D58DF7EDB912}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6B6559-B597-47F4-8665-2CFEFFECFDF8}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -24664,398 +25844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BB277D-F04A-4181-AAEF-0940B36DB499}">
-  <sheetPr>
-    <tabColor theme="7" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="B1:K23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="4" width="25.7109375" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1"/>
-    <col min="8" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="50.7109375" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="198" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="199"/>
-    </row>
-    <row r="3" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="F7" s="61" t="s">
-        <v>136</v>
-      </c>
-      <c r="G7" s="61" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>137</v>
-      </c>
-      <c r="I7" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="61" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="61" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="F8" s="20" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8" s="21"/>
-      <c r="J8" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="K8" s="21"/>
-    </row>
-    <row r="9" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
-        <v>2</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
-        <v>3</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="20" t="s">
-        <v>154</v>
-      </c>
-      <c r="K10" s="20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
-        <v>4</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="I11" s="21"/>
-      <c r="J11" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="19">
-        <v>5</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>145</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="I12" s="21"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
-        <v>6</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>156</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="80">
-        <v>7</v>
-      </c>
-      <c r="C14" s="81" t="s">
-        <v>141</v>
-      </c>
-      <c r="D14" s="81" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="81" t="s">
-        <v>168</v>
-      </c>
-      <c r="F14" s="81" t="s">
-        <v>169</v>
-      </c>
-      <c r="G14" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="H14" s="81" t="s">
-        <v>171</v>
-      </c>
-      <c r="I14" s="82" t="s">
-        <v>172</v>
-      </c>
-      <c r="J14" s="83" t="s">
-        <v>173</v>
-      </c>
-      <c r="K14" s="84" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="2:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="2:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="62" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-    </row>
-    <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="195"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="195"/>
-      <c r="F18" s="195"/>
-      <c r="G18" s="195"/>
-      <c r="H18" s="195"/>
-    </row>
-    <row r="19" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="194" t="s">
-        <v>177</v>
-      </c>
-      <c r="D19" s="194"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="196"/>
-      <c r="C20" s="196"/>
-      <c r="D20" s="196"/>
-      <c r="E20" s="196"/>
-      <c r="F20" s="196"/>
-      <c r="G20" s="196"/>
-      <c r="H20" s="196"/>
-    </row>
-    <row r="21" spans="2:8" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="200" t="str">
-        <f>"T3P"</f>
-        <v>T3P</v>
-      </c>
-      <c r="D21" s="200"/>
-      <c r="E21" s="201" t="str">
-        <f>"COMU(R)"</f>
-        <v>COMU(R)</v>
-      </c>
-      <c r="F21" s="201"/>
-      <c r="G21" s="201" t="str">
-        <f>"TCFH"</f>
-        <v>TCFH</v>
-      </c>
-      <c r="H21" s="201"/>
-    </row>
-    <row r="22" spans="2:8" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="200" t="str">
-        <f>"Chemistry 1"</f>
-        <v>Chemistry 1</v>
-      </c>
-      <c r="D22" s="200"/>
-      <c r="E22" s="201" t="str">
-        <f>"Chemistry 2"</f>
-        <v>Chemistry 2</v>
-      </c>
-      <c r="F22" s="201"/>
-      <c r="G22" s="201" t="str">
-        <f>"Chemistry 3"</f>
-        <v>Chemistry 3</v>
-      </c>
-      <c r="H22" s="201"/>
-    </row>
-    <row r="23" spans="2:8" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="197"/>
-      <c r="C23" s="197"/>
-      <c r="D23" s="197"/>
-      <c r="E23" s="197"/>
-      <c r="F23" s="197"/>
-      <c r="G23" s="197"/>
-      <c r="H23" s="197"/>
-    </row>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="B18:H18"/>
-    <mergeCell ref="B20:H20"/>
-    <mergeCell ref="B23:H23"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="C22:D22"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I14" r:id="rId1" display="Org. Lett. 2020, 22, 15, 5737–5740" xr:uid="{2E9907B9-BB1E-4401-848F-D58DF7EDB912}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
-  <tableParts count="1">
-    <tablePart r:id="rId5"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65DB53D-0163-4219-86BF-29868066046B}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -25180,8 +25969,8 @@
         <f>"Chemistry 0"</f>
         <v>Chemistry 0</v>
       </c>
-      <c r="H5" s="216"/>
-      <c r="I5" s="214"/>
+      <c r="H5" s="224"/>
+      <c r="I5" s="222"/>
     </row>
     <row r="6" spans="1:9" ht="106.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="133" t="s">
@@ -25341,7 +26130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FF8CEC6-E992-4567-B5F5-54DB108126F6}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -25366,10 +26155,10 @@
   <sheetData>
     <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="210" t="s">
         <v>545</v>
       </c>
-      <c r="C2" s="203"/>
+      <c r="C2" s="211"/>
     </row>
     <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -25554,11 +26343,11 @@
       <c r="B16" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C16" s="207" t="s">
+      <c r="C16" s="215" t="s">
         <v>386</v>
       </c>
-      <c r="D16" s="207"/>
-      <c r="E16" s="207"/>
+      <c r="D16" s="215"/>
+      <c r="E16" s="215"/>
     </row>
     <row r="17" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="64"/>
@@ -25585,7 +26374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D91D49-0DCE-4DFB-B520-5723C1808FC3}">
   <sheetPr>
     <tabColor theme="4" tint="0.59999389629810485"/>
@@ -25613,10 +26402,10 @@
   <sheetData>
     <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="210" t="s">
         <v>566</v>
       </c>
-      <c r="C2" s="203"/>
+      <c r="C2" s="211"/>
       <c r="J2" s="34"/>
     </row>
     <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -25954,74 +26743,74 @@
       <c r="G19" s="23"/>
     </row>
     <row r="20" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="195"/>
-      <c r="C20" s="195"/>
-      <c r="D20" s="195"/>
-      <c r="E20" s="195"/>
-      <c r="F20" s="195"/>
-      <c r="G20" s="195"/>
+      <c r="B20" s="203"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
     </row>
     <row r="21" spans="2:13" s="41" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="18" t="s">
         <v>615</v>
       </c>
-      <c r="C21" s="226" t="s">
+      <c r="C21" s="234" t="s">
         <v>616</v>
       </c>
-      <c r="D21" s="226"/>
-      <c r="E21" s="226"/>
-      <c r="F21" s="226"/>
-      <c r="G21" s="226"/>
+      <c r="D21" s="234"/>
+      <c r="E21" s="234"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="234"/>
       <c r="J21" s="5"/>
     </row>
     <row r="22" spans="2:13" s="41" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="227"/>
-      <c r="C22" s="227"/>
-      <c r="D22" s="227"/>
-      <c r="E22" s="227"/>
-      <c r="F22" s="227"/>
-      <c r="G22" s="227"/>
+      <c r="B22" s="235"/>
+      <c r="C22" s="235"/>
+      <c r="D22" s="235"/>
+      <c r="E22" s="235"/>
+      <c r="F22" s="235"/>
+      <c r="G22" s="235"/>
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C23" s="204" t="s">
+      <c r="C23" s="212" t="s">
         <v>617</v>
       </c>
-      <c r="D23" s="204"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
     </row>
     <row r="24" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="18"/>
-      <c r="C24" s="204" t="s">
+      <c r="C24" s="212" t="s">
         <v>618</v>
       </c>
-      <c r="D24" s="204"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="204"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
     </row>
     <row r="25" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="18"/>
-      <c r="C25" s="204" t="s">
+      <c r="C25" s="212" t="s">
         <v>619</v>
       </c>
-      <c r="D25" s="204"/>
-      <c r="E25" s="204"/>
-      <c r="F25" s="204"/>
-      <c r="G25" s="204"/>
+      <c r="D25" s="212"/>
+      <c r="E25" s="212"/>
+      <c r="F25" s="212"/>
+      <c r="G25" s="212"/>
     </row>
     <row r="26" spans="2:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="197"/>
-      <c r="C26" s="197"/>
-      <c r="D26" s="197"/>
-      <c r="E26" s="197"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="197"/>
+      <c r="B26" s="205"/>
+      <c r="C26" s="205"/>
+      <c r="D26" s="205"/>
+      <c r="E26" s="205"/>
+      <c r="F26" s="205"/>
+      <c r="G26" s="205"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -26050,7 +26839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DB579D7-DDEF-4C14-925A-3B36EB9BE685}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -26074,11 +26863,11 @@
       <c r="J1" s="13"/>
     </row>
     <row r="2" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="236" t="s">
         <v>620</v>
       </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="230"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="238"/>
       <c r="J2" s="34"/>
     </row>
     <row r="3" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -26598,7 +27387,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11762705-8A62-4FD8-8443-330CF7144B49}">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
@@ -26616,11 +27405,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:10" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="228" t="s">
+      <c r="B2" s="236" t="s">
         <v>685</v>
       </c>
-      <c r="C2" s="229"/>
-      <c r="D2" s="230"/>
+      <c r="C2" s="237"/>
+      <c r="D2" s="238"/>
     </row>
     <row r="3" spans="2:10" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -27089,6 +27878,172 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF9C3E88-D761-4053-BF62-3ED00B5B88F7}">
+  <sheetPr>
+    <tabColor theme="7" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="25.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" customWidth="1"/>
+    <col min="7" max="9" width="25.7109375" customWidth="1"/>
+    <col min="10" max="10" width="50.7109375" customWidth="1"/>
+    <col min="11" max="11" width="20.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="198" t="s">
+        <v>861</v>
+      </c>
+      <c r="B1" s="193" t="s">
+        <v>854</v>
+      </c>
+      <c r="C1" s="198" t="s">
+        <v>862</v>
+      </c>
+      <c r="D1" s="193" t="s">
+        <v>855</v>
+      </c>
+      <c r="E1" s="198" t="s">
+        <v>863</v>
+      </c>
+      <c r="F1" s="193" t="s">
+        <v>856</v>
+      </c>
+      <c r="G1" s="198" t="s">
+        <v>864</v>
+      </c>
+      <c r="H1" s="193" t="s">
+        <v>857</v>
+      </c>
+      <c r="I1" s="198" t="s">
+        <v>865</v>
+      </c>
+      <c r="J1" s="193" t="s">
+        <v>860</v>
+      </c>
+      <c r="K1" s="192" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="194" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="195" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="195"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="195"/>
+      <c r="J2" s="195"/>
+      <c r="K2" s="195"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="196" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197" t="s">
+        <v>858</v>
+      </c>
+      <c r="D3" s="197" t="s">
+        <v>859</v>
+      </c>
+      <c r="E3" s="196" t="s">
+        <v>848</v>
+      </c>
+      <c r="F3" s="197" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="197" t="s">
+        <v>851</v>
+      </c>
+      <c r="H3" s="196"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="194" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4" s="195"/>
+      <c r="C4" s="195" t="s">
+        <v>858</v>
+      </c>
+      <c r="D4" s="195" t="s">
+        <v>204</v>
+      </c>
+      <c r="E4" s="194" t="s">
+        <v>849</v>
+      </c>
+      <c r="F4" s="195" t="s">
+        <v>179</v>
+      </c>
+      <c r="G4" s="195" t="s">
+        <v>852</v>
+      </c>
+      <c r="H4" s="194"/>
+      <c r="I4" s="195"/>
+      <c r="J4" s="195"/>
+      <c r="K4" s="195"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="196" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="197"/>
+      <c r="C5" s="197" t="s">
+        <v>858</v>
+      </c>
+      <c r="D5" s="197" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="196" t="s">
+        <v>850</v>
+      </c>
+      <c r="F5" s="197" t="s">
+        <v>179</v>
+      </c>
+      <c r="G5" s="197" t="s">
+        <v>853</v>
+      </c>
+      <c r="H5" s="196"/>
+      <c r="I5" s="197"/>
+      <c r="J5" s="197"/>
+      <c r="K5" s="197"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="191"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:11" ht="106.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:11" ht="106.15" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="32" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B5B03A4-2E23-4F43-B4F2-2D4AD877A34C}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -27521,15 +28476,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7794F629-C928-4567-AE50-BF5D26946FD4}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:Q19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27880,7 +28835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0179A4E7-FF83-4CEF-823A-C58C5EAF050F}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -28011,7 +28966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{946150B7-DFDE-45E8-B3D8-24E33D6B6481}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -28407,7 +29362,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F70BC8F-59D9-4573-B87C-B8FA408CB675}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -28435,10 +29390,10 @@
   <sheetData>
     <row r="1" spans="2:11" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="210" t="s">
         <v>212</v>
       </c>
-      <c r="C2" s="203"/>
+      <c r="C2" s="211"/>
     </row>
     <row r="3" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:11" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -28803,12 +29758,12 @@
       <c r="B24" s="18" t="s">
         <v>265</v>
       </c>
-      <c r="C24" s="204" t="s">
+      <c r="C24" s="212" t="s">
         <v>266</v>
       </c>
-      <c r="D24" s="204"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="204"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="212"/>
     </row>
     <row r="25" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="44"/>
@@ -28821,12 +29776,12 @@
       <c r="B26" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C26" s="204" t="s">
+      <c r="C26" s="212" t="s">
         <v>268</v>
       </c>
-      <c r="D26" s="204"/>
-      <c r="E26" s="204"/>
-      <c r="F26" s="204"/>
+      <c r="D26" s="212"/>
+      <c r="E26" s="212"/>
+      <c r="F26" s="212"/>
     </row>
     <row r="27" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B27" s="64"/>
@@ -29044,7 +29999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2BA17F9-EEE9-41E5-8B8E-A865FCAC40A0}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
@@ -29072,10 +30027,10 @@
   <sheetData>
     <row r="1" spans="2:14" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="202" t="s">
+      <c r="B2" s="210" t="s">
         <v>270</v>
       </c>
-      <c r="C2" s="203"/>
+      <c r="C2" s="211"/>
     </row>
     <row r="3" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:14" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
@@ -29267,12 +30222,12 @@
     </row>
     <row r="13" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:14" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="205" t="s">
+      <c r="B14" s="213" t="s">
         <v>175</v>
       </c>
-      <c r="C14" s="205"/>
-      <c r="D14" s="205"/>
-      <c r="E14" s="205"/>
+      <c r="C14" s="213"/>
+      <c r="D14" s="213"/>
+      <c r="E14" s="213"/>
     </row>
     <row r="15" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="65"/>
@@ -29284,19 +30239,19 @@
       <c r="B16" s="18" t="s">
         <v>267</v>
       </c>
-      <c r="C16" s="206" t="s">
+      <c r="C16" s="214" t="s">
         <v>298</v>
       </c>
-      <c r="D16" s="206"/>
-      <c r="E16" s="206"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="214"/>
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="18"/>
-      <c r="C17" s="206" t="s">
+      <c r="C17" s="214" t="s">
         <v>299</v>
       </c>
-      <c r="D17" s="206"/>
-      <c r="E17" s="206"/>
+      <c r="D17" s="214"/>
+      <c r="E17" s="214"/>
     </row>
     <row r="18" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="44"/>
@@ -29308,11 +30263,11 @@
       <c r="B19" s="29" t="s">
         <v>300</v>
       </c>
-      <c r="C19" s="204" t="s">
+      <c r="C19" s="212" t="s">
         <v>301</v>
       </c>
-      <c r="D19" s="204"/>
-      <c r="E19" s="204"/>
+      <c r="D19" s="212"/>
+      <c r="E19" s="212"/>
     </row>
     <row r="20" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="66"/>
@@ -29324,25 +30279,25 @@
       <c r="B21" s="18" t="s">
         <v>302</v>
       </c>
-      <c r="C21" s="204" t="s">
+      <c r="C21" s="212" t="s">
         <v>303</v>
       </c>
-      <c r="D21" s="204"/>
-      <c r="E21" s="204"/>
+      <c r="D21" s="212"/>
+      <c r="E21" s="212"/>
     </row>
     <row r="22" spans="2:5" ht="99.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="18"/>
-      <c r="C22" s="204"/>
-      <c r="D22" s="204"/>
-      <c r="E22" s="204"/>
+      <c r="C22" s="212"/>
+      <c r="D22" s="212"/>
+      <c r="E22" s="212"/>
     </row>
     <row r="23" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="18"/>
-      <c r="C23" s="204" t="s">
+      <c r="C23" s="212" t="s">
         <v>304</v>
       </c>
-      <c r="D23" s="204"/>
-      <c r="E23" s="204"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
     </row>
     <row r="24" spans="2:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="64"/>
@@ -29375,551 +30330,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B3ABE78-F95F-4678-A443-804E4DF4AECE}">
-  <sheetPr>
-    <tabColor theme="8" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="B1:U25"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="3" width="25.7109375" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="50.7109375" customWidth="1"/>
-    <col min="6" max="7" width="30.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1"/>
-    <col min="9" max="9" width="38.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.7109375" customWidth="1"/>
-    <col min="11" max="11" width="50.7109375" customWidth="1"/>
-    <col min="12" max="12" width="25.7109375" customWidth="1"/>
-    <col min="13" max="13" width="16.140625" customWidth="1"/>
-    <col min="16" max="16" width="18.42578125" customWidth="1"/>
-    <col min="19" max="19" width="13.5703125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:12" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="202" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="203"/>
-      <c r="I2" s="34"/>
-    </row>
-    <row r="3" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="I3" s="34"/>
-    </row>
-    <row r="4" spans="2:12" s="17" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="I4" s="34"/>
-    </row>
-    <row r="5" spans="2:12" ht="99.95" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>306</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="I7" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="J7" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="K7" s="22" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="J8" s="33" t="s">
-        <v>312</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
-        <v>2</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>318</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="11" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>324</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="1"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="2:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="C14" s="23"/>
-      <c r="F14" s="13"/>
-      <c r="I14"/>
-    </row>
-    <row r="15" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="65"/>
-      <c r="C15" s="65"/>
-      <c r="F15" s="13"/>
-      <c r="I15"/>
-    </row>
-    <row r="16" spans="2:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="F16" s="13"/>
-      <c r="I16"/>
-    </row>
-    <row r="17" spans="2:21" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="F17" s="13"/>
-      <c r="I17"/>
-    </row>
-    <row r="19" spans="2:21" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B19" s="114" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="114" t="s">
-        <v>181</v>
-      </c>
-      <c r="D19" s="114" t="s">
-        <v>132</v>
-      </c>
-      <c r="E19" s="114" t="s">
-        <v>332</v>
-      </c>
-      <c r="F19" s="114" t="s">
-        <v>333</v>
-      </c>
-      <c r="G19" s="114" t="s">
-        <v>334</v>
-      </c>
-      <c r="H19" s="114" t="s">
-        <v>335</v>
-      </c>
-      <c r="I19" s="114" t="s">
-        <v>186</v>
-      </c>
-      <c r="J19" s="114" t="s">
-        <v>187</v>
-      </c>
-      <c r="K19" s="114" t="s">
-        <v>188</v>
-      </c>
-      <c r="L19" s="114" t="s">
-        <v>336</v>
-      </c>
-      <c r="M19" s="114" t="s">
-        <v>337</v>
-      </c>
-      <c r="N19" s="114" t="s">
-        <v>191</v>
-      </c>
-      <c r="O19" s="114" t="s">
-        <v>192</v>
-      </c>
-      <c r="P19" s="114" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q19" s="114" t="s">
-        <v>193</v>
-      </c>
-      <c r="R19" s="114" t="s">
-        <v>269</v>
-      </c>
-      <c r="S19" s="114" t="s">
-        <v>138</v>
-      </c>
-      <c r="T19" s="114" t="s">
-        <v>139</v>
-      </c>
-      <c r="U19" s="114" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:21" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="115" t="s">
-        <v>197</v>
-      </c>
-      <c r="C20" s="115" t="s">
-        <v>198</v>
-      </c>
-      <c r="D20" s="116">
-        <v>1</v>
-      </c>
-      <c r="E20" s="117" t="s">
-        <v>338</v>
-      </c>
-      <c r="F20" s="117" t="s">
-        <v>339</v>
-      </c>
-      <c r="G20" s="117">
-        <v>1</v>
-      </c>
-      <c r="H20" s="115" t="s">
-        <v>340</v>
-      </c>
-      <c r="I20" s="115">
-        <v>0.05</v>
-      </c>
-      <c r="J20" s="115"/>
-      <c r="K20" s="115"/>
-      <c r="L20" s="115"/>
-      <c r="M20" s="115"/>
-      <c r="N20" s="115" t="s">
-        <v>341</v>
-      </c>
-      <c r="O20" s="115">
-        <v>3</v>
-      </c>
-      <c r="P20" s="115" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q20" s="115">
-        <v>12.5</v>
-      </c>
-      <c r="R20" s="118" t="s">
-        <v>343</v>
-      </c>
-      <c r="S20" s="119" t="s">
-        <v>329</v>
-      </c>
-      <c r="T20" s="115" t="s">
-        <v>330</v>
-      </c>
-      <c r="U20" s="120" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="21" spans="2:21" ht="63" x14ac:dyDescent="0.25">
-      <c r="B21" s="121" t="s">
-        <v>197</v>
-      </c>
-      <c r="C21" s="121" t="s">
-        <v>198</v>
-      </c>
-      <c r="D21" s="122">
-        <v>1</v>
-      </c>
-      <c r="E21" s="117" t="s">
-        <v>338</v>
-      </c>
-      <c r="F21" s="123" t="s">
-        <v>345</v>
-      </c>
-      <c r="G21" s="123">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="121" t="s">
-        <v>346</v>
-      </c>
-      <c r="I21" s="121">
-        <v>1.6E-2</v>
-      </c>
-      <c r="J21" s="121" t="s">
-        <v>347</v>
-      </c>
-      <c r="K21" s="121">
-        <v>0.125</v>
-      </c>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="121"/>
-      <c r="P21" s="121" t="s">
-        <v>348</v>
-      </c>
-      <c r="Q21" s="121">
-        <v>5</v>
-      </c>
-      <c r="R21" s="118" t="s">
-        <v>349</v>
-      </c>
-      <c r="S21" s="119" t="s">
-        <v>318</v>
-      </c>
-      <c r="T21" s="121"/>
-      <c r="U21" s="124"/>
-    </row>
-    <row r="22" spans="2:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="115" t="s">
-        <v>207</v>
-      </c>
-      <c r="C22" s="115" t="s">
-        <v>203</v>
-      </c>
-      <c r="D22" s="116">
-        <v>2</v>
-      </c>
-      <c r="E22" s="117" t="s">
-        <v>338</v>
-      </c>
-      <c r="F22" s="117" t="s">
-        <v>339</v>
-      </c>
-      <c r="G22" s="117">
-        <v>1.8</v>
-      </c>
-      <c r="H22" s="115" t="s">
-        <v>350</v>
-      </c>
-      <c r="I22" s="115">
-        <v>0.03</v>
-      </c>
-      <c r="J22" s="115"/>
-      <c r="K22" s="115"/>
-      <c r="L22" s="115" t="s">
-        <v>351</v>
-      </c>
-      <c r="M22" s="115">
-        <v>0.05</v>
-      </c>
-      <c r="N22" s="115" t="s">
-        <v>352</v>
-      </c>
-      <c r="O22" s="115">
-        <v>0.12</v>
-      </c>
-      <c r="P22" s="115" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q22" s="115">
-        <v>10</v>
-      </c>
-      <c r="R22" s="118" t="s">
-        <v>153</v>
-      </c>
-      <c r="S22" s="125" t="s">
-        <v>322</v>
-      </c>
-      <c r="T22" s="126"/>
-      <c r="U22" s="127"/>
-    </row>
-    <row r="23" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="122"/>
-      <c r="E23" s="123"/>
-      <c r="F23" s="123"/>
-      <c r="G23" s="123"/>
-      <c r="H23" s="121"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="121"/>
-      <c r="R23" s="118"/>
-      <c r="S23" s="119"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="121"/>
-    </row>
-    <row r="24" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B24" s="115"/>
-      <c r="C24" s="115"/>
-      <c r="D24" s="116"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="117"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="115"/>
-      <c r="M24" s="115"/>
-      <c r="N24" s="115"/>
-      <c r="O24" s="115"/>
-      <c r="P24" s="115"/>
-      <c r="Q24" s="115"/>
-      <c r="R24" s="118"/>
-      <c r="S24" s="119"/>
-      <c r="T24" s="126"/>
-      <c r="U24" s="120"/>
-    </row>
-    <row r="25" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="122"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="123"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
-      <c r="K25" s="121"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="121"/>
-      <c r="N25" s="121"/>
-      <c r="O25" s="121"/>
-      <c r="P25" s="121"/>
-      <c r="Q25" s="121"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="119"/>
-      <c r="T25" s="128"/>
-      <c r="U25" s="124"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:C2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="I9" r:id="rId1" display="Angew. Chem. Int. Ed. 2013, 52, 10035-10039" xr:uid="{C40B3D0C-A990-42E3-AEE2-F3C1414733F6}"/>
-    <hyperlink ref="I10" r:id="rId2" display="Synlett. 2003, 14, 2237-2239" xr:uid="{670C4349-A103-4454-9F35-2C052C3ED2F1}"/>
-    <hyperlink ref="I11" r:id="rId3" xr:uid="{50E8C56D-0AED-4E9F-AFC3-31F917B41EB7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-  <drawing r:id="rId5"/>
-  <tableParts count="1">
-    <tablePart r:id="rId6"/>
-  </tableParts>
-</worksheet>
-</file>
-
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <SharedWithUsers xmlns="4f8065f1-a7a3-45ba-9f56-e8a3143bde6f">
@@ -29933,7 +30344,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010045D600CCD8A8AE44A6FBA1638FC576D2" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f8768c457e099643b8ac34f623f80bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="0f0deb7c-f2b6-4ffe-ad31-d7437f7a4f8d" xmlns:ns3="4f8065f1-a7a3-45ba-9f56-e8a3143bde6f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="be970c72ff9811227cd82dce639a505c" ns2:_="" ns3:_="">
     <xsd:import namespace="0f0deb7c-f2b6-4ffe-ad31-d7437f7a4f8d"/>
@@ -30098,15 +30509,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2CE3D49-F3ED-4327-A201-2B7B89556889}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DFD1102-B6A6-4ECD-841B-BE5B35E4A7DA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -30123,7 +30535,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A48137EF-07E0-442F-A116-7378942D74A9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -30140,4 +30552,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2CE3D49-F3ED-4327-A201-2B7B89556889}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>